--- a/gantt_chart.xlsx
+++ b/gantt_chart.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mlawson/Documents/GitHub/hfm_integration_demonstration_plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47629C4B-09A5-284E-A9DE-822E7DD627F2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26150A0-106D-4047-B460-4A4E20EE6F3C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="460" windowWidth="32460" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ECP Integration &amp; Demonstration" sheetId="1" r:id="rId1"/>
-    <sheet name="Abbrevs and colors" sheetId="2" r:id="rId2"/>
+    <sheet name="Notes" sheetId="4" r:id="rId2"/>
     <sheet name="ValidationCases" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="148">
   <si>
     <t>1.1.1</t>
   </si>
@@ -266,9 +266,6 @@
     <t>3.1.12</t>
   </si>
   <si>
-    <t>NREL 5 MW data processing</t>
-  </si>
-  <si>
     <t>Stable boundary layer precursor</t>
   </si>
   <si>
@@ -290,27 +287,15 @@
     <t>Neutral ABL with basic statistics, Wake slices</t>
   </si>
   <si>
-    <t>Improved DAKOTA link</t>
-  </si>
-  <si>
-    <t>2 PM, quarter time</t>
-  </si>
-  <si>
     <t>Synthetic Lidar</t>
   </si>
   <si>
     <t>Herges/Knaus</t>
   </si>
   <si>
-    <t>Stable ABL</t>
-  </si>
-  <si>
     <t>ABL eqn/IC/BC development</t>
   </si>
   <si>
-    <t>Unstable ABL</t>
-  </si>
-  <si>
     <t>1.1.7</t>
   </si>
   <si>
@@ -329,9 +314,6 @@
     <t>Frankel</t>
   </si>
   <si>
-    <t>3PM, quarter time</t>
-  </si>
-  <si>
     <t>Validation cases</t>
   </si>
   <si>
@@ -413,21 +395,9 @@
     <t>1PM</t>
   </si>
   <si>
-    <t>Under WD?</t>
-  </si>
-  <si>
-    <t>1.1.9</t>
-  </si>
-  <si>
     <t>Wind farm inflow and wake stats advanced capibilities</t>
   </si>
   <si>
-    <t>Shreyas</t>
-  </si>
-  <si>
-    <t>1.1.10</t>
-  </si>
-  <si>
     <t>1PM @ quarter time</t>
   </si>
   <si>
@@ -446,23 +416,71 @@
     <t>TBD</t>
   </si>
   <si>
-    <t>3.1.13</t>
-  </si>
-  <si>
-    <t>Fluid structure interactions - will we do this?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Decision on what turbine we will use</t>
-  </si>
-  <si>
     <t>Notes: Is there a disconnect between WD and HFM/ECP? How can this be improved?  A high level question for A2e management / Pis</t>
+  </si>
+  <si>
+    <t>Improved DAKOTA coupling for ABL and AL simulations</t>
+  </si>
+  <si>
+    <t>Frankel, Geraci</t>
+  </si>
+  <si>
+    <t>1 PM, quarter time</t>
+  </si>
+  <si>
+    <t>meshing/nesting, precursor, UQ</t>
+  </si>
+  <si>
+    <t>DAKOTA coupling for AAL</t>
+  </si>
+  <si>
+    <t>0.5pm (.15 for 3 months)</t>
+  </si>
+  <si>
+    <t>AAL, UQ</t>
+  </si>
+  <si>
+    <t>3PM (.33 for 4qtr)</t>
+  </si>
+  <si>
+    <t>1PM (.3 for 3 months)</t>
+  </si>
+  <si>
+    <t>UQ, overlap WD</t>
+  </si>
+  <si>
+    <t>Shreyas, Blaylock</t>
+  </si>
+  <si>
+    <t>3PM (.25 for 4qtr)</t>
+  </si>
+  <si>
+    <t>Depends on gaps from WD validation studies</t>
+  </si>
+  <si>
+    <t>NREL 5 MW data processing and publication</t>
+  </si>
+  <si>
+    <t>3.1.14</t>
+  </si>
+  <si>
+    <t>Decision on what turbine we will use for blade resolved simulations</t>
+  </si>
+  <si>
+    <t>ML, MS, SA</t>
+  </si>
+  <si>
+    <t>FSI capibility, RANS-LES capibiulity</t>
+  </si>
+  <si>
+    <t>Yellow cell indicate decision points and/or milestones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -516,21 +534,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,13 +580,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -762,10 +781,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -848,6 +867,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -863,36 +925,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Input" xfId="3" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{86CDE7DA-BFC6-A046-B759-A702721CAA6B}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{86CDE7DA-BFC6-A046-B759-A702721CAA6B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1172,9 +1212,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK317"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1183,7 +1223,7 @@
     <col min="2" max="2" width="67.1640625" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" style="76" customWidth="1"/>
     <col min="6" max="6" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.5" style="5" customWidth="1"/>
@@ -1221,98 +1261,98 @@
     <row r="1" spans="1:37" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="53" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52" t="s">
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52" t="s">
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
     </row>
     <row r="2" spans="1:37" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="54" t="s">
+      <c r="E2" s="70"/>
+      <c r="F2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="56" t="s">
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="54" t="s">
+      <c r="J2" s="79"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="56" t="s">
+      <c r="M2" s="79"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="56" t="s">
+      <c r="P2" s="79"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="54"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="56" t="s">
+      <c r="S2" s="79"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="54"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="54" t="s">
+      <c r="V2" s="79"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="54" t="s">
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="56" t="s">
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="54" t="s">
+      <c r="AE2" s="79"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="55"/>
+      <c r="AH2" s="79"/>
+      <c r="AI2" s="80"/>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1327,7 +1367,7 @@
       <c r="D3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="70" t="s">
         <v>49</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -1421,7 +1461,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>15</v>
       </c>
@@ -1432,7 +1472,9 @@
         <v>53</v>
       </c>
       <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="E4" s="48" t="s">
+        <v>83</v>
+      </c>
       <c r="F4" s="12"/>
       <c r="G4" s="8"/>
       <c r="H4" s="14"/>
@@ -1464,18 +1506,21 @@
       <c r="AH4" s="8"/>
       <c r="AI4" s="14"/>
     </row>
-    <row r="5" spans="1:37" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="14"/>
+      <c r="C5" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
+      <c r="H5"/>
       <c r="I5" s="15"/>
       <c r="J5" s="8"/>
       <c r="K5" s="14"/>
@@ -1513,14 +1558,14 @@
         <v>85</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
-      <c r="H6"/>
-      <c r="I6" s="12"/>
+        <v>86</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="8"/>
       <c r="K6" s="14"/>
       <c r="L6" s="12"/>
@@ -1549,25 +1594,31 @@
       <c r="AI6" s="14"/>
       <c r="AK6" s="21"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>86</v>
+        <v>129</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>130</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="32"/>
+        <v>131</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>132</v>
+      </c>
       <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="14"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="67"/>
       <c r="O7" s="15"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="14"/>
@@ -1591,21 +1642,25 @@
       <c r="AI7" s="14"/>
       <c r="AK7" s="21"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+        <v>133</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>135</v>
+      </c>
       <c r="F8" s="12"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="66"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="15"/>
       <c r="J8" s="8"/>
       <c r="K8" s="14"/>
@@ -1615,9 +1670,9 @@
       <c r="O8" s="15"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="14"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="14"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="54"/>
       <c r="U8" s="15"/>
       <c r="V8" s="8"/>
       <c r="W8" s="14"/>
@@ -1634,120 +1689,133 @@
       <c r="AH8" s="8"/>
       <c r="AI8" s="14"/>
     </row>
-    <row r="9" spans="1:37" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="69" t="s">
+    <row r="9" spans="1:37" s="66" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71" t="s">
+      <c r="B9" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9"/>
+    </row>
+    <row r="10" spans="1:37" s="66" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="72"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="74"/>
-      <c r="AA9" s="72"/>
-      <c r="AB9" s="73"/>
-      <c r="AC9" s="74"/>
-      <c r="AD9" s="75"/>
-      <c r="AE9" s="73"/>
-      <c r="AF9" s="74"/>
-      <c r="AG9" s="72"/>
-      <c r="AH9" s="73"/>
-      <c r="AI9" s="74"/>
-    </row>
-    <row r="10" spans="1:37" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="72"/>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="75"/>
-      <c r="AE10" s="73"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="72"/>
-      <c r="AH10" s="73"/>
-      <c r="AI10" s="74"/>
+      <c r="C10" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="32" t="s">
-        <v>123</v>
+      <c r="D11" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>138</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="8"/>
       <c r="H11" s="14"/>
       <c r="I11" s="15"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="66"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="54"/>
       <c r="U11" s="15"/>
       <c r="V11" s="8"/>
       <c r="W11" s="14"/>
@@ -1764,21 +1832,21 @@
       <c r="AH11" s="8"/>
       <c r="AI11" s="14"/>
     </row>
-    <row r="12" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>124</v>
+        <v>140</v>
+      </c>
+      <c r="E12" s="69" t="s">
+        <v>141</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="8"/>
@@ -1786,18 +1854,18 @@
       <c r="I12" s="15"/>
       <c r="J12" s="8"/>
       <c r="K12" s="45"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="14"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="67"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="14"/>
@@ -1810,38 +1878,29 @@
       <c r="AG12" s="12"/>
       <c r="AH12" s="8"/>
       <c r="AI12" s="14"/>
+      <c r="AJ12"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>127</v>
-      </c>
+      <c r="A13" s="20"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="69"/>
       <c r="F13" s="12"/>
       <c r="G13" s="8"/>
       <c r="H13" s="14"/>
       <c r="I13" s="15"/>
       <c r="J13" s="8"/>
       <c r="K13" s="45"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="66"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="14"/>
       <c r="U13" s="15"/>
       <c r="V13" s="8"/>
       <c r="W13" s="14"/>
@@ -1859,17 +1918,11 @@
       <c r="AI13" s="14"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>130</v>
-      </c>
+      <c r="A14" s="20"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
+      <c r="E14" s="69"/>
       <c r="F14" s="12"/>
       <c r="G14" s="8"/>
       <c r="H14" s="14"/>
@@ -1906,13 +1959,13 @@
       <c r="B15" s="48"/>
       <c r="C15" s="21"/>
       <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
+      <c r="E15" s="69"/>
       <c r="F15" s="12"/>
       <c r="G15" s="8"/>
       <c r="H15" s="14"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="77"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="64"/>
       <c r="L15" s="12"/>
       <c r="M15" s="8"/>
       <c r="N15" s="14"/>
@@ -1949,7 +2002,7 @@
         <v>52</v>
       </c>
       <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="E16" s="50"/>
       <c r="F16" s="39"/>
       <c r="G16" s="40"/>
       <c r="H16" s="41"/>
@@ -1981,154 +2034,154 @@
       <c r="AH16" s="40"/>
       <c r="AI16" s="41"/>
     </row>
-    <row r="17" spans="1:35" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="69" t="s">
+    <row r="17" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="60"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="60"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="62"/>
+      <c r="AE17" s="60"/>
+      <c r="AF17" s="61"/>
+      <c r="AG17" s="59"/>
+      <c r="AH17" s="60"/>
+      <c r="AI17" s="61"/>
+    </row>
+    <row r="18" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="72"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="75"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="74"/>
-      <c r="X17" s="72"/>
-      <c r="Y17" s="73"/>
-      <c r="Z17" s="74"/>
-      <c r="AA17" s="72"/>
-      <c r="AB17" s="73"/>
-      <c r="AC17" s="74"/>
-      <c r="AD17" s="75"/>
-      <c r="AE17" s="73"/>
-      <c r="AF17" s="74"/>
-      <c r="AG17" s="72"/>
-      <c r="AH17" s="73"/>
-      <c r="AI17" s="74"/>
-    </row>
-    <row r="18" spans="1:35" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="70" t="s">
-        <v>80</v>
-      </c>
       <c r="C18" s="46" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="72"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="75"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="73"/>
-      <c r="Z18" s="74"/>
-      <c r="AA18" s="72"/>
-      <c r="AB18" s="73"/>
-      <c r="AC18" s="74"/>
-      <c r="AD18" s="75"/>
-      <c r="AE18" s="73"/>
-      <c r="AF18" s="74"/>
-      <c r="AG18" s="72"/>
-      <c r="AH18" s="73"/>
-      <c r="AI18" s="74"/>
-    </row>
-    <row r="19" spans="1:35" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="70"/>
+        <v>87</v>
+      </c>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="60"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="60"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="60"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="59"/>
+      <c r="AH18" s="60"/>
+      <c r="AI18" s="61"/>
+    </row>
+    <row r="19" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="58"/>
       <c r="C19" s="46" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E19" s="71"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="75"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="74"/>
-      <c r="U19" s="75"/>
-      <c r="V19" s="73"/>
-      <c r="W19" s="74"/>
-      <c r="X19" s="72"/>
-      <c r="Y19" s="73"/>
-      <c r="Z19" s="74"/>
-      <c r="AA19" s="72"/>
-      <c r="AB19" s="73"/>
-      <c r="AC19" s="74"/>
-      <c r="AD19" s="75"/>
-      <c r="AE19" s="73"/>
-      <c r="AF19" s="74"/>
-      <c r="AG19" s="72"/>
-      <c r="AH19" s="73"/>
-      <c r="AI19" s="74"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="60"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="60"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="60"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="60"/>
+      <c r="AF19" s="61"/>
+      <c r="AG19" s="59"/>
+      <c r="AH19" s="60"/>
+      <c r="AI19" s="61"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="69" t="s">
         <v>65</v>
       </c>
       <c r="F20" s="12"/>
@@ -2167,15 +2220,15 @@
         <v>39</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="25"/>
+        <v>126</v>
+      </c>
+      <c r="E21" s="47"/>
       <c r="F21" s="12"/>
       <c r="G21" s="8"/>
       <c r="H21" s="14"/>
@@ -2212,15 +2265,15 @@
         <v>37</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="E22" s="25"/>
+        <v>127</v>
+      </c>
+      <c r="E22" s="47"/>
       <c r="F22" s="12"/>
       <c r="G22" s="8"/>
       <c r="H22" s="14"/>
@@ -2259,7 +2312,7 @@
       <c r="B23" s="48"/>
       <c r="C23" s="21"/>
       <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="E23" s="47"/>
       <c r="F23" s="12"/>
       <c r="G23" s="8"/>
       <c r="H23" s="14"/>
@@ -2296,7 +2349,7 @@
       <c r="B24" s="49"/>
       <c r="C24" s="21"/>
       <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
+      <c r="E24" s="69"/>
       <c r="F24" s="12"/>
       <c r="G24" s="8"/>
       <c r="H24" s="14"/>
@@ -2339,9 +2392,9 @@
         <v>68</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="25"/>
+        <v>115</v>
+      </c>
+      <c r="E25" s="47"/>
       <c r="F25" s="12"/>
       <c r="G25" s="8"/>
       <c r="H25" s="14"/>
@@ -2386,7 +2439,7 @@
       <c r="D26" s="32">
         <v>1</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="69" t="s">
         <v>66</v>
       </c>
       <c r="F26" s="12"/>
@@ -2398,9 +2451,9 @@
       <c r="L26" s="15"/>
       <c r="M26" s="8"/>
       <c r="N26" s="14"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="58"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="67"/>
       <c r="R26" s="15"/>
       <c r="S26" s="8"/>
       <c r="T26" s="14"/>
@@ -2420,46 +2473,42 @@
       <c r="AH26" s="8"/>
       <c r="AI26" s="14"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="32">
-        <v>4</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>65</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="69"/>
       <c r="F27" s="12"/>
       <c r="G27" s="8"/>
       <c r="H27" s="14"/>
       <c r="I27" s="15"/>
       <c r="J27" s="8"/>
       <c r="K27" s="14"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="60"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="58"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="14"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="8"/>
       <c r="Z27" s="14"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="14"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="36"/>
       <c r="AD27" s="15"/>
       <c r="AE27" s="8"/>
       <c r="AF27" s="14"/>
@@ -2469,18 +2518,20 @@
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D28" s="32">
-        <v>2</v>
-      </c>
-      <c r="E28" s="32"/>
+        <v>4</v>
+      </c>
+      <c r="E28" s="69" t="s">
+        <v>146</v>
+      </c>
       <c r="F28" s="12"/>
       <c r="G28" s="8"/>
       <c r="H28" s="14"/>
@@ -2493,13 +2544,15 @@
       <c r="O28" s="15"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="14"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="63"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="36"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="54"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="14"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="8"/>
       <c r="AC28" s="14"/>
@@ -2512,37 +2565,38 @@
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D29" s="32">
-        <v>1</v>
-      </c>
-      <c r="E29" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="E29" s="69"/>
       <c r="F29" s="12"/>
       <c r="G29" s="8"/>
       <c r="H29" s="14"/>
       <c r="I29" s="15"/>
       <c r="J29" s="8"/>
       <c r="K29" s="14"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="36"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="14"/>
       <c r="O29" s="15"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="14"/>
       <c r="R29" s="15"/>
       <c r="S29" s="8"/>
       <c r="T29" s="14"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="63"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="36"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="12"/>
+      <c r="Z29" s="14"/>
       <c r="AA29" s="12"/>
       <c r="AB29" s="8"/>
       <c r="AC29" s="14"/>
@@ -2555,37 +2609,38 @@
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D30" s="32">
-        <v>4</v>
-      </c>
-      <c r="E30" s="32"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="69"/>
       <c r="F30" s="12"/>
       <c r="G30" s="8"/>
       <c r="H30" s="14"/>
       <c r="I30" s="15"/>
       <c r="J30" s="8"/>
       <c r="K30" s="14"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="12"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="15"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="14"/>
-      <c r="R30" s="12"/>
+      <c r="R30" s="15"/>
       <c r="S30" s="8"/>
       <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="62"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="12"/>
+      <c r="Z30" s="14"/>
       <c r="AA30" s="12"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="14"/>
@@ -2596,24 +2651,24 @@
       <c r="AH30" s="8"/>
       <c r="AI30" s="14"/>
     </row>
-    <row r="31" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D31" s="32">
         <v>4</v>
       </c>
-      <c r="E31" s="32"/>
+      <c r="E31" s="69"/>
       <c r="F31" s="12"/>
       <c r="G31" s="8"/>
       <c r="H31" s="14"/>
-      <c r="I31" s="12"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="8"/>
       <c r="K31" s="14"/>
       <c r="L31" s="12"/>
@@ -2625,14 +2680,13 @@
       <c r="R31" s="12"/>
       <c r="S31" s="8"/>
       <c r="T31" s="14"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="14"/>
+      <c r="U31" s="55"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="67"/>
       <c r="X31" s="12"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="58"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="57"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="8"/>
       <c r="AC31" s="14"/>
       <c r="AD31" s="15"/>
       <c r="AE31" s="8"/>
@@ -2641,20 +2695,20 @@
       <c r="AH31" s="8"/>
       <c r="AI31" s="14"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D32" s="32">
-        <v>6</v>
-      </c>
-      <c r="E32" s="32"/>
+        <v>4</v>
+      </c>
+      <c r="E32" s="69"/>
       <c r="F32" s="12"/>
       <c r="G32" s="8"/>
       <c r="H32" s="14"/>
@@ -2673,14 +2727,14 @@
       <c r="U32" s="12"/>
       <c r="V32" s="8"/>
       <c r="W32" s="14"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="14"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="35"/>
-      <c r="AC32" s="61"/>
-      <c r="AD32" s="60"/>
-      <c r="AE32" s="57"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="54"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="53"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="8"/>
       <c r="AF32" s="14"/>
       <c r="AG32" s="12"/>
       <c r="AH32" s="8"/>
@@ -2688,70 +2742,70 @@
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D33" s="32">
-        <v>2</v>
-      </c>
-      <c r="E33" s="32"/>
+        <v>6</v>
+      </c>
+      <c r="E33" s="69"/>
       <c r="F33" s="12"/>
       <c r="G33" s="8"/>
       <c r="H33" s="14"/>
-      <c r="I33" s="15"/>
+      <c r="I33" s="12"/>
       <c r="J33" s="8"/>
       <c r="K33" s="14"/>
       <c r="L33" s="12"/>
       <c r="M33" s="8"/>
       <c r="N33" s="14"/>
-      <c r="O33" s="15"/>
+      <c r="O33" s="12"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="14"/>
-      <c r="R33" s="15"/>
+      <c r="R33" s="12"/>
       <c r="S33" s="8"/>
       <c r="T33" s="14"/>
-      <c r="U33" s="15"/>
+      <c r="U33" s="12"/>
       <c r="V33" s="8"/>
       <c r="W33" s="14"/>
       <c r="X33" s="15"/>
       <c r="Y33" s="8"/>
       <c r="Z33" s="14"/>
-      <c r="AA33" s="15"/>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="14"/>
-      <c r="AD33" s="60"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="58"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="54"/>
+      <c r="AD33" s="55"/>
+      <c r="AE33" s="53"/>
+      <c r="AF33" s="14"/>
       <c r="AG33" s="12"/>
       <c r="AH33" s="8"/>
       <c r="AI33" s="14"/>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D34" s="32">
-        <v>1</v>
-      </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="E34" s="69"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="12"/>
       <c r="M34" s="8"/>
       <c r="N34" s="14"/>
       <c r="O34" s="15"/>
@@ -2766,36 +2820,36 @@
       <c r="X34" s="15"/>
       <c r="Y34" s="8"/>
       <c r="Z34" s="14"/>
-      <c r="AA34" s="12"/>
+      <c r="AA34" s="15"/>
       <c r="AB34" s="8"/>
       <c r="AC34" s="14"/>
-      <c r="AD34" s="60"/>
-      <c r="AE34" s="57"/>
-      <c r="AF34" s="58"/>
-      <c r="AG34" s="26"/>
-      <c r="AH34" s="27"/>
-      <c r="AI34" s="28"/>
+      <c r="AD34" s="55"/>
+      <c r="AE34" s="53"/>
+      <c r="AF34" s="54"/>
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="14"/>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D35" s="32">
-        <v>6</v>
-      </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="E35" s="47"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="28"/>
       <c r="L35" s="15"/>
       <c r="M35" s="8"/>
       <c r="N35" s="14"/>
@@ -2814,27 +2868,27 @@
       <c r="AA35" s="12"/>
       <c r="AB35" s="8"/>
       <c r="AC35" s="14"/>
-      <c r="AD35" s="15"/>
-      <c r="AE35" s="8"/>
-      <c r="AF35" s="58"/>
-      <c r="AG35" s="59"/>
-      <c r="AH35" s="62"/>
-      <c r="AI35" s="14"/>
+      <c r="AD35" s="55"/>
+      <c r="AE35" s="53"/>
+      <c r="AF35" s="54"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="27"/>
+      <c r="AI35" s="28"/>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D36" s="32">
-        <v>4</v>
-      </c>
-      <c r="E36" s="25"/>
+        <v>6</v>
+      </c>
+      <c r="E36" s="69"/>
       <c r="F36" s="12"/>
       <c r="G36" s="8"/>
       <c r="H36" s="14"/>
@@ -2844,16 +2898,16 @@
       <c r="L36" s="15"/>
       <c r="M36" s="8"/>
       <c r="N36" s="14"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="12"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="15"/>
       <c r="Y36" s="8"/>
       <c r="Z36" s="14"/>
       <c r="AA36" s="12"/>
@@ -2861,43 +2915,43 @@
       <c r="AC36" s="14"/>
       <c r="AD36" s="15"/>
       <c r="AE36" s="8"/>
-      <c r="AF36" s="14"/>
-      <c r="AG36" s="12"/>
-      <c r="AH36" s="57"/>
-      <c r="AI36" s="58"/>
+      <c r="AF36" s="54"/>
+      <c r="AG36" s="52"/>
+      <c r="AH36" s="68"/>
+      <c r="AI36" s="14"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D37" s="32">
         <v>4</v>
       </c>
-      <c r="E37" s="32"/>
+      <c r="E37" s="47"/>
       <c r="F37" s="12"/>
       <c r="G37" s="8"/>
       <c r="H37" s="14"/>
       <c r="I37" s="15"/>
       <c r="J37" s="8"/>
       <c r="K37" s="14"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="58"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="15"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="14"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="28"/>
       <c r="X37" s="12"/>
       <c r="Y37" s="8"/>
       <c r="Z37" s="14"/>
@@ -2908,28 +2962,32 @@
       <c r="AE37" s="8"/>
       <c r="AF37" s="14"/>
       <c r="AG37" s="12"/>
-      <c r="AH37" s="8"/>
-      <c r="AI37" s="14"/>
-    </row>
-    <row r="38" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH37" s="53"/>
+      <c r="AI37" s="54"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B38" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
+        <v>77</v>
+      </c>
+      <c r="B38" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="32">
+        <v>4</v>
+      </c>
+      <c r="E38" s="69"/>
       <c r="F38" s="12"/>
       <c r="G38" s="8"/>
       <c r="H38" s="14"/>
       <c r="I38" s="15"/>
       <c r="J38" s="8"/>
       <c r="K38" s="14"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="14"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="67"/>
       <c r="O38" s="15"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="14"/>
@@ -2945,30 +3003,28 @@
       <c r="AA38" s="12"/>
       <c r="AB38" s="8"/>
       <c r="AC38" s="14"/>
-      <c r="AD38" s="29"/>
-      <c r="AE38" s="27"/>
-      <c r="AF38" s="28"/>
+      <c r="AD38" s="15"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="14"/>
       <c r="AG38" s="12"/>
       <c r="AH38" s="8"/>
       <c r="AI38" s="14"/>
     </row>
-    <row r="39" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="20"/>
-      <c r="B39" s="48" t="s">
-        <v>140</v>
-      </c>
+      <c r="B39" s="20"/>
       <c r="C39" s="21"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="47"/>
       <c r="F39" s="12"/>
       <c r="G39" s="8"/>
       <c r="H39" s="14"/>
       <c r="I39" s="15"/>
       <c r="J39" s="8"/>
       <c r="K39" s="14"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="28"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="14"/>
       <c r="O39" s="15"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="14"/>
@@ -2981,12 +3037,12 @@
       <c r="X39" s="12"/>
       <c r="Y39" s="8"/>
       <c r="Z39" s="14"/>
-      <c r="AA39" s="34"/>
-      <c r="AB39" s="35"/>
-      <c r="AC39" s="36"/>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="8"/>
-      <c r="AF39" s="14"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="27"/>
+      <c r="AF39" s="28"/>
       <c r="AG39" s="12"/>
       <c r="AH39" s="8"/>
       <c r="AI39" s="14"/>
@@ -2996,7 +3052,7 @@
       <c r="B40" s="48"/>
       <c r="C40" s="21"/>
       <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
+      <c r="E40" s="47"/>
       <c r="F40" s="12"/>
       <c r="G40" s="8"/>
       <c r="H40" s="14"/>
@@ -3028,14 +3084,14 @@
       <c r="AH40" s="8"/>
       <c r="AI40" s="14"/>
     </row>
-    <row r="41" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
-      <c r="B41" s="51" t="s">
-        <v>141</v>
+      <c r="B41" s="82" t="s">
+        <v>147</v>
       </c>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
+      <c r="E41" s="69"/>
       <c r="F41" s="34"/>
       <c r="G41" s="35"/>
       <c r="H41" s="36"/>
@@ -3072,7 +3128,7 @@
       <c r="B42" s="51"/>
       <c r="C42" s="32"/>
       <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
+      <c r="E42" s="47"/>
       <c r="F42" s="26"/>
       <c r="G42" s="27"/>
       <c r="H42" s="28"/>
@@ -3109,7 +3165,7 @@
       <c r="B43" s="48"/>
       <c r="C43" s="21"/>
       <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
+      <c r="E43" s="72"/>
       <c r="F43" s="12"/>
       <c r="G43" s="8"/>
       <c r="H43" s="14"/>
@@ -3146,7 +3202,7 @@
       <c r="B44" s="48"/>
       <c r="C44" s="21"/>
       <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
+      <c r="E44" s="72"/>
       <c r="F44" s="12"/>
       <c r="G44" s="8"/>
       <c r="H44" s="14"/>
@@ -3183,7 +3239,7 @@
       <c r="B45" s="20"/>
       <c r="C45" s="21"/>
       <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
+      <c r="E45" s="73"/>
       <c r="F45" s="12"/>
       <c r="G45" s="8"/>
       <c r="H45" s="14"/>
@@ -3220,7 +3276,7 @@
       <c r="B46" s="20"/>
       <c r="C46" s="21"/>
       <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
+      <c r="E46" s="73"/>
       <c r="F46" s="12"/>
       <c r="G46" s="8"/>
       <c r="H46" s="14"/>
@@ -3257,7 +3313,7 @@
       <c r="B47" s="24"/>
       <c r="C47" s="25"/>
       <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
+      <c r="E47" s="73"/>
       <c r="F47" s="26"/>
       <c r="G47" s="27"/>
       <c r="H47" s="28"/>
@@ -3294,7 +3350,7 @@
       <c r="B48" s="31"/>
       <c r="C48" s="21"/>
       <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
+      <c r="E48" s="73"/>
       <c r="F48" s="12"/>
       <c r="G48" s="8"/>
       <c r="H48" s="14"/>
@@ -3331,7 +3387,7 @@
       <c r="B49" s="31"/>
       <c r="C49" s="21"/>
       <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
+      <c r="E49" s="73"/>
       <c r="F49" s="12"/>
       <c r="G49" s="8"/>
       <c r="H49" s="14"/>
@@ -3368,7 +3424,7 @@
       <c r="B50" s="20"/>
       <c r="C50" s="21"/>
       <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
+      <c r="E50" s="73"/>
       <c r="F50" s="12"/>
       <c r="G50" s="8"/>
       <c r="H50" s="14"/>
@@ -3405,7 +3461,7 @@
       <c r="B51" s="20"/>
       <c r="C51" s="21"/>
       <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
+      <c r="E51" s="73"/>
       <c r="F51" s="12"/>
       <c r="G51" s="8"/>
       <c r="H51" s="14"/>
@@ -3442,7 +3498,7 @@
       <c r="B52" s="23"/>
       <c r="C52" s="21"/>
       <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
+      <c r="E52" s="72"/>
       <c r="F52" s="12"/>
       <c r="G52" s="8"/>
       <c r="H52" s="14"/>
@@ -3479,7 +3535,7 @@
       <c r="B53" s="23"/>
       <c r="C53" s="25"/>
       <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
+      <c r="E53" s="73"/>
       <c r="F53" s="26"/>
       <c r="G53" s="27"/>
       <c r="H53" s="28"/>
@@ -3516,7 +3572,7 @@
       <c r="B54" s="31"/>
       <c r="C54" s="21"/>
       <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
+      <c r="E54" s="72"/>
       <c r="F54" s="12"/>
       <c r="G54" s="8"/>
       <c r="H54" s="14"/>
@@ -3553,7 +3609,7 @@
       <c r="B55" s="31"/>
       <c r="C55" s="21"/>
       <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
+      <c r="E55" s="73"/>
       <c r="F55" s="12"/>
       <c r="G55" s="8"/>
       <c r="H55" s="14"/>
@@ -3590,7 +3646,7 @@
       <c r="B56" s="31"/>
       <c r="C56" s="21"/>
       <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
+      <c r="E56" s="72"/>
       <c r="F56" s="12"/>
       <c r="G56" s="8"/>
       <c r="H56" s="14"/>
@@ -3627,7 +3683,7 @@
       <c r="B57" s="31"/>
       <c r="C57" s="21"/>
       <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
+      <c r="E57" s="73"/>
       <c r="F57" s="12"/>
       <c r="G57" s="8"/>
       <c r="H57" s="14"/>
@@ -3664,7 +3720,7 @@
       <c r="B58" s="31"/>
       <c r="C58" s="21"/>
       <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
+      <c r="E58" s="72"/>
       <c r="F58" s="12"/>
       <c r="G58" s="8"/>
       <c r="H58" s="14"/>
@@ -3701,7 +3757,7 @@
       <c r="B59" s="31"/>
       <c r="C59" s="21"/>
       <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
+      <c r="E59" s="73"/>
       <c r="F59" s="12"/>
       <c r="G59" s="8"/>
       <c r="H59" s="14"/>
@@ -3738,7 +3794,7 @@
       <c r="B60" s="20"/>
       <c r="C60" s="21"/>
       <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
+      <c r="E60" s="72"/>
       <c r="F60" s="12"/>
       <c r="G60" s="8"/>
       <c r="H60" s="14"/>
@@ -3775,7 +3831,7 @@
       <c r="B61" s="20"/>
       <c r="C61" s="21"/>
       <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
+      <c r="E61" s="73"/>
       <c r="F61" s="12"/>
       <c r="G61" s="8"/>
       <c r="H61" s="14"/>
@@ -3812,7 +3868,7 @@
       <c r="B62" s="24"/>
       <c r="C62" s="25"/>
       <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
+      <c r="E62" s="73"/>
       <c r="F62" s="26"/>
       <c r="G62" s="27"/>
       <c r="H62" s="28"/>
@@ -3849,7 +3905,7 @@
       <c r="B63" s="31"/>
       <c r="C63" s="21"/>
       <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
+      <c r="E63" s="73"/>
       <c r="F63" s="12"/>
       <c r="G63" s="8"/>
       <c r="H63" s="14"/>
@@ -3886,7 +3942,7 @@
       <c r="B64" s="31"/>
       <c r="C64" s="21"/>
       <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
+      <c r="E64" s="72"/>
       <c r="F64" s="12"/>
       <c r="G64" s="8"/>
       <c r="H64" s="14"/>
@@ -3923,7 +3979,7 @@
       <c r="B65" s="20"/>
       <c r="C65" s="21"/>
       <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
+      <c r="E65" s="72"/>
       <c r="F65" s="12"/>
       <c r="G65" s="8"/>
       <c r="H65" s="14"/>
@@ -3960,7 +4016,7 @@
       <c r="B66" s="24"/>
       <c r="C66" s="25"/>
       <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
+      <c r="E66" s="73"/>
       <c r="F66" s="26"/>
       <c r="G66" s="27"/>
       <c r="H66" s="28"/>
@@ -3997,7 +4053,7 @@
       <c r="B67" s="31"/>
       <c r="C67" s="21"/>
       <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
+      <c r="E67" s="72"/>
       <c r="F67" s="12"/>
       <c r="G67" s="8"/>
       <c r="H67" s="14"/>
@@ -4034,7 +4090,7 @@
       <c r="B68" s="31"/>
       <c r="C68" s="21"/>
       <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
+      <c r="E68" s="73"/>
       <c r="F68" s="12"/>
       <c r="G68" s="8"/>
       <c r="H68" s="14"/>
@@ -4071,7 +4127,7 @@
       <c r="B69" s="31"/>
       <c r="C69" s="21"/>
       <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
+      <c r="E69" s="73"/>
       <c r="F69" s="12"/>
       <c r="G69" s="8"/>
       <c r="H69" s="14"/>
@@ -4108,7 +4164,7 @@
       <c r="B70" s="31"/>
       <c r="C70" s="21"/>
       <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
+      <c r="E70" s="72"/>
       <c r="F70" s="12"/>
       <c r="G70" s="8"/>
       <c r="H70" s="14"/>
@@ -4145,7 +4201,7 @@
       <c r="B71" s="31"/>
       <c r="C71" s="21"/>
       <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
+      <c r="E71" s="73"/>
       <c r="F71" s="12"/>
       <c r="G71" s="8"/>
       <c r="H71" s="14"/>
@@ -4182,7 +4238,7 @@
       <c r="B72" s="20"/>
       <c r="C72" s="21"/>
       <c r="D72" s="30"/>
-      <c r="E72" s="30"/>
+      <c r="E72" s="72"/>
       <c r="F72" s="12"/>
       <c r="G72" s="8"/>
       <c r="H72" s="14"/>
@@ -4219,7 +4275,7 @@
       <c r="B73" s="24"/>
       <c r="C73" s="25"/>
       <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
+      <c r="E73" s="73"/>
       <c r="F73" s="26"/>
       <c r="G73" s="27"/>
       <c r="H73" s="28"/>
@@ -4256,7 +4312,7 @@
       <c r="B74" s="31"/>
       <c r="C74" s="21"/>
       <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
+      <c r="E74" s="72"/>
       <c r="F74" s="12"/>
       <c r="G74" s="8"/>
       <c r="H74" s="14"/>
@@ -4293,7 +4349,7 @@
       <c r="B75" s="31"/>
       <c r="C75" s="21"/>
       <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
+      <c r="E75" s="73"/>
       <c r="F75" s="12"/>
       <c r="G75" s="8"/>
       <c r="H75" s="14"/>
@@ -4330,7 +4386,7 @@
       <c r="B76" s="31"/>
       <c r="C76" s="21"/>
       <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
+      <c r="E76" s="72"/>
       <c r="F76" s="12"/>
       <c r="G76" s="8"/>
       <c r="H76" s="14"/>
@@ -4367,7 +4423,7 @@
       <c r="B77" s="20"/>
       <c r="C77" s="21"/>
       <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
+      <c r="E77" s="72"/>
       <c r="F77" s="12"/>
       <c r="G77" s="8"/>
       <c r="H77" s="14"/>
@@ -4404,7 +4460,7 @@
       <c r="B78" s="24"/>
       <c r="C78" s="25"/>
       <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
+      <c r="E78" s="73"/>
       <c r="F78" s="26"/>
       <c r="G78" s="27"/>
       <c r="H78" s="28"/>
@@ -4441,7 +4497,7 @@
       <c r="B79" s="31"/>
       <c r="C79" s="21"/>
       <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
+      <c r="E79" s="72"/>
       <c r="F79" s="12"/>
       <c r="G79" s="8"/>
       <c r="H79" s="14"/>
@@ -4478,7 +4534,7 @@
       <c r="B80" s="31"/>
       <c r="C80" s="21"/>
       <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
+      <c r="E80" s="73"/>
       <c r="F80" s="12"/>
       <c r="G80" s="8"/>
       <c r="H80" s="14"/>
@@ -4515,7 +4571,7 @@
       <c r="B81" s="31"/>
       <c r="C81" s="21"/>
       <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
+      <c r="E81" s="72"/>
       <c r="F81" s="12"/>
       <c r="G81" s="8"/>
       <c r="H81" s="14"/>
@@ -4551,7 +4607,7 @@
       <c r="D82" s="18">
         <v>1</v>
       </c>
-      <c r="E82" s="18"/>
+      <c r="E82" s="74"/>
       <c r="H82" s="10"/>
       <c r="I82" s="13"/>
       <c r="K82" s="10"/>
@@ -4573,7 +4629,7 @@
       <c r="D83" s="19">
         <v>1</v>
       </c>
-      <c r="E83" s="19"/>
+      <c r="E83" s="75"/>
       <c r="H83" s="10"/>
       <c r="I83" s="13"/>
       <c r="K83" s="10"/>
@@ -4595,7 +4651,7 @@
       <c r="D84" s="18">
         <v>1</v>
       </c>
-      <c r="E84" s="18"/>
+      <c r="E84" s="74"/>
       <c r="H84" s="10"/>
       <c r="I84" s="13"/>
       <c r="K84" s="10"/>
@@ -4617,7 +4673,7 @@
       <c r="D85" s="19">
         <v>1</v>
       </c>
-      <c r="E85" s="19"/>
+      <c r="E85" s="75"/>
       <c r="H85" s="10"/>
       <c r="I85" s="13"/>
       <c r="K85" s="10"/>
@@ -4639,7 +4695,7 @@
       <c r="D86" s="18">
         <v>1</v>
       </c>
-      <c r="E86" s="18"/>
+      <c r="E86" s="74"/>
       <c r="H86" s="10"/>
       <c r="I86" s="13"/>
       <c r="K86" s="10"/>
@@ -4661,7 +4717,7 @@
       <c r="D87" s="19">
         <v>1</v>
       </c>
-      <c r="E87" s="19"/>
+      <c r="E87" s="75"/>
       <c r="H87" s="10"/>
       <c r="I87" s="13"/>
       <c r="K87" s="10"/>
@@ -4683,7 +4739,7 @@
       <c r="D88" s="18">
         <v>1</v>
       </c>
-      <c r="E88" s="18"/>
+      <c r="E88" s="74"/>
       <c r="H88" s="10"/>
       <c r="I88" s="13"/>
       <c r="K88" s="10"/>
@@ -4705,7 +4761,7 @@
       <c r="D89" s="19">
         <v>1</v>
       </c>
-      <c r="E89" s="19"/>
+      <c r="E89" s="75"/>
       <c r="H89" s="10"/>
       <c r="I89" s="13"/>
       <c r="K89" s="10"/>
@@ -4727,7 +4783,7 @@
       <c r="D90" s="18">
         <v>1</v>
       </c>
-      <c r="E90" s="18"/>
+      <c r="E90" s="74"/>
       <c r="H90" s="10"/>
       <c r="I90" s="13"/>
       <c r="K90" s="10"/>
@@ -4749,7 +4805,7 @@
       <c r="D91" s="19">
         <v>1</v>
       </c>
-      <c r="E91" s="19"/>
+      <c r="E91" s="75"/>
       <c r="H91" s="10"/>
       <c r="I91" s="13"/>
       <c r="K91" s="10"/>
@@ -4771,7 +4827,7 @@
       <c r="D92" s="18">
         <v>1</v>
       </c>
-      <c r="E92" s="18"/>
+      <c r="E92" s="74"/>
       <c r="H92" s="10"/>
       <c r="I92" s="13"/>
       <c r="K92" s="10"/>
@@ -4793,7 +4849,7 @@
       <c r="D93" s="19">
         <v>1</v>
       </c>
-      <c r="E93" s="19"/>
+      <c r="E93" s="75"/>
       <c r="H93" s="10"/>
       <c r="I93" s="13"/>
       <c r="K93" s="10"/>
@@ -4815,7 +4871,7 @@
       <c r="D94" s="18">
         <v>1</v>
       </c>
-      <c r="E94" s="18"/>
+      <c r="E94" s="74"/>
       <c r="H94" s="10"/>
       <c r="I94" s="13"/>
       <c r="K94" s="10"/>
@@ -4837,7 +4893,7 @@
       <c r="D95" s="19">
         <v>1</v>
       </c>
-      <c r="E95" s="19"/>
+      <c r="E95" s="75"/>
       <c r="H95" s="10"/>
       <c r="I95" s="13"/>
       <c r="K95" s="10"/>
@@ -4859,7 +4915,7 @@
       <c r="D96" s="18">
         <v>1</v>
       </c>
-      <c r="E96" s="18"/>
+      <c r="E96" s="74"/>
       <c r="H96" s="10"/>
       <c r="I96" s="13"/>
       <c r="K96" s="10"/>
@@ -4881,7 +4937,7 @@
       <c r="D97" s="19">
         <v>1</v>
       </c>
-      <c r="E97" s="19"/>
+      <c r="E97" s="75"/>
       <c r="H97" s="10"/>
       <c r="I97" s="13"/>
       <c r="K97" s="10"/>
@@ -4903,7 +4959,7 @@
       <c r="D98" s="18">
         <v>1</v>
       </c>
-      <c r="E98" s="18"/>
+      <c r="E98" s="74"/>
       <c r="H98" s="10"/>
       <c r="I98" s="13"/>
       <c r="K98" s="10"/>
@@ -4925,7 +4981,7 @@
       <c r="D99" s="19">
         <v>1</v>
       </c>
-      <c r="E99" s="19"/>
+      <c r="E99" s="75"/>
       <c r="H99" s="10"/>
       <c r="I99" s="13"/>
       <c r="K99" s="10"/>
@@ -4947,7 +5003,7 @@
       <c r="D100" s="18">
         <v>1</v>
       </c>
-      <c r="E100" s="18"/>
+      <c r="E100" s="74"/>
       <c r="H100" s="10"/>
       <c r="I100" s="13"/>
       <c r="K100" s="10"/>
@@ -4969,7 +5025,7 @@
       <c r="D101" s="19">
         <v>1</v>
       </c>
-      <c r="E101" s="19"/>
+      <c r="E101" s="75"/>
       <c r="H101" s="10"/>
       <c r="I101" s="13"/>
       <c r="K101" s="10"/>
@@ -4991,7 +5047,7 @@
       <c r="D102" s="18">
         <v>1</v>
       </c>
-      <c r="E102" s="18"/>
+      <c r="E102" s="74"/>
       <c r="H102" s="10"/>
       <c r="I102" s="13"/>
       <c r="K102" s="10"/>
@@ -5013,7 +5069,7 @@
       <c r="D103" s="19">
         <v>1</v>
       </c>
-      <c r="E103" s="19"/>
+      <c r="E103" s="75"/>
       <c r="H103" s="10"/>
       <c r="I103" s="13"/>
       <c r="K103" s="10"/>
@@ -5035,7 +5091,7 @@
       <c r="D104" s="18">
         <v>1</v>
       </c>
-      <c r="E104" s="18"/>
+      <c r="E104" s="74"/>
       <c r="H104" s="10"/>
       <c r="I104" s="13"/>
       <c r="K104" s="10"/>
@@ -5057,7 +5113,7 @@
       <c r="D105" s="19">
         <v>1</v>
       </c>
-      <c r="E105" s="19"/>
+      <c r="E105" s="75"/>
       <c r="H105" s="10"/>
       <c r="I105" s="13"/>
       <c r="K105" s="10"/>
@@ -5079,7 +5135,7 @@
       <c r="D106" s="18">
         <v>1</v>
       </c>
-      <c r="E106" s="18"/>
+      <c r="E106" s="74"/>
       <c r="H106" s="10"/>
       <c r="I106" s="13"/>
       <c r="K106" s="10"/>
@@ -5101,7 +5157,7 @@
       <c r="D107" s="19">
         <v>1</v>
       </c>
-      <c r="E107" s="19"/>
+      <c r="E107" s="75"/>
       <c r="H107" s="10"/>
       <c r="I107" s="13"/>
       <c r="K107" s="10"/>
@@ -5123,7 +5179,7 @@
       <c r="D108" s="18">
         <v>1</v>
       </c>
-      <c r="E108" s="18"/>
+      <c r="E108" s="74"/>
       <c r="H108" s="10"/>
       <c r="I108" s="13"/>
       <c r="K108" s="10"/>
@@ -5145,7 +5201,7 @@
       <c r="D109" s="19">
         <v>1</v>
       </c>
-      <c r="E109" s="19"/>
+      <c r="E109" s="75"/>
       <c r="H109" s="10"/>
       <c r="I109" s="13"/>
       <c r="K109" s="10"/>
@@ -5167,7 +5223,7 @@
       <c r="D110" s="18">
         <v>1</v>
       </c>
-      <c r="E110" s="18"/>
+      <c r="E110" s="74"/>
       <c r="H110" s="10"/>
       <c r="I110" s="13"/>
       <c r="K110" s="10"/>
@@ -5189,7 +5245,7 @@
       <c r="D111" s="19">
         <v>1</v>
       </c>
-      <c r="E111" s="19"/>
+      <c r="E111" s="75"/>
       <c r="H111" s="10"/>
       <c r="I111" s="13"/>
       <c r="K111" s="10"/>
@@ -5211,7 +5267,7 @@
       <c r="D112" s="18">
         <v>1</v>
       </c>
-      <c r="E112" s="18"/>
+      <c r="E112" s="74"/>
       <c r="H112" s="10"/>
       <c r="I112" s="13"/>
       <c r="K112" s="10"/>
@@ -5233,7 +5289,7 @@
       <c r="D113" s="19">
         <v>1</v>
       </c>
-      <c r="E113" s="19"/>
+      <c r="E113" s="75"/>
       <c r="H113" s="10"/>
       <c r="I113" s="13"/>
       <c r="K113" s="10"/>
@@ -5255,7 +5311,7 @@
       <c r="D114" s="18">
         <v>1</v>
       </c>
-      <c r="E114" s="18"/>
+      <c r="E114" s="74"/>
       <c r="H114" s="10"/>
       <c r="I114" s="13"/>
       <c r="K114" s="10"/>
@@ -5275,7 +5331,7 @@
       <c r="D115" s="19">
         <v>1</v>
       </c>
-      <c r="E115" s="19"/>
+      <c r="E115" s="75"/>
       <c r="H115" s="10"/>
       <c r="I115" s="13"/>
       <c r="K115" s="10"/>
@@ -5295,7 +5351,7 @@
       <c r="D116" s="18">
         <v>1</v>
       </c>
-      <c r="E116" s="18"/>
+      <c r="E116" s="74"/>
       <c r="H116" s="10"/>
       <c r="I116" s="13"/>
       <c r="K116" s="10"/>
@@ -5315,7 +5371,7 @@
       <c r="D117" s="19">
         <v>1</v>
       </c>
-      <c r="E117" s="19"/>
+      <c r="E117" s="75"/>
       <c r="H117" s="10"/>
       <c r="I117" s="13"/>
       <c r="K117" s="10"/>
@@ -5335,7 +5391,7 @@
       <c r="D118" s="18">
         <v>1</v>
       </c>
-      <c r="E118" s="18"/>
+      <c r="E118" s="74"/>
       <c r="H118" s="10"/>
       <c r="I118" s="13"/>
       <c r="K118" s="10"/>
@@ -5355,7 +5411,7 @@
       <c r="D119" s="19">
         <v>1</v>
       </c>
-      <c r="E119" s="19"/>
+      <c r="E119" s="75"/>
       <c r="H119" s="10"/>
       <c r="I119" s="13"/>
       <c r="K119" s="10"/>
@@ -5375,7 +5431,7 @@
       <c r="D120" s="18">
         <v>1</v>
       </c>
-      <c r="E120" s="18"/>
+      <c r="E120" s="74"/>
       <c r="H120" s="10"/>
       <c r="I120" s="13"/>
       <c r="K120" s="10"/>
@@ -5395,7 +5451,7 @@
       <c r="D121" s="19">
         <v>1</v>
       </c>
-      <c r="E121" s="19"/>
+      <c r="E121" s="75"/>
       <c r="H121" s="10"/>
       <c r="I121" s="13"/>
       <c r="K121" s="10"/>
@@ -5415,7 +5471,7 @@
       <c r="D122" s="18">
         <v>1</v>
       </c>
-      <c r="E122" s="18"/>
+      <c r="E122" s="74"/>
       <c r="H122" s="10"/>
       <c r="I122" s="13"/>
       <c r="K122" s="10"/>
@@ -5435,7 +5491,7 @@
       <c r="D123" s="19">
         <v>1</v>
       </c>
-      <c r="E123" s="19"/>
+      <c r="E123" s="75"/>
       <c r="H123" s="10"/>
       <c r="I123" s="13"/>
       <c r="K123" s="10"/>
@@ -5455,7 +5511,7 @@
       <c r="D124" s="18">
         <v>1</v>
       </c>
-      <c r="E124" s="18"/>
+      <c r="E124" s="74"/>
       <c r="H124" s="10"/>
       <c r="I124" s="13"/>
       <c r="K124" s="10"/>
@@ -5475,7 +5531,7 @@
       <c r="D125" s="19">
         <v>1</v>
       </c>
-      <c r="E125" s="19"/>
+      <c r="E125" s="75"/>
       <c r="H125" s="10"/>
       <c r="I125" s="13"/>
       <c r="K125" s="10"/>
@@ -5495,7 +5551,7 @@
       <c r="D126" s="18">
         <v>1</v>
       </c>
-      <c r="E126" s="18"/>
+      <c r="E126" s="74"/>
       <c r="H126" s="10"/>
       <c r="I126" s="13"/>
       <c r="K126" s="10"/>
@@ -5515,7 +5571,7 @@
       <c r="D127" s="19">
         <v>1</v>
       </c>
-      <c r="E127" s="19"/>
+      <c r="E127" s="75"/>
       <c r="H127" s="10"/>
       <c r="I127" s="13"/>
       <c r="K127" s="10"/>
@@ -5535,7 +5591,7 @@
       <c r="D128" s="18">
         <v>1</v>
       </c>
-      <c r="E128" s="18"/>
+      <c r="E128" s="74"/>
       <c r="H128" s="10"/>
       <c r="I128" s="13"/>
       <c r="K128" s="10"/>
@@ -5555,7 +5611,7 @@
       <c r="D129" s="19">
         <v>1</v>
       </c>
-      <c r="E129" s="19"/>
+      <c r="E129" s="75"/>
       <c r="H129" s="10"/>
       <c r="I129" s="13"/>
       <c r="K129" s="10"/>
@@ -5575,7 +5631,7 @@
       <c r="D130" s="18">
         <v>1</v>
       </c>
-      <c r="E130" s="18"/>
+      <c r="E130" s="74"/>
       <c r="H130" s="10"/>
       <c r="I130" s="13"/>
       <c r="K130" s="10"/>
@@ -5595,7 +5651,7 @@
       <c r="D131" s="19">
         <v>1</v>
       </c>
-      <c r="E131" s="19"/>
+      <c r="E131" s="75"/>
       <c r="H131" s="10"/>
       <c r="I131" s="13"/>
       <c r="K131" s="10"/>
@@ -5615,7 +5671,7 @@
       <c r="D132" s="18">
         <v>1</v>
       </c>
-      <c r="E132" s="18"/>
+      <c r="E132" s="74"/>
       <c r="H132" s="10"/>
       <c r="I132" s="7"/>
       <c r="N132" s="10"/>
@@ -5633,7 +5689,7 @@
       <c r="D133" s="19">
         <v>1</v>
       </c>
-      <c r="E133" s="19"/>
+      <c r="E133" s="75"/>
       <c r="H133" s="10"/>
       <c r="I133" s="7"/>
       <c r="N133" s="10"/>
@@ -5651,7 +5707,7 @@
       <c r="D134" s="18">
         <v>1</v>
       </c>
-      <c r="E134" s="18"/>
+      <c r="E134" s="74"/>
       <c r="H134" s="10"/>
       <c r="I134" s="7"/>
       <c r="N134" s="10"/>
@@ -5667,7 +5723,7 @@
       <c r="D135" s="19">
         <v>1</v>
       </c>
-      <c r="E135" s="19"/>
+      <c r="E135" s="75"/>
       <c r="H135" s="10"/>
       <c r="I135" s="7"/>
       <c r="N135" s="10"/>
@@ -5683,7 +5739,7 @@
       <c r="D136" s="18">
         <v>1</v>
       </c>
-      <c r="E136" s="18"/>
+      <c r="E136" s="74"/>
       <c r="H136" s="10"/>
       <c r="I136" s="7"/>
       <c r="N136" s="10"/>
@@ -5699,7 +5755,7 @@
       <c r="D137" s="19">
         <v>1</v>
       </c>
-      <c r="E137" s="19"/>
+      <c r="E137" s="75"/>
       <c r="H137" s="10"/>
       <c r="I137" s="7"/>
       <c r="N137" s="10"/>
@@ -5715,7 +5771,7 @@
       <c r="D138" s="18">
         <v>1</v>
       </c>
-      <c r="E138" s="18"/>
+      <c r="E138" s="74"/>
       <c r="H138" s="10"/>
       <c r="I138" s="7"/>
       <c r="N138" s="10"/>
@@ -5731,7 +5787,7 @@
       <c r="D139" s="19">
         <v>1</v>
       </c>
-      <c r="E139" s="19"/>
+      <c r="E139" s="75"/>
       <c r="H139" s="10"/>
       <c r="I139" s="7"/>
       <c r="N139" s="10"/>
@@ -5747,7 +5803,7 @@
       <c r="D140" s="18">
         <v>1</v>
       </c>
-      <c r="E140" s="18"/>
+      <c r="E140" s="74"/>
       <c r="H140" s="10"/>
       <c r="I140" s="7"/>
       <c r="N140" s="10"/>
@@ -5763,7 +5819,7 @@
       <c r="D141" s="19">
         <v>1</v>
       </c>
-      <c r="E141" s="19"/>
+      <c r="E141" s="75"/>
       <c r="H141" s="10"/>
       <c r="I141" s="7"/>
       <c r="N141" s="10"/>
@@ -5779,7 +5835,7 @@
       <c r="D142" s="18">
         <v>1</v>
       </c>
-      <c r="E142" s="18"/>
+      <c r="E142" s="74"/>
       <c r="H142" s="10"/>
       <c r="I142" s="7"/>
       <c r="N142" s="10"/>
@@ -5795,7 +5851,7 @@
       <c r="D143" s="19">
         <v>1</v>
       </c>
-      <c r="E143" s="19"/>
+      <c r="E143" s="75"/>
       <c r="H143" s="10"/>
       <c r="I143" s="7"/>
       <c r="N143" s="10"/>
@@ -5811,7 +5867,7 @@
       <c r="D144" s="18">
         <v>1</v>
       </c>
-      <c r="E144" s="18"/>
+      <c r="E144" s="74"/>
       <c r="H144" s="10"/>
       <c r="I144" s="7"/>
       <c r="N144" s="10"/>
@@ -5827,7 +5883,7 @@
       <c r="D145" s="19">
         <v>1</v>
       </c>
-      <c r="E145" s="19"/>
+      <c r="E145" s="75"/>
       <c r="H145" s="10"/>
       <c r="I145" s="7"/>
       <c r="N145" s="10"/>
@@ -5843,7 +5899,7 @@
       <c r="D146" s="18">
         <v>1</v>
       </c>
-      <c r="E146" s="18"/>
+      <c r="E146" s="74"/>
       <c r="H146" s="10"/>
       <c r="I146" s="7"/>
       <c r="N146" s="10"/>
@@ -5859,7 +5915,7 @@
       <c r="D147" s="19">
         <v>1</v>
       </c>
-      <c r="E147" s="19"/>
+      <c r="E147" s="75"/>
       <c r="H147" s="10"/>
       <c r="I147" s="7"/>
       <c r="N147" s="10"/>
@@ -5875,7 +5931,7 @@
       <c r="D148" s="18">
         <v>1</v>
       </c>
-      <c r="E148" s="18"/>
+      <c r="E148" s="74"/>
       <c r="H148" s="10"/>
       <c r="I148" s="7"/>
       <c r="N148" s="10"/>
@@ -5891,7 +5947,7 @@
       <c r="D149" s="19">
         <v>1</v>
       </c>
-      <c r="E149" s="19"/>
+      <c r="E149" s="75"/>
       <c r="H149" s="10"/>
       <c r="I149" s="7"/>
       <c r="N149" s="10"/>
@@ -5907,7 +5963,7 @@
       <c r="D150" s="18">
         <v>1</v>
       </c>
-      <c r="E150" s="18"/>
+      <c r="E150" s="74"/>
       <c r="H150" s="10"/>
       <c r="I150" s="7"/>
       <c r="N150" s="10"/>
@@ -5923,7 +5979,7 @@
       <c r="D151" s="19">
         <v>1</v>
       </c>
-      <c r="E151" s="19"/>
+      <c r="E151" s="75"/>
       <c r="H151" s="10"/>
       <c r="I151" s="7"/>
       <c r="N151" s="10"/>
@@ -5939,7 +5995,7 @@
       <c r="D152" s="18">
         <v>1</v>
       </c>
-      <c r="E152" s="18"/>
+      <c r="E152" s="74"/>
       <c r="H152" s="10"/>
       <c r="I152" s="7"/>
       <c r="N152" s="10"/>
@@ -5955,7 +6011,7 @@
       <c r="D153" s="19">
         <v>1</v>
       </c>
-      <c r="E153" s="19"/>
+      <c r="E153" s="75"/>
       <c r="H153" s="10"/>
       <c r="I153" s="7"/>
       <c r="N153" s="10"/>
@@ -5971,7 +6027,7 @@
       <c r="D154" s="18">
         <v>1</v>
       </c>
-      <c r="E154" s="18"/>
+      <c r="E154" s="74"/>
       <c r="H154" s="10"/>
       <c r="I154" s="7"/>
       <c r="N154" s="10"/>
@@ -5987,7 +6043,7 @@
       <c r="D155" s="19">
         <v>1</v>
       </c>
-      <c r="E155" s="19"/>
+      <c r="E155" s="75"/>
       <c r="H155" s="10"/>
       <c r="I155" s="7"/>
       <c r="N155" s="10"/>
@@ -6003,7 +6059,7 @@
       <c r="D156" s="18">
         <v>1</v>
       </c>
-      <c r="E156" s="18"/>
+      <c r="E156" s="74"/>
       <c r="H156" s="10"/>
       <c r="I156" s="7"/>
       <c r="N156" s="10"/>
@@ -6019,7 +6075,7 @@
       <c r="D157" s="19">
         <v>1</v>
       </c>
-      <c r="E157" s="19"/>
+      <c r="E157" s="75"/>
       <c r="H157" s="10"/>
       <c r="I157" s="7"/>
       <c r="N157" s="10"/>
@@ -6035,7 +6091,7 @@
       <c r="D158" s="18">
         <v>1</v>
       </c>
-      <c r="E158" s="18"/>
+      <c r="E158" s="74"/>
       <c r="H158" s="10"/>
       <c r="I158" s="7"/>
       <c r="N158" s="10"/>
@@ -6051,7 +6107,7 @@
       <c r="D159" s="19">
         <v>1</v>
       </c>
-      <c r="E159" s="19"/>
+      <c r="E159" s="75"/>
       <c r="H159" s="10"/>
       <c r="I159" s="7"/>
       <c r="N159" s="10"/>
@@ -6067,7 +6123,7 @@
       <c r="D160" s="18">
         <v>1</v>
       </c>
-      <c r="E160" s="18"/>
+      <c r="E160" s="74"/>
       <c r="H160" s="10"/>
       <c r="I160" s="7"/>
       <c r="N160" s="10"/>
@@ -6083,7 +6139,7 @@
       <c r="D161" s="19">
         <v>1</v>
       </c>
-      <c r="E161" s="19"/>
+      <c r="E161" s="75"/>
       <c r="H161" s="10"/>
       <c r="I161" s="7"/>
       <c r="N161" s="10"/>
@@ -6099,7 +6155,7 @@
       <c r="D162" s="18">
         <v>1</v>
       </c>
-      <c r="E162" s="18"/>
+      <c r="E162" s="74"/>
       <c r="H162" s="10"/>
       <c r="I162" s="7"/>
       <c r="N162" s="10"/>
@@ -6115,7 +6171,7 @@
       <c r="D163" s="19">
         <v>1</v>
       </c>
-      <c r="E163" s="19"/>
+      <c r="E163" s="75"/>
       <c r="H163" s="10"/>
       <c r="I163" s="7"/>
       <c r="N163" s="10"/>
@@ -6131,7 +6187,7 @@
       <c r="D164" s="18">
         <v>1</v>
       </c>
-      <c r="E164" s="18"/>
+      <c r="E164" s="74"/>
       <c r="H164" s="10"/>
       <c r="I164" s="7"/>
       <c r="N164" s="10"/>
@@ -6147,7 +6203,7 @@
       <c r="D165" s="19">
         <v>1</v>
       </c>
-      <c r="E165" s="19"/>
+      <c r="E165" s="75"/>
       <c r="H165" s="10"/>
       <c r="I165" s="7"/>
       <c r="N165" s="10"/>
@@ -6163,7 +6219,7 @@
       <c r="D166" s="18">
         <v>1</v>
       </c>
-      <c r="E166" s="18"/>
+      <c r="E166" s="74"/>
       <c r="H166" s="10"/>
       <c r="I166" s="7"/>
       <c r="N166" s="10"/>
@@ -6179,7 +6235,7 @@
       <c r="D167" s="19">
         <v>1</v>
       </c>
-      <c r="E167" s="19"/>
+      <c r="E167" s="75"/>
       <c r="H167" s="10"/>
       <c r="I167" s="7"/>
       <c r="N167" s="10"/>
@@ -6195,7 +6251,7 @@
       <c r="D168" s="18">
         <v>1</v>
       </c>
-      <c r="E168" s="18"/>
+      <c r="E168" s="74"/>
       <c r="H168" s="10"/>
       <c r="I168" s="7"/>
       <c r="N168" s="10"/>
@@ -6211,7 +6267,7 @@
       <c r="D169" s="19">
         <v>1</v>
       </c>
-      <c r="E169" s="19"/>
+      <c r="E169" s="75"/>
       <c r="H169" s="10"/>
       <c r="I169" s="7"/>
       <c r="N169" s="10"/>
@@ -6227,7 +6283,7 @@
       <c r="D170" s="18">
         <v>1</v>
       </c>
-      <c r="E170" s="18"/>
+      <c r="E170" s="74"/>
       <c r="H170" s="10"/>
       <c r="I170" s="7"/>
       <c r="N170" s="10"/>
@@ -6243,7 +6299,7 @@
       <c r="D171" s="19">
         <v>1</v>
       </c>
-      <c r="E171" s="19"/>
+      <c r="E171" s="75"/>
       <c r="H171" s="10"/>
       <c r="I171" s="7"/>
       <c r="N171" s="10"/>
@@ -6259,7 +6315,7 @@
       <c r="D172" s="18">
         <v>1</v>
       </c>
-      <c r="E172" s="18"/>
+      <c r="E172" s="74"/>
       <c r="H172" s="10"/>
       <c r="I172" s="7"/>
       <c r="N172" s="10"/>
@@ -6275,7 +6331,7 @@
       <c r="D173" s="19">
         <v>1</v>
       </c>
-      <c r="E173" s="19"/>
+      <c r="E173" s="75"/>
       <c r="H173" s="10"/>
       <c r="I173" s="7"/>
       <c r="N173" s="10"/>
@@ -6291,7 +6347,7 @@
       <c r="D174" s="18">
         <v>1</v>
       </c>
-      <c r="E174" s="18"/>
+      <c r="E174" s="74"/>
       <c r="H174" s="10"/>
       <c r="I174" s="7"/>
       <c r="N174" s="10"/>
@@ -6307,7 +6363,7 @@
       <c r="D175" s="19">
         <v>1</v>
       </c>
-      <c r="E175" s="19"/>
+      <c r="E175" s="75"/>
       <c r="H175" s="10"/>
       <c r="I175" s="7"/>
       <c r="N175" s="10"/>
@@ -6323,7 +6379,7 @@
       <c r="D176" s="18">
         <v>1</v>
       </c>
-      <c r="E176" s="18"/>
+      <c r="E176" s="74"/>
       <c r="H176" s="10"/>
       <c r="I176" s="7"/>
       <c r="N176" s="10"/>
@@ -6339,7 +6395,7 @@
       <c r="D177" s="19">
         <v>1</v>
       </c>
-      <c r="E177" s="19"/>
+      <c r="E177" s="75"/>
       <c r="H177" s="10"/>
       <c r="I177" s="7"/>
       <c r="N177" s="10"/>
@@ -6355,7 +6411,7 @@
       <c r="D178" s="18">
         <v>1</v>
       </c>
-      <c r="E178" s="18"/>
+      <c r="E178" s="74"/>
       <c r="H178" s="10"/>
       <c r="I178" s="7"/>
       <c r="N178" s="10"/>
@@ -6371,7 +6427,7 @@
       <c r="D179" s="19">
         <v>1</v>
       </c>
-      <c r="E179" s="19"/>
+      <c r="E179" s="75"/>
       <c r="H179" s="10"/>
       <c r="I179" s="7"/>
       <c r="N179" s="10"/>
@@ -6387,7 +6443,7 @@
       <c r="D180" s="18">
         <v>1</v>
       </c>
-      <c r="E180" s="18"/>
+      <c r="E180" s="74"/>
       <c r="H180" s="10"/>
       <c r="I180" s="7"/>
       <c r="N180" s="10"/>
@@ -6403,7 +6459,7 @@
       <c r="D181" s="19">
         <v>1</v>
       </c>
-      <c r="E181" s="19"/>
+      <c r="E181" s="75"/>
       <c r="H181" s="10"/>
       <c r="I181" s="7"/>
       <c r="N181" s="10"/>
@@ -6419,7 +6475,7 @@
       <c r="D182" s="18">
         <v>1</v>
       </c>
-      <c r="E182" s="18"/>
+      <c r="E182" s="74"/>
       <c r="H182" s="10"/>
       <c r="I182" s="7"/>
       <c r="N182" s="10"/>
@@ -6435,7 +6491,7 @@
       <c r="D183" s="19">
         <v>1</v>
       </c>
-      <c r="E183" s="19"/>
+      <c r="E183" s="75"/>
       <c r="H183" s="10"/>
       <c r="I183" s="7"/>
       <c r="N183" s="10"/>
@@ -6451,7 +6507,7 @@
       <c r="D184" s="18">
         <v>1</v>
       </c>
-      <c r="E184" s="18"/>
+      <c r="E184" s="74"/>
       <c r="H184" s="10"/>
       <c r="I184" s="7"/>
       <c r="N184" s="10"/>
@@ -6467,7 +6523,7 @@
       <c r="D185" s="19">
         <v>1</v>
       </c>
-      <c r="E185" s="19"/>
+      <c r="E185" s="75"/>
       <c r="H185" s="10"/>
       <c r="I185" s="7"/>
       <c r="N185" s="10"/>
@@ -6483,7 +6539,7 @@
       <c r="D186" s="18">
         <v>1</v>
       </c>
-      <c r="E186" s="18"/>
+      <c r="E186" s="74"/>
       <c r="H186" s="10"/>
       <c r="I186" s="7"/>
       <c r="N186" s="10"/>
@@ -6499,7 +6555,7 @@
       <c r="D187" s="19">
         <v>1</v>
       </c>
-      <c r="E187" s="19"/>
+      <c r="E187" s="75"/>
       <c r="H187" s="10"/>
       <c r="I187" s="7"/>
       <c r="N187" s="10"/>
@@ -6515,7 +6571,7 @@
       <c r="D188" s="18">
         <v>1</v>
       </c>
-      <c r="E188" s="18"/>
+      <c r="E188" s="74"/>
       <c r="H188" s="10"/>
       <c r="I188" s="7"/>
       <c r="N188" s="10"/>
@@ -6531,7 +6587,7 @@
       <c r="D189" s="19">
         <v>1</v>
       </c>
-      <c r="E189" s="19"/>
+      <c r="E189" s="75"/>
       <c r="H189" s="10"/>
       <c r="I189" s="7"/>
       <c r="N189" s="10"/>
@@ -6547,7 +6603,7 @@
       <c r="D190" s="18">
         <v>1</v>
       </c>
-      <c r="E190" s="18"/>
+      <c r="E190" s="74"/>
       <c r="H190" s="10"/>
       <c r="I190" s="7"/>
       <c r="N190" s="10"/>
@@ -6563,7 +6619,7 @@
       <c r="D191" s="19">
         <v>1</v>
       </c>
-      <c r="E191" s="19"/>
+      <c r="E191" s="75"/>
       <c r="H191" s="10"/>
       <c r="I191" s="7"/>
       <c r="N191" s="10"/>
@@ -6579,7 +6635,7 @@
       <c r="D192" s="18">
         <v>1</v>
       </c>
-      <c r="E192" s="18"/>
+      <c r="E192" s="74"/>
       <c r="N192" s="10"/>
       <c r="O192" s="13"/>
       <c r="Q192" s="10"/>
@@ -6593,7 +6649,7 @@
       <c r="D193" s="19">
         <v>1</v>
       </c>
-      <c r="E193" s="19"/>
+      <c r="E193" s="75"/>
       <c r="N193" s="10"/>
       <c r="O193" s="13"/>
       <c r="Q193" s="10"/>
@@ -6607,7 +6663,7 @@
       <c r="D194" s="18">
         <v>1</v>
       </c>
-      <c r="E194" s="18"/>
+      <c r="E194" s="74"/>
       <c r="N194" s="10"/>
       <c r="O194" s="13"/>
       <c r="Q194" s="10"/>
@@ -6621,7 +6677,7 @@
       <c r="D195" s="19">
         <v>1</v>
       </c>
-      <c r="E195" s="19"/>
+      <c r="E195" s="75"/>
       <c r="N195" s="10"/>
       <c r="O195" s="13"/>
       <c r="Q195" s="10"/>
@@ -6635,7 +6691,7 @@
       <c r="D196" s="18">
         <v>1</v>
       </c>
-      <c r="E196" s="18"/>
+      <c r="E196" s="74"/>
       <c r="N196" s="10"/>
       <c r="O196" s="7"/>
       <c r="Z196" s="10"/>
@@ -6647,7 +6703,7 @@
       <c r="D197" s="19">
         <v>1</v>
       </c>
-      <c r="E197" s="19"/>
+      <c r="E197" s="75"/>
       <c r="N197" s="10"/>
       <c r="O197" s="7"/>
       <c r="Z197" s="10"/>
@@ -6659,7 +6715,7 @@
       <c r="D198" s="18">
         <v>1</v>
       </c>
-      <c r="E198" s="18"/>
+      <c r="E198" s="74"/>
       <c r="N198" s="10"/>
       <c r="O198" s="7"/>
       <c r="Z198" s="10"/>
@@ -6671,7 +6727,7 @@
       <c r="D199" s="19">
         <v>1</v>
       </c>
-      <c r="E199" s="19"/>
+      <c r="E199" s="75"/>
       <c r="N199" s="10"/>
       <c r="O199" s="7"/>
       <c r="Z199" s="10"/>
@@ -6683,7 +6739,7 @@
       <c r="D200" s="18">
         <v>1</v>
       </c>
-      <c r="E200" s="18"/>
+      <c r="E200" s="74"/>
       <c r="N200" s="10"/>
       <c r="O200" s="7"/>
       <c r="Z200" s="10"/>
@@ -6695,7 +6751,7 @@
       <c r="D201" s="19">
         <v>1</v>
       </c>
-      <c r="E201" s="19"/>
+      <c r="E201" s="75"/>
       <c r="N201" s="10"/>
       <c r="O201" s="7"/>
       <c r="Z201" s="10"/>
@@ -6707,7 +6763,7 @@
       <c r="D202" s="18">
         <v>1</v>
       </c>
-      <c r="E202" s="18"/>
+      <c r="E202" s="74"/>
       <c r="N202" s="10"/>
       <c r="O202" s="7"/>
       <c r="Z202" s="10"/>
@@ -6719,7 +6775,7 @@
       <c r="D203" s="19">
         <v>1</v>
       </c>
-      <c r="E203" s="19"/>
+      <c r="E203" s="75"/>
       <c r="N203" s="10"/>
       <c r="O203" s="7"/>
       <c r="Z203" s="10"/>
@@ -6731,7 +6787,7 @@
       <c r="D204" s="18">
         <v>1</v>
       </c>
-      <c r="E204" s="18"/>
+      <c r="E204" s="74"/>
       <c r="N204" s="10"/>
       <c r="O204" s="7"/>
       <c r="Z204" s="10"/>
@@ -6743,7 +6799,7 @@
       <c r="D205" s="19">
         <v>1</v>
       </c>
-      <c r="E205" s="19"/>
+      <c r="E205" s="75"/>
       <c r="N205" s="10"/>
       <c r="O205" s="7"/>
       <c r="Z205" s="10"/>
@@ -6755,7 +6811,7 @@
       <c r="D206" s="18">
         <v>1</v>
       </c>
-      <c r="E206" s="18"/>
+      <c r="E206" s="74"/>
       <c r="N206" s="10"/>
       <c r="O206" s="7"/>
       <c r="Z206" s="10"/>
@@ -6767,7 +6823,7 @@
       <c r="D207" s="19">
         <v>1</v>
       </c>
-      <c r="E207" s="19"/>
+      <c r="E207" s="75"/>
       <c r="N207" s="10"/>
       <c r="O207" s="7"/>
       <c r="Z207" s="10"/>
@@ -6779,7 +6835,7 @@
       <c r="D208" s="18">
         <v>1</v>
       </c>
-      <c r="E208" s="18"/>
+      <c r="E208" s="74"/>
       <c r="N208" s="10"/>
       <c r="O208" s="7"/>
       <c r="Z208" s="10"/>
@@ -6791,7 +6847,7 @@
       <c r="D209" s="19">
         <v>1</v>
       </c>
-      <c r="E209" s="19"/>
+      <c r="E209" s="75"/>
       <c r="N209" s="10"/>
       <c r="O209" s="7"/>
       <c r="Z209" s="10"/>
@@ -6803,7 +6859,7 @@
       <c r="D210" s="18">
         <v>1</v>
       </c>
-      <c r="E210" s="18"/>
+      <c r="E210" s="74"/>
       <c r="N210" s="10"/>
       <c r="O210" s="7"/>
       <c r="Z210" s="10"/>
@@ -6815,7 +6871,7 @@
       <c r="D211" s="19">
         <v>1</v>
       </c>
-      <c r="E211" s="19"/>
+      <c r="E211" s="75"/>
       <c r="N211" s="10"/>
       <c r="O211" s="7"/>
       <c r="Z211" s="10"/>
@@ -6827,7 +6883,7 @@
       <c r="D212" s="18">
         <v>1</v>
       </c>
-      <c r="E212" s="18"/>
+      <c r="E212" s="74"/>
       <c r="N212" s="10"/>
       <c r="O212" s="7"/>
       <c r="Z212" s="10"/>
@@ -6839,7 +6895,7 @@
       <c r="D213" s="19">
         <v>1</v>
       </c>
-      <c r="E213" s="19"/>
+      <c r="E213" s="75"/>
       <c r="N213" s="10"/>
       <c r="O213" s="7"/>
       <c r="Z213" s="10"/>
@@ -6851,7 +6907,7 @@
       <c r="D214" s="18">
         <v>1</v>
       </c>
-      <c r="E214" s="18"/>
+      <c r="E214" s="74"/>
       <c r="N214" s="10"/>
       <c r="O214" s="7"/>
       <c r="Z214" s="10"/>
@@ -6863,7 +6919,7 @@
       <c r="D215" s="19">
         <v>1</v>
       </c>
-      <c r="E215" s="19"/>
+      <c r="E215" s="75"/>
       <c r="N215" s="10"/>
       <c r="O215" s="7"/>
       <c r="Z215" s="10"/>
@@ -6875,7 +6931,7 @@
       <c r="D216" s="18">
         <v>1</v>
       </c>
-      <c r="E216" s="18"/>
+      <c r="E216" s="74"/>
       <c r="N216" s="10"/>
       <c r="O216" s="7"/>
       <c r="Z216" s="10"/>
@@ -6887,7 +6943,7 @@
       <c r="D217" s="19">
         <v>1</v>
       </c>
-      <c r="E217" s="19"/>
+      <c r="E217" s="75"/>
       <c r="N217" s="10"/>
       <c r="O217" s="7"/>
       <c r="Z217" s="10"/>
@@ -6899,7 +6955,7 @@
       <c r="D218" s="18">
         <v>1</v>
       </c>
-      <c r="E218" s="18"/>
+      <c r="E218" s="74"/>
       <c r="N218" s="10"/>
       <c r="O218" s="7"/>
       <c r="Z218" s="10"/>
@@ -6911,7 +6967,7 @@
       <c r="D219" s="19">
         <v>1</v>
       </c>
-      <c r="E219" s="19"/>
+      <c r="E219" s="75"/>
       <c r="N219" s="10"/>
       <c r="O219" s="7"/>
       <c r="Z219" s="10"/>
@@ -6923,7 +6979,7 @@
       <c r="D220" s="18">
         <v>1</v>
       </c>
-      <c r="E220" s="18"/>
+      <c r="E220" s="74"/>
       <c r="N220" s="10"/>
       <c r="O220" s="7"/>
       <c r="Z220" s="10"/>
@@ -6935,7 +6991,7 @@
       <c r="D221" s="19">
         <v>1</v>
       </c>
-      <c r="E221" s="19"/>
+      <c r="E221" s="75"/>
       <c r="N221" s="10"/>
       <c r="O221" s="7"/>
       <c r="Z221" s="10"/>
@@ -6947,7 +7003,7 @@
       <c r="D222" s="18">
         <v>1</v>
       </c>
-      <c r="E222" s="18"/>
+      <c r="E222" s="74"/>
       <c r="N222" s="10"/>
       <c r="O222" s="7"/>
       <c r="Z222" s="10"/>
@@ -6959,7 +7015,7 @@
       <c r="D223" s="19">
         <v>1</v>
       </c>
-      <c r="E223" s="19"/>
+      <c r="E223" s="75"/>
       <c r="N223" s="10"/>
       <c r="O223" s="7"/>
       <c r="Z223" s="10"/>
@@ -6971,7 +7027,7 @@
       <c r="D224" s="18">
         <v>1</v>
       </c>
-      <c r="E224" s="18"/>
+      <c r="E224" s="74"/>
       <c r="N224" s="10"/>
       <c r="O224" s="7"/>
       <c r="Z224" s="10"/>
@@ -6983,7 +7039,7 @@
       <c r="D225" s="19">
         <v>1</v>
       </c>
-      <c r="E225" s="19"/>
+      <c r="E225" s="75"/>
       <c r="N225" s="10"/>
       <c r="O225" s="7"/>
       <c r="Z225" s="10"/>
@@ -6995,7 +7051,7 @@
       <c r="D226" s="18">
         <v>1</v>
       </c>
-      <c r="E226" s="18"/>
+      <c r="E226" s="74"/>
       <c r="N226" s="10"/>
       <c r="O226" s="7"/>
       <c r="Z226" s="10"/>
@@ -7007,7 +7063,7 @@
       <c r="D227" s="19">
         <v>1</v>
       </c>
-      <c r="E227" s="19"/>
+      <c r="E227" s="75"/>
       <c r="N227" s="10"/>
       <c r="O227" s="7"/>
       <c r="Z227" s="10"/>
@@ -7019,7 +7075,7 @@
       <c r="D228" s="18">
         <v>1</v>
       </c>
-      <c r="E228" s="18"/>
+      <c r="E228" s="74"/>
       <c r="N228" s="10"/>
       <c r="O228" s="7"/>
       <c r="Z228" s="10"/>
@@ -7031,7 +7087,7 @@
       <c r="D229" s="19">
         <v>1</v>
       </c>
-      <c r="E229" s="19"/>
+      <c r="E229" s="75"/>
       <c r="N229" s="10"/>
       <c r="O229" s="7"/>
       <c r="Z229" s="10"/>
@@ -7043,7 +7099,7 @@
       <c r="D230" s="18">
         <v>1</v>
       </c>
-      <c r="E230" s="18"/>
+      <c r="E230" s="74"/>
       <c r="N230" s="10"/>
       <c r="O230" s="7"/>
       <c r="Z230" s="10"/>
@@ -7055,7 +7111,7 @@
       <c r="D231" s="19">
         <v>1</v>
       </c>
-      <c r="E231" s="19"/>
+      <c r="E231" s="75"/>
       <c r="N231" s="10"/>
       <c r="O231" s="7"/>
       <c r="Z231" s="10"/>
@@ -7067,7 +7123,7 @@
       <c r="D232" s="18">
         <v>1</v>
       </c>
-      <c r="E232" s="18"/>
+      <c r="E232" s="74"/>
       <c r="N232" s="10"/>
       <c r="O232" s="7"/>
       <c r="Z232" s="10"/>
@@ -7079,7 +7135,7 @@
       <c r="D233" s="19">
         <v>1</v>
       </c>
-      <c r="E233" s="19"/>
+      <c r="E233" s="75"/>
       <c r="N233" s="10"/>
       <c r="O233" s="7"/>
       <c r="Z233" s="10"/>
@@ -7091,7 +7147,7 @@
       <c r="D234" s="18">
         <v>1</v>
       </c>
-      <c r="E234" s="18"/>
+      <c r="E234" s="74"/>
       <c r="N234" s="10"/>
       <c r="O234" s="7"/>
       <c r="Z234" s="10"/>
@@ -7103,7 +7159,7 @@
       <c r="D235" s="19">
         <v>1</v>
       </c>
-      <c r="E235" s="19"/>
+      <c r="E235" s="75"/>
       <c r="N235" s="10"/>
       <c r="O235" s="7"/>
       <c r="Z235" s="10"/>
@@ -7115,7 +7171,7 @@
       <c r="D236" s="18">
         <v>1</v>
       </c>
-      <c r="E236" s="18"/>
+      <c r="E236" s="74"/>
       <c r="N236" s="10"/>
       <c r="O236" s="7"/>
       <c r="Z236" s="10"/>
@@ -7127,7 +7183,7 @@
       <c r="D237" s="19">
         <v>1</v>
       </c>
-      <c r="E237" s="19"/>
+      <c r="E237" s="75"/>
       <c r="N237" s="10"/>
       <c r="O237" s="7"/>
       <c r="Z237" s="10"/>
@@ -7139,7 +7195,7 @@
       <c r="D238" s="18">
         <v>1</v>
       </c>
-      <c r="E238" s="18"/>
+      <c r="E238" s="74"/>
       <c r="N238" s="10"/>
       <c r="O238" s="7"/>
       <c r="Z238" s="10"/>
@@ -7151,7 +7207,7 @@
       <c r="D239" s="19">
         <v>1</v>
       </c>
-      <c r="E239" s="19"/>
+      <c r="E239" s="75"/>
       <c r="N239" s="10"/>
       <c r="O239" s="7"/>
       <c r="Z239" s="10"/>
@@ -7163,7 +7219,7 @@
       <c r="D240" s="18">
         <v>1</v>
       </c>
-      <c r="E240" s="18"/>
+      <c r="E240" s="74"/>
       <c r="N240" s="10"/>
       <c r="O240" s="7"/>
       <c r="Z240" s="10"/>
@@ -7175,7 +7231,7 @@
       <c r="D241" s="19">
         <v>1</v>
       </c>
-      <c r="E241" s="19"/>
+      <c r="E241" s="75"/>
       <c r="N241" s="10"/>
       <c r="O241" s="7"/>
       <c r="Z241" s="10"/>
@@ -7187,7 +7243,7 @@
       <c r="D242" s="18">
         <v>1</v>
       </c>
-      <c r="E242" s="18"/>
+      <c r="E242" s="74"/>
       <c r="N242" s="10"/>
       <c r="O242" s="7"/>
       <c r="Z242" s="10"/>
@@ -7199,7 +7255,7 @@
       <c r="D243" s="19">
         <v>1</v>
       </c>
-      <c r="E243" s="19"/>
+      <c r="E243" s="75"/>
       <c r="N243" s="10"/>
       <c r="O243" s="7"/>
       <c r="Z243" s="10"/>
@@ -7211,7 +7267,7 @@
       <c r="D244" s="18">
         <v>1</v>
       </c>
-      <c r="E244" s="18"/>
+      <c r="E244" s="74"/>
       <c r="N244" s="10"/>
       <c r="O244" s="7"/>
       <c r="Z244" s="10"/>
@@ -7223,7 +7279,7 @@
       <c r="D245" s="19">
         <v>1</v>
       </c>
-      <c r="E245" s="19"/>
+      <c r="E245" s="75"/>
       <c r="N245" s="10"/>
       <c r="O245" s="7"/>
       <c r="Z245" s="10"/>
@@ -7235,7 +7291,7 @@
       <c r="D246" s="18">
         <v>1</v>
       </c>
-      <c r="E246" s="18"/>
+      <c r="E246" s="74"/>
       <c r="N246" s="10"/>
       <c r="O246" s="7"/>
       <c r="Z246" s="10"/>
@@ -7247,7 +7303,7 @@
       <c r="D247" s="19">
         <v>1</v>
       </c>
-      <c r="E247" s="19"/>
+      <c r="E247" s="75"/>
       <c r="N247" s="10"/>
       <c r="O247" s="7"/>
       <c r="Z247" s="10"/>
@@ -7259,7 +7315,7 @@
       <c r="D248" s="18">
         <v>1</v>
       </c>
-      <c r="E248" s="18"/>
+      <c r="E248" s="74"/>
       <c r="N248" s="10"/>
       <c r="O248" s="7"/>
       <c r="Z248" s="10"/>
@@ -7271,7 +7327,7 @@
       <c r="D249" s="19">
         <v>1</v>
       </c>
-      <c r="E249" s="19"/>
+      <c r="E249" s="75"/>
       <c r="N249" s="10"/>
       <c r="O249" s="7"/>
       <c r="Z249" s="10"/>
@@ -7283,7 +7339,7 @@
       <c r="D250" s="18">
         <v>1</v>
       </c>
-      <c r="E250" s="18"/>
+      <c r="E250" s="74"/>
       <c r="N250" s="10"/>
       <c r="O250" s="7"/>
       <c r="Z250" s="10"/>
@@ -7295,7 +7351,7 @@
       <c r="D251" s="19">
         <v>1</v>
       </c>
-      <c r="E251" s="19"/>
+      <c r="E251" s="75"/>
       <c r="Z251" s="10"/>
       <c r="AA251" s="7"/>
       <c r="AC251" s="10"/>
@@ -7305,7 +7361,7 @@
       <c r="D252" s="18">
         <v>1</v>
       </c>
-      <c r="E252" s="18"/>
+      <c r="E252" s="74"/>
       <c r="AC252" s="10"/>
       <c r="AD252" s="7"/>
     </row>
@@ -7313,7 +7369,7 @@
       <c r="D253" s="19">
         <v>1</v>
       </c>
-      <c r="E253" s="19"/>
+      <c r="E253" s="75"/>
       <c r="AC253" s="10"/>
       <c r="AD253" s="7"/>
     </row>
@@ -7321,7 +7377,7 @@
       <c r="D254" s="18">
         <v>1</v>
       </c>
-      <c r="E254" s="18"/>
+      <c r="E254" s="74"/>
       <c r="AC254" s="10"/>
       <c r="AD254" s="7"/>
     </row>
@@ -7329,7 +7385,7 @@
       <c r="D255" s="19">
         <v>1</v>
       </c>
-      <c r="E255" s="19"/>
+      <c r="E255" s="75"/>
       <c r="AC255" s="10"/>
       <c r="AD255" s="7"/>
     </row>
@@ -7337,7 +7393,7 @@
       <c r="D256" s="18">
         <v>1</v>
       </c>
-      <c r="E256" s="18"/>
+      <c r="E256" s="74"/>
       <c r="AC256" s="10"/>
       <c r="AD256" s="7"/>
     </row>
@@ -7345,7 +7401,7 @@
       <c r="D257" s="19">
         <v>1</v>
       </c>
-      <c r="E257" s="19"/>
+      <c r="E257" s="75"/>
       <c r="AC257" s="10"/>
       <c r="AD257" s="7"/>
     </row>
@@ -7353,7 +7409,7 @@
       <c r="D258" s="18">
         <v>1</v>
       </c>
-      <c r="E258" s="18"/>
+      <c r="E258" s="74"/>
       <c r="AC258" s="10"/>
       <c r="AD258" s="7"/>
     </row>
@@ -7361,7 +7417,7 @@
       <c r="D259" s="19">
         <v>1</v>
       </c>
-      <c r="E259" s="19"/>
+      <c r="E259" s="75"/>
       <c r="AC259" s="10"/>
       <c r="AD259" s="7"/>
     </row>
@@ -7369,7 +7425,7 @@
       <c r="D260" s="18">
         <v>1</v>
       </c>
-      <c r="E260" s="18"/>
+      <c r="E260" s="74"/>
       <c r="AC260" s="10"/>
       <c r="AD260" s="7"/>
     </row>
@@ -7377,7 +7433,7 @@
       <c r="D261" s="19">
         <v>1</v>
       </c>
-      <c r="E261" s="19"/>
+      <c r="E261" s="75"/>
       <c r="AC261" s="10"/>
       <c r="AD261" s="7"/>
     </row>
@@ -7385,7 +7441,7 @@
       <c r="D262" s="18">
         <v>1</v>
       </c>
-      <c r="E262" s="18"/>
+      <c r="E262" s="74"/>
       <c r="AC262" s="10"/>
       <c r="AD262" s="7"/>
     </row>
@@ -7393,7 +7449,7 @@
       <c r="D263" s="19">
         <v>1</v>
       </c>
-      <c r="E263" s="19"/>
+      <c r="E263" s="75"/>
       <c r="AC263" s="10"/>
       <c r="AD263" s="7"/>
     </row>
@@ -7401,7 +7457,7 @@
       <c r="D264" s="18">
         <v>1</v>
       </c>
-      <c r="E264" s="18"/>
+      <c r="E264" s="74"/>
       <c r="AC264" s="10"/>
       <c r="AD264" s="7"/>
     </row>
@@ -7409,7 +7465,7 @@
       <c r="D265" s="19">
         <v>1</v>
       </c>
-      <c r="E265" s="19"/>
+      <c r="E265" s="75"/>
       <c r="AC265" s="10"/>
       <c r="AD265" s="7"/>
     </row>
@@ -7417,7 +7473,7 @@
       <c r="D266" s="18">
         <v>1</v>
       </c>
-      <c r="E266" s="18"/>
+      <c r="E266" s="74"/>
       <c r="AC266" s="10"/>
       <c r="AD266" s="7"/>
     </row>
@@ -7425,7 +7481,7 @@
       <c r="D267" s="19">
         <v>1</v>
       </c>
-      <c r="E267" s="19"/>
+      <c r="E267" s="75"/>
       <c r="AC267" s="10"/>
       <c r="AD267" s="7"/>
     </row>
@@ -7433,7 +7489,7 @@
       <c r="D268" s="18">
         <v>1</v>
       </c>
-      <c r="E268" s="18"/>
+      <c r="E268" s="74"/>
       <c r="AC268" s="10"/>
       <c r="AD268" s="7"/>
     </row>
@@ -7441,7 +7497,7 @@
       <c r="D269" s="19">
         <v>1</v>
       </c>
-      <c r="E269" s="19"/>
+      <c r="E269" s="75"/>
       <c r="AC269" s="10"/>
       <c r="AD269" s="7"/>
     </row>
@@ -7449,7 +7505,7 @@
       <c r="D270" s="18">
         <v>1</v>
       </c>
-      <c r="E270" s="18"/>
+      <c r="E270" s="74"/>
       <c r="AC270" s="10"/>
       <c r="AD270" s="7"/>
     </row>
@@ -7457,7 +7513,7 @@
       <c r="D271" s="19">
         <v>1</v>
       </c>
-      <c r="E271" s="19"/>
+      <c r="E271" s="75"/>
       <c r="AC271" s="10"/>
       <c r="AD271" s="7"/>
     </row>
@@ -7465,7 +7521,7 @@
       <c r="D272" s="18">
         <v>1</v>
       </c>
-      <c r="E272" s="18"/>
+      <c r="E272" s="74"/>
       <c r="AC272" s="10"/>
       <c r="AD272" s="7"/>
     </row>
@@ -7473,271 +7529,271 @@
       <c r="D273" s="19">
         <v>1</v>
       </c>
-      <c r="E273" s="19"/>
+      <c r="E273" s="75"/>
     </row>
     <row r="274" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D274" s="18">
         <v>1</v>
       </c>
-      <c r="E274" s="18"/>
+      <c r="E274" s="74"/>
     </row>
     <row r="275" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D275" s="19">
         <v>1</v>
       </c>
-      <c r="E275" s="19"/>
+      <c r="E275" s="75"/>
     </row>
     <row r="276" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D276" s="18">
         <v>1</v>
       </c>
-      <c r="E276" s="18"/>
+      <c r="E276" s="74"/>
     </row>
     <row r="277" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D277" s="19">
         <v>1</v>
       </c>
-      <c r="E277" s="19"/>
+      <c r="E277" s="75"/>
     </row>
     <row r="278" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D278" s="18">
         <v>1</v>
       </c>
-      <c r="E278" s="18"/>
+      <c r="E278" s="74"/>
     </row>
     <row r="279" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D279" s="19">
         <v>1</v>
       </c>
-      <c r="E279" s="19"/>
+      <c r="E279" s="75"/>
     </row>
     <row r="280" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D280" s="18">
         <v>1</v>
       </c>
-      <c r="E280" s="18"/>
+      <c r="E280" s="74"/>
     </row>
     <row r="281" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D281" s="19">
         <v>1</v>
       </c>
-      <c r="E281" s="19"/>
+      <c r="E281" s="75"/>
     </row>
     <row r="282" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D282" s="18">
         <v>1</v>
       </c>
-      <c r="E282" s="18"/>
+      <c r="E282" s="74"/>
     </row>
     <row r="283" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D283" s="19">
         <v>1</v>
       </c>
-      <c r="E283" s="19"/>
+      <c r="E283" s="75"/>
     </row>
     <row r="284" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D284" s="18">
         <v>1</v>
       </c>
-      <c r="E284" s="18"/>
+      <c r="E284" s="74"/>
     </row>
     <row r="285" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D285" s="19">
         <v>1</v>
       </c>
-      <c r="E285" s="19"/>
+      <c r="E285" s="75"/>
     </row>
     <row r="286" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D286" s="18">
         <v>1</v>
       </c>
-      <c r="E286" s="18"/>
+      <c r="E286" s="74"/>
     </row>
     <row r="287" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D287" s="19">
         <v>1</v>
       </c>
-      <c r="E287" s="19"/>
+      <c r="E287" s="75"/>
     </row>
     <row r="288" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D288" s="18">
         <v>1</v>
       </c>
-      <c r="E288" s="18"/>
+      <c r="E288" s="74"/>
     </row>
     <row r="289" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D289" s="19">
         <v>1</v>
       </c>
-      <c r="E289" s="19"/>
+      <c r="E289" s="75"/>
     </row>
     <row r="290" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D290" s="18">
         <v>1</v>
       </c>
-      <c r="E290" s="18"/>
+      <c r="E290" s="74"/>
     </row>
     <row r="291" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D291" s="19">
         <v>1</v>
       </c>
-      <c r="E291" s="19"/>
+      <c r="E291" s="75"/>
     </row>
     <row r="292" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D292" s="18">
         <v>1</v>
       </c>
-      <c r="E292" s="18"/>
+      <c r="E292" s="74"/>
     </row>
     <row r="293" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D293" s="19">
         <v>1</v>
       </c>
-      <c r="E293" s="19"/>
+      <c r="E293" s="75"/>
     </row>
     <row r="294" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D294" s="18">
         <v>1</v>
       </c>
-      <c r="E294" s="18"/>
+      <c r="E294" s="74"/>
     </row>
     <row r="295" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D295" s="19">
         <v>1</v>
       </c>
-      <c r="E295" s="19"/>
+      <c r="E295" s="75"/>
     </row>
     <row r="296" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D296" s="18">
         <v>1</v>
       </c>
-      <c r="E296" s="18"/>
+      <c r="E296" s="74"/>
     </row>
     <row r="297" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D297" s="19">
         <v>1</v>
       </c>
-      <c r="E297" s="19"/>
+      <c r="E297" s="75"/>
     </row>
     <row r="298" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D298" s="18">
         <v>1</v>
       </c>
-      <c r="E298" s="18"/>
+      <c r="E298" s="74"/>
     </row>
     <row r="299" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D299" s="19">
         <v>1</v>
       </c>
-      <c r="E299" s="19"/>
+      <c r="E299" s="75"/>
     </row>
     <row r="300" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D300" s="18">
         <v>1</v>
       </c>
-      <c r="E300" s="18"/>
+      <c r="E300" s="74"/>
     </row>
     <row r="301" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D301" s="19">
         <v>1</v>
       </c>
-      <c r="E301" s="19"/>
+      <c r="E301" s="75"/>
     </row>
     <row r="302" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D302" s="18">
         <v>1</v>
       </c>
-      <c r="E302" s="18"/>
+      <c r="E302" s="74"/>
     </row>
     <row r="303" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D303" s="19">
         <v>1</v>
       </c>
-      <c r="E303" s="19"/>
+      <c r="E303" s="75"/>
     </row>
     <row r="304" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D304" s="18">
         <v>1</v>
       </c>
-      <c r="E304" s="18"/>
+      <c r="E304" s="74"/>
     </row>
     <row r="305" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D305" s="19">
         <v>1</v>
       </c>
-      <c r="E305" s="19"/>
+      <c r="E305" s="75"/>
     </row>
     <row r="306" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D306" s="18">
         <v>1</v>
       </c>
-      <c r="E306" s="18"/>
+      <c r="E306" s="74"/>
     </row>
     <row r="307" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D307" s="19">
         <v>1</v>
       </c>
-      <c r="E307" s="19"/>
+      <c r="E307" s="75"/>
     </row>
     <row r="308" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D308" s="18">
         <v>1</v>
       </c>
-      <c r="E308" s="18"/>
+      <c r="E308" s="74"/>
     </row>
     <row r="309" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D309" s="19">
         <v>1</v>
       </c>
-      <c r="E309" s="19"/>
+      <c r="E309" s="75"/>
     </row>
     <row r="310" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D310" s="18">
         <v>1</v>
       </c>
-      <c r="E310" s="18"/>
+      <c r="E310" s="74"/>
     </row>
     <row r="311" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D311" s="19">
         <v>1</v>
       </c>
-      <c r="E311" s="19"/>
+      <c r="E311" s="75"/>
     </row>
     <row r="312" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D312" s="18">
         <v>1</v>
       </c>
-      <c r="E312" s="18"/>
+      <c r="E312" s="74"/>
     </row>
     <row r="313" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D313" s="19">
         <v>1</v>
       </c>
-      <c r="E313" s="19"/>
+      <c r="E313" s="75"/>
     </row>
     <row r="314" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D314" s="18">
         <v>1</v>
       </c>
-      <c r="E314" s="18"/>
+      <c r="E314" s="74"/>
     </row>
     <row r="315" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D315" s="19">
         <v>1</v>
       </c>
-      <c r="E315" s="19"/>
+      <c r="E315" s="75"/>
     </row>
     <row r="316" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D316" s="18">
         <v>1</v>
       </c>
-      <c r="E316" s="18"/>
+      <c r="E316" s="74"/>
     </row>
     <row r="317" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D317" s="19">
         <v>1</v>
       </c>
-      <c r="E317" s="19"/>
+      <c r="E317" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -7761,19 +7817,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E682F4AE-98F6-AF43-ACD4-CA6ECA726A84}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.1640625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7792,102 +7851,102 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="56"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="68"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="68" t="s">
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C9" s="56" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="68" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C10" s="56" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="68" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C11" s="56" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="68" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C13" s="56"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="56" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="68" t="s">
+      <c r="C14" s="56"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C15" s="56"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="56" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="68" t="s">
+      <c r="C16" s="56"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C17" s="56"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="56" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="68" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="68"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="68" t="s">
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="56" t="s">
         <v>114</v>
-      </c>
-      <c r="C14" s="68"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="68"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="68"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="68"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="68" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="68" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="68" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/gantt_chart.xlsx
+++ b/gantt_chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mlawson/Documents/GitHub/hfm_integration_demonstration_plan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlawson\Documents\GitHub\hfm_integration_demonstration_plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26150A0-106D-4047-B460-4A4E20EE6F3C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB3642DC-7218-4D9F-8E2D-460B0B96F7E6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="460" windowWidth="32460" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="149">
   <si>
     <t>1.1.1</t>
   </si>
@@ -146,9 +146,6 @@
     <t>2.1.5</t>
   </si>
   <si>
-    <t>2.1.6</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.1.4 </t>
   </si>
   <si>
@@ -293,9 +290,6 @@
     <t>Herges/Knaus</t>
   </si>
   <si>
-    <t>ABL eqn/IC/BC development</t>
-  </si>
-  <si>
     <t>1.1.7</t>
   </si>
   <si>
@@ -474,6 +468,15 @@
   </si>
   <si>
     <t>Yellow cell indicate decision points and/or milestones</t>
+  </si>
+  <si>
+    <t>ABL eqn/IC/BC development *</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>ABL eqn/IC/BC development*</t>
   </si>
 </sst>
 </file>
@@ -555,7 +558,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,6 +584,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -784,7 +793,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -872,14 +881,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -890,9 +891,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -910,6 +908,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -925,7 +924,23 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="4" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1210,20 +1225,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK317"/>
+  <dimension ref="A1:AK315"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="67.1640625" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.1640625" style="76" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" style="69" customWidth="1"/>
     <col min="6" max="6" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.5" style="5" customWidth="1"/>
@@ -1258,103 +1273,103 @@
     <col min="37" max="37" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="78" t="s">
+      <c r="E1" s="64"/>
+      <c r="F1" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77" t="s">
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77" t="s">
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
-    </row>
-    <row r="2" spans="1:37" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+    </row>
+    <row r="2" spans="1:37" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="79" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="81" t="s">
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="79" t="s">
+      <c r="J2" s="73"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="79"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="81" t="s">
+      <c r="M2" s="73"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="81" t="s">
+      <c r="P2" s="73"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="79"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="81" t="s">
+      <c r="S2" s="73"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="79"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="79" t="s">
+      <c r="V2" s="73"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="79" t="s">
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="81" t="s">
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="79" t="s">
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="80"/>
-    </row>
-    <row r="3" spans="1:37" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="74"/>
+    </row>
+    <row r="3" spans="1:37" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1362,13 +1377,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="70" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>48</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>32</v>
@@ -1461,19 +1476,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="8"/>
@@ -1506,18 +1521,18 @@
       <c r="AH4" s="8"/>
       <c r="AI4" s="14"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="32"/>
-      <c r="E5" s="69"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="52"/>
       <c r="G5" s="53"/>
       <c r="H5"/>
@@ -1550,15 +1565,15 @@
       <c r="AI5" s="14"/>
       <c r="AK5" s="21"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>86</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="47"/>
@@ -1594,21 +1609,21 @@
       <c r="AI6" s="14"/>
       <c r="AK6" s="21"/>
     </row>
-    <row r="7" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="E7" s="63" t="s">
         <v>130</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="69" t="s">
-        <v>132</v>
       </c>
       <c r="F7"/>
       <c r="G7" s="8"/>
@@ -1618,7 +1633,7 @@
       <c r="K7" s="54"/>
       <c r="L7" s="52"/>
       <c r="M7" s="53"/>
-      <c r="N7" s="67"/>
+      <c r="N7" s="61"/>
       <c r="O7" s="15"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="14"/>
@@ -1642,21 +1657,21 @@
       <c r="AI7" s="14"/>
       <c r="AK7" s="21"/>
     </row>
-    <row r="8" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="63" t="s">
         <v>133</v>
-      </c>
-      <c r="C8" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="69" t="s">
-        <v>135</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="8"/>
@@ -1689,21 +1704,21 @@
       <c r="AH8" s="8"/>
       <c r="AI8" s="14"/>
     </row>
-    <row r="9" spans="1:37" s="66" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" s="60" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="69" t="s">
-        <v>117</v>
+        <v>134</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>115</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="8"/>
@@ -1719,7 +1734,7 @@
       <c r="Q9" s="54"/>
       <c r="R9" s="55"/>
       <c r="S9" s="53"/>
-      <c r="T9" s="67"/>
+      <c r="T9" s="61"/>
       <c r="U9" s="15"/>
       <c r="V9" s="8"/>
       <c r="W9" s="14"/>
@@ -1737,21 +1752,21 @@
       <c r="AI9" s="14"/>
       <c r="AJ9"/>
     </row>
-    <row r="10" spans="1:37" s="66" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" s="60" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="69" t="s">
         <v>118</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>116</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="8"/>
@@ -1785,21 +1800,21 @@
       <c r="AI10" s="14"/>
       <c r="AJ10"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="69" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>136</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="8"/>
@@ -1832,21 +1847,21 @@
       <c r="AH11" s="8"/>
       <c r="AI11" s="14"/>
     </row>
-    <row r="12" spans="1:37" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C12" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="63" t="s">
         <v>139</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="E12" s="69" t="s">
-        <v>141</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="8"/>
@@ -1865,7 +1880,7 @@
       <c r="T12" s="54"/>
       <c r="U12" s="55"/>
       <c r="V12" s="53"/>
-      <c r="W12" s="67"/>
+      <c r="W12" s="61"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="14"/>
@@ -1880,12 +1895,12 @@
       <c r="AI12" s="14"/>
       <c r="AJ12"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
       <c r="B13" s="48"/>
       <c r="C13" s="21"/>
       <c r="D13" s="32"/>
-      <c r="E13" s="69"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="12"/>
       <c r="G13" s="8"/>
       <c r="H13" s="14"/>
@@ -1917,12 +1932,12 @@
       <c r="AH13" s="8"/>
       <c r="AI13" s="14"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
       <c r="B14" s="48"/>
       <c r="C14" s="21"/>
       <c r="D14" s="32"/>
-      <c r="E14" s="69"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="12"/>
       <c r="G14" s="8"/>
       <c r="H14" s="14"/>
@@ -1954,18 +1969,18 @@
       <c r="AH14" s="8"/>
       <c r="AI14" s="14"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" s="20"/>
       <c r="B15" s="48"/>
       <c r="C15" s="21"/>
       <c r="D15" s="32"/>
-      <c r="E15" s="69"/>
+      <c r="E15" s="63"/>
       <c r="F15" s="12"/>
       <c r="G15" s="8"/>
       <c r="H15" s="14"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="64"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="58"/>
       <c r="L15" s="12"/>
       <c r="M15" s="8"/>
       <c r="N15" s="14"/>
@@ -1991,18 +2006,18 @@
       <c r="AH15" s="8"/>
       <c r="AI15" s="14"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="24"/>
-      <c r="E16" s="50"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="39"/>
       <c r="G16" s="40"/>
       <c r="H16" s="41"/>
@@ -2034,156 +2049,165 @@
       <c r="AH16" s="40"/>
       <c r="AI16" s="41"/>
     </row>
-    <row r="17" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57" t="s">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A17" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="M17" s="53"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="82"/>
+      <c r="V17" s="80"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="83"/>
+      <c r="Y17" s="80"/>
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="83"/>
+      <c r="AB17" s="80"/>
+      <c r="AC17" s="81"/>
+      <c r="AD17" s="82"/>
+      <c r="AE17" s="80"/>
+      <c r="AF17" s="81"/>
+      <c r="AG17" s="83"/>
+      <c r="AH17" s="80"/>
+      <c r="AI17" s="81"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A18" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="32" t="s">
+      <c r="C18" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="39"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="M18" s="53"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="80"/>
+      <c r="W18" s="81"/>
+      <c r="X18" s="83"/>
+      <c r="Y18" s="80"/>
+      <c r="Z18" s="81"/>
+      <c r="AA18" s="83"/>
+      <c r="AB18" s="80"/>
+      <c r="AC18" s="81"/>
+      <c r="AD18" s="82"/>
+      <c r="AE18" s="80"/>
+      <c r="AF18" s="81"/>
+      <c r="AG18" s="83"/>
+      <c r="AH18" s="80"/>
+      <c r="AI18" s="81"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A19" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="59"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="60"/>
-      <c r="Z17" s="61"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="60"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="62"/>
-      <c r="AE17" s="60"/>
-      <c r="AF17" s="61"/>
-      <c r="AG17" s="59"/>
-      <c r="AH17" s="60"/>
-      <c r="AI17" s="61"/>
-    </row>
-    <row r="18" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="59"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="61"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="60"/>
-      <c r="W18" s="61"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="60"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="60"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="62"/>
-      <c r="AE18" s="60"/>
-      <c r="AF18" s="61"/>
-      <c r="AG18" s="59"/>
-      <c r="AH18" s="60"/>
-      <c r="AI18" s="61"/>
-    </row>
-    <row r="19" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="58"/>
-      <c r="C19" s="46" t="s">
-        <v>123</v>
-      </c>
       <c r="D19" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="71"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="60"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="60"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="60"/>
-      <c r="AC19" s="61"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="60"/>
-      <c r="AF19" s="61"/>
-      <c r="AG19" s="59"/>
-      <c r="AH19" s="60"/>
-      <c r="AI19" s="61"/>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="14"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="48" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="69" t="s">
-        <v>65</v>
-      </c>
+      <c r="E20" s="25"/>
       <c r="F20" s="12"/>
       <c r="G20" s="8"/>
       <c r="H20" s="14"/>
@@ -2199,46 +2223,46 @@
       <c r="R20" s="15"/>
       <c r="S20" s="8"/>
       <c r="T20" s="14"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="14"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="84"/>
+      <c r="AB20" s="85"/>
+      <c r="AC20" s="86"/>
+      <c r="AD20" s="87"/>
+      <c r="AE20" s="85"/>
+      <c r="AF20" s="86"/>
       <c r="AG20" s="12"/>
       <c r="AH20" s="8"/>
       <c r="AI20" s="14"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" s="48" t="s">
         <v>81</v>
       </c>
       <c r="C21" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="D21" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="47"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="12"/>
       <c r="G21" s="8"/>
       <c r="H21" s="14"/>
       <c r="I21" s="15"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="15"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="12"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="15"/>
@@ -2249,41 +2273,33 @@
       <c r="W21" s="14"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="8"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="15"/>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="53"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="88"/>
       <c r="AE21" s="8"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="14"/>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="47"/>
+      <c r="AF21" s="86"/>
+      <c r="AG21" s="84"/>
+      <c r="AH21" s="85"/>
+      <c r="AI21" s="86"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A22" s="20"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="63"/>
       <c r="F22" s="12"/>
       <c r="G22" s="8"/>
       <c r="H22" s="14"/>
       <c r="I22" s="15"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="12"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="15"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="15"/>
@@ -2305,13 +2321,19 @@
       <c r="AH22" s="8"/>
       <c r="AI22" s="14"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="25"/>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A23" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>113</v>
+      </c>
       <c r="E23" s="47"/>
       <c r="F23" s="12"/>
       <c r="G23" s="8"/>
@@ -2322,7 +2344,7 @@
       <c r="L23" s="15"/>
       <c r="M23" s="8"/>
       <c r="N23" s="14"/>
-      <c r="O23" s="12"/>
+      <c r="O23" s="15"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="15"/>
@@ -2344,12 +2366,22 @@
       <c r="AH23" s="8"/>
       <c r="AI23" s="14"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="69"/>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A24" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="32">
+        <v>1</v>
+      </c>
+      <c r="E24" s="63" t="s">
+        <v>65</v>
+      </c>
       <c r="F24" s="12"/>
       <c r="G24" s="8"/>
       <c r="H24" s="14"/>
@@ -2359,9 +2391,9 @@
       <c r="L24" s="15"/>
       <c r="M24" s="8"/>
       <c r="N24" s="14"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="14"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="61"/>
       <c r="R24" s="15"/>
       <c r="S24" s="8"/>
       <c r="T24" s="14"/>
@@ -2381,32 +2413,30 @@
       <c r="AH24" s="8"/>
       <c r="AI24" s="14"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>55</v>
+    <row r="25" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>142</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="47"/>
+        <v>143</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="12"/>
       <c r="G25" s="8"/>
       <c r="H25" s="14"/>
       <c r="I25" s="15"/>
       <c r="J25" s="8"/>
       <c r="K25" s="14"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="14"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="61"/>
       <c r="R25" s="15"/>
       <c r="S25" s="8"/>
       <c r="T25" s="14"/>
@@ -2416,9 +2446,9 @@
       <c r="X25" s="12"/>
       <c r="Y25" s="8"/>
       <c r="Z25" s="14"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="14"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="36"/>
       <c r="AD25" s="15"/>
       <c r="AE25" s="8"/>
       <c r="AF25" s="14"/>
@@ -2426,21 +2456,21 @@
       <c r="AH25" s="8"/>
       <c r="AI25" s="14"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D26" s="32">
-        <v>1</v>
-      </c>
-      <c r="E26" s="69" t="s">
-        <v>66</v>
+        <v>4</v>
+      </c>
+      <c r="E26" s="63" t="s">
+        <v>144</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="8"/>
@@ -2451,15 +2481,15 @@
       <c r="L26" s="15"/>
       <c r="M26" s="8"/>
       <c r="N26" s="14"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="14"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="54"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="8"/>
       <c r="Z26" s="14"/>
@@ -2473,42 +2503,43 @@
       <c r="AH26" s="8"/>
       <c r="AI26" s="14"/>
     </row>
-    <row r="27" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="69"/>
+        <v>69</v>
+      </c>
+      <c r="D27" s="32">
+        <v>2</v>
+      </c>
+      <c r="E27" s="63"/>
       <c r="F27" s="12"/>
       <c r="G27" s="8"/>
       <c r="H27" s="14"/>
       <c r="I27" s="15"/>
       <c r="J27" s="8"/>
       <c r="K27" s="14"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="67"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="14"/>
       <c r="R27" s="15"/>
       <c r="S27" s="8"/>
       <c r="T27" s="14"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="8"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="53"/>
       <c r="W27" s="14"/>
       <c r="X27" s="12"/>
-      <c r="Y27" s="8"/>
       <c r="Z27" s="14"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="35"/>
-      <c r="AC27" s="36"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="14"/>
       <c r="AD27" s="15"/>
       <c r="AE27" s="8"/>
       <c r="AF27" s="14"/>
@@ -2516,42 +2547,39 @@
       <c r="AH27" s="8"/>
       <c r="AI27" s="14"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A28" s="20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D28" s="32">
-        <v>4</v>
-      </c>
-      <c r="E28" s="69" t="s">
-        <v>146</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E28" s="63"/>
       <c r="F28" s="12"/>
       <c r="G28" s="8"/>
       <c r="H28" s="14"/>
       <c r="I28" s="15"/>
       <c r="J28" s="8"/>
       <c r="K28" s="14"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="14"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="36"/>
       <c r="O28" s="15"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="14"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="54"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="14"/>
       <c r="U28" s="55"/>
       <c r="V28" s="53"/>
-      <c r="W28" s="54"/>
+      <c r="W28" s="14"/>
       <c r="X28" s="12"/>
-      <c r="Y28" s="8"/>
       <c r="Z28" s="14"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="8"/>
@@ -2563,38 +2591,38 @@
       <c r="AH28" s="8"/>
       <c r="AI28" s="14"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D29" s="32">
-        <v>2</v>
-      </c>
-      <c r="E29" s="69"/>
+        <v>4</v>
+      </c>
+      <c r="E29" s="63"/>
       <c r="F29" s="12"/>
       <c r="G29" s="8"/>
       <c r="H29" s="14"/>
       <c r="I29" s="15"/>
       <c r="J29" s="8"/>
       <c r="K29" s="14"/>
-      <c r="L29" s="15"/>
+      <c r="L29" s="12"/>
       <c r="M29" s="8"/>
       <c r="N29" s="14"/>
-      <c r="O29" s="15"/>
+      <c r="O29" s="12"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="14"/>
-      <c r="R29" s="15"/>
+      <c r="R29" s="12"/>
       <c r="S29" s="8"/>
       <c r="T29" s="14"/>
       <c r="U29" s="55"/>
       <c r="V29" s="53"/>
-      <c r="W29" s="14"/>
+      <c r="W29" s="61"/>
       <c r="X29" s="12"/>
       <c r="Z29" s="14"/>
       <c r="AA29" s="12"/>
@@ -2607,42 +2635,43 @@
       <c r="AH29" s="8"/>
       <c r="AI29" s="14"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D30" s="32">
-        <v>1</v>
-      </c>
-      <c r="E30" s="69"/>
+        <v>4</v>
+      </c>
+      <c r="E30" s="63"/>
       <c r="F30" s="12"/>
       <c r="G30" s="8"/>
       <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
+      <c r="I30" s="12"/>
       <c r="J30" s="8"/>
       <c r="K30" s="14"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="15"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="12"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="14"/>
-      <c r="R30" s="15"/>
+      <c r="R30" s="12"/>
       <c r="S30" s="8"/>
       <c r="T30" s="14"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="53"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="8"/>
       <c r="W30" s="14"/>
-      <c r="X30" s="12"/>
-      <c r="Z30" s="14"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="8"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="54"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="53"/>
       <c r="AC30" s="14"/>
       <c r="AD30" s="15"/>
       <c r="AE30" s="8"/>
@@ -2651,9 +2680,9 @@
       <c r="AH30" s="8"/>
       <c r="AI30" s="14"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A31" s="20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B31" s="48" t="s">
         <v>56</v>
@@ -2662,13 +2691,13 @@
         <v>67</v>
       </c>
       <c r="D31" s="32">
-        <v>4</v>
-      </c>
-      <c r="E31" s="69"/>
+        <v>6</v>
+      </c>
+      <c r="E31" s="63"/>
       <c r="F31" s="12"/>
       <c r="G31" s="8"/>
       <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
+      <c r="I31" s="12"/>
       <c r="J31" s="8"/>
       <c r="K31" s="14"/>
       <c r="L31" s="12"/>
@@ -2680,132 +2709,133 @@
       <c r="R31" s="12"/>
       <c r="S31" s="8"/>
       <c r="T31" s="14"/>
-      <c r="U31" s="55"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="67"/>
-      <c r="X31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="8"/>
       <c r="Z31" s="14"/>
-      <c r="AA31" s="12"/>
-      <c r="AB31" s="8"/>
-      <c r="AC31" s="14"/>
-      <c r="AD31" s="15"/>
-      <c r="AE31" s="8"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="54"/>
+      <c r="AD31" s="55"/>
+      <c r="AE31" s="53"/>
       <c r="AF31" s="14"/>
       <c r="AG31" s="12"/>
       <c r="AH31" s="8"/>
       <c r="AI31" s="14"/>
     </row>
-    <row r="32" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A32" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D32" s="32">
-        <v>4</v>
-      </c>
-      <c r="E32" s="69"/>
+        <v>2</v>
+      </c>
+      <c r="E32" s="63"/>
       <c r="F32" s="12"/>
       <c r="G32" s="8"/>
       <c r="H32" s="14"/>
-      <c r="I32" s="12"/>
+      <c r="I32" s="15"/>
       <c r="J32" s="8"/>
       <c r="K32" s="14"/>
       <c r="L32" s="12"/>
       <c r="M32" s="8"/>
       <c r="N32" s="14"/>
-      <c r="O32" s="12"/>
+      <c r="O32" s="15"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="14"/>
-      <c r="R32" s="12"/>
+      <c r="R32" s="15"/>
       <c r="S32" s="8"/>
       <c r="T32" s="14"/>
-      <c r="U32" s="12"/>
+      <c r="U32" s="15"/>
       <c r="V32" s="8"/>
       <c r="W32" s="14"/>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="53"/>
-      <c r="Z32" s="54"/>
-      <c r="AA32" s="52"/>
-      <c r="AB32" s="53"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="8"/>
       <c r="AC32" s="14"/>
-      <c r="AD32" s="15"/>
-      <c r="AE32" s="8"/>
-      <c r="AF32" s="14"/>
+      <c r="AD32" s="55"/>
+      <c r="AE32" s="53"/>
+      <c r="AF32" s="54"/>
       <c r="AG32" s="12"/>
       <c r="AH32" s="8"/>
       <c r="AI32" s="14"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A33" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D33" s="32">
-        <v>6</v>
-      </c>
-      <c r="E33" s="69"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="E33" s="47"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="15"/>
       <c r="M33" s="8"/>
       <c r="N33" s="14"/>
-      <c r="O33" s="12"/>
+      <c r="O33" s="15"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="14"/>
-      <c r="R33" s="12"/>
+      <c r="R33" s="15"/>
       <c r="S33" s="8"/>
       <c r="T33" s="14"/>
-      <c r="U33" s="12"/>
+      <c r="U33" s="15"/>
       <c r="V33" s="8"/>
       <c r="W33" s="14"/>
       <c r="X33" s="15"/>
       <c r="Y33" s="8"/>
       <c r="Z33" s="14"/>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="35"/>
-      <c r="AC33" s="54"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="14"/>
       <c r="AD33" s="55"/>
       <c r="AE33" s="53"/>
-      <c r="AF33" s="14"/>
-      <c r="AG33" s="12"/>
-      <c r="AH33" s="8"/>
-      <c r="AI33" s="14"/>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AF33" s="54"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="27"/>
+      <c r="AI33" s="28"/>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A34" s="20" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D34" s="32">
-        <v>2</v>
-      </c>
-      <c r="E34" s="69"/>
+        <v>6</v>
+      </c>
+      <c r="E34" s="63"/>
       <c r="F34" s="12"/>
       <c r="G34" s="8"/>
       <c r="H34" s="14"/>
       <c r="I34" s="15"/>
       <c r="J34" s="8"/>
       <c r="K34" s="14"/>
-      <c r="L34" s="12"/>
+      <c r="L34" s="15"/>
       <c r="M34" s="8"/>
       <c r="N34" s="14"/>
       <c r="O34" s="15"/>
@@ -2820,84 +2850,84 @@
       <c r="X34" s="15"/>
       <c r="Y34" s="8"/>
       <c r="Z34" s="14"/>
-      <c r="AA34" s="15"/>
+      <c r="AA34" s="12"/>
       <c r="AB34" s="8"/>
       <c r="AC34" s="14"/>
-      <c r="AD34" s="55"/>
-      <c r="AE34" s="53"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="8"/>
       <c r="AF34" s="54"/>
-      <c r="AG34" s="12"/>
-      <c r="AH34" s="8"/>
+      <c r="AG34" s="52"/>
+      <c r="AH34" s="62"/>
       <c r="AI34" s="14"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A35" s="20" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D35" s="32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E35" s="47"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="28"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="14"/>
       <c r="L35" s="15"/>
       <c r="M35" s="8"/>
       <c r="N35" s="14"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="14"/>
-      <c r="X35" s="15"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="12"/>
       <c r="Y35" s="8"/>
       <c r="Z35" s="14"/>
       <c r="AA35" s="12"/>
       <c r="AB35" s="8"/>
       <c r="AC35" s="14"/>
-      <c r="AD35" s="55"/>
-      <c r="AE35" s="53"/>
-      <c r="AF35" s="54"/>
-      <c r="AG35" s="26"/>
-      <c r="AH35" s="27"/>
-      <c r="AI35" s="28"/>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="14"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="53"/>
+      <c r="AI35" s="54"/>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A36" s="20" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D36" s="32">
-        <v>6</v>
-      </c>
-      <c r="E36" s="69"/>
+        <v>4</v>
+      </c>
+      <c r="E36" s="63"/>
       <c r="F36" s="12"/>
       <c r="G36" s="8"/>
       <c r="H36" s="14"/>
       <c r="I36" s="15"/>
       <c r="J36" s="8"/>
       <c r="K36" s="14"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="14"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="61"/>
       <c r="O36" s="15"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="14"/>
@@ -2907,7 +2937,7 @@
       <c r="U36" s="15"/>
       <c r="V36" s="8"/>
       <c r="W36" s="14"/>
-      <c r="X36" s="15"/>
+      <c r="X36" s="12"/>
       <c r="Y36" s="8"/>
       <c r="Z36" s="14"/>
       <c r="AA36" s="12"/>
@@ -2915,24 +2945,16 @@
       <c r="AC36" s="14"/>
       <c r="AD36" s="15"/>
       <c r="AE36" s="8"/>
-      <c r="AF36" s="54"/>
-      <c r="AG36" s="52"/>
-      <c r="AH36" s="68"/>
+      <c r="AF36" s="14"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="8"/>
       <c r="AI36" s="14"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="32">
-        <v>4</v>
-      </c>
+    <row r="37" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="47"/>
       <c r="F37" s="12"/>
       <c r="G37" s="8"/>
@@ -2943,51 +2965,43 @@
       <c r="L37" s="15"/>
       <c r="M37" s="8"/>
       <c r="N37" s="14"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="28"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="14"/>
       <c r="X37" s="12"/>
       <c r="Y37" s="8"/>
       <c r="Z37" s="14"/>
       <c r="AA37" s="12"/>
       <c r="AB37" s="8"/>
       <c r="AC37" s="14"/>
-      <c r="AD37" s="15"/>
-      <c r="AE37" s="8"/>
-      <c r="AF37" s="14"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="27"/>
+      <c r="AF37" s="28"/>
       <c r="AG37" s="12"/>
-      <c r="AH37" s="53"/>
-      <c r="AI37" s="54"/>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="32">
-        <v>4</v>
-      </c>
-      <c r="E38" s="69"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="14"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A38" s="20"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="47"/>
       <c r="F38" s="12"/>
       <c r="G38" s="8"/>
       <c r="H38" s="14"/>
       <c r="I38" s="15"/>
       <c r="J38" s="8"/>
       <c r="K38" s="14"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="67"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="14"/>
       <c r="O38" s="15"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="14"/>
@@ -3000,9 +3014,9 @@
       <c r="X38" s="12"/>
       <c r="Y38" s="8"/>
       <c r="Z38" s="14"/>
-      <c r="AA38" s="12"/>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="14"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="36"/>
       <c r="AD38" s="15"/>
       <c r="AE38" s="8"/>
       <c r="AF38" s="14"/>
@@ -3010,18 +3024,20 @@
       <c r="AH38" s="8"/>
       <c r="AI38" s="14"/>
     </row>
-    <row r="39" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="14"/>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A39" s="33"/>
+      <c r="B39" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="36"/>
       <c r="L39" s="15"/>
       <c r="M39" s="8"/>
       <c r="N39" s="14"/>
@@ -3034,31 +3050,31 @@
       <c r="U39" s="15"/>
       <c r="V39" s="8"/>
       <c r="W39" s="14"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="14"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="36"/>
       <c r="AA39" s="12"/>
       <c r="AB39" s="8"/>
       <c r="AC39" s="14"/>
-      <c r="AD39" s="29"/>
-      <c r="AE39" s="27"/>
-      <c r="AF39" s="28"/>
-      <c r="AG39" s="12"/>
-      <c r="AH39" s="8"/>
-      <c r="AI39" s="14"/>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="21"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="14"/>
+      <c r="AG39" s="34"/>
+      <c r="AH39" s="35"/>
+      <c r="AI39" s="36"/>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A40" s="33"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="25"/>
       <c r="E40" s="47"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="14"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="28"/>
       <c r="L40" s="15"/>
       <c r="M40" s="8"/>
       <c r="N40" s="14"/>
@@ -3071,33 +3087,31 @@
       <c r="U40" s="15"/>
       <c r="V40" s="8"/>
       <c r="W40" s="14"/>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="14"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="35"/>
-      <c r="AC40" s="36"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="14"/>
       <c r="AD40" s="15"/>
       <c r="AE40" s="8"/>
       <c r="AF40" s="14"/>
-      <c r="AG40" s="12"/>
-      <c r="AH40" s="8"/>
-      <c r="AI40" s="14"/>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AG40" s="34"/>
+      <c r="AH40" s="35"/>
+      <c r="AI40" s="36"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A41" s="33"/>
-      <c r="B41" s="82" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="36"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="14"/>
       <c r="L41" s="15"/>
       <c r="M41" s="8"/>
       <c r="N41" s="14"/>
@@ -3110,31 +3124,31 @@
       <c r="U41" s="15"/>
       <c r="V41" s="8"/>
       <c r="W41" s="14"/>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="35"/>
-      <c r="Z41" s="36"/>
-      <c r="AA41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="15"/>
       <c r="AB41" s="8"/>
       <c r="AC41" s="14"/>
       <c r="AD41" s="15"/>
       <c r="AE41" s="8"/>
       <c r="AF41" s="14"/>
-      <c r="AG41" s="34"/>
-      <c r="AH41" s="35"/>
-      <c r="AI41" s="36"/>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A42" s="33"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="28"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="14"/>
+    </row>
+    <row r="42" spans="1:35" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="20"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="14"/>
       <c r="L42" s="15"/>
       <c r="M42" s="8"/>
       <c r="N42" s="14"/>
@@ -3147,25 +3161,25 @@
       <c r="U42" s="15"/>
       <c r="V42" s="8"/>
       <c r="W42" s="14"/>
-      <c r="X42" s="26"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="28"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="14"/>
       <c r="AA42" s="15"/>
       <c r="AB42" s="8"/>
       <c r="AC42" s="14"/>
       <c r="AD42" s="15"/>
       <c r="AE42" s="8"/>
       <c r="AF42" s="14"/>
-      <c r="AG42" s="34"/>
-      <c r="AH42" s="35"/>
-      <c r="AI42" s="36"/>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A43" s="33"/>
-      <c r="B43" s="48"/>
+      <c r="AG42" s="15"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="14"/>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="21"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="72"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="66"/>
       <c r="F43" s="12"/>
       <c r="G43" s="8"/>
       <c r="H43" s="14"/>
@@ -3193,25 +3207,25 @@
       <c r="AD43" s="15"/>
       <c r="AE43" s="8"/>
       <c r="AF43" s="14"/>
-      <c r="AG43" s="12"/>
+      <c r="AG43" s="15"/>
       <c r="AH43" s="8"/>
       <c r="AI43" s="14"/>
     </row>
-    <row r="44" spans="1:35" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A44" s="20"/>
-      <c r="B44" s="48"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="72"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="66"/>
       <c r="F44" s="12"/>
       <c r="G44" s="8"/>
       <c r="H44" s="14"/>
       <c r="I44" s="15"/>
       <c r="J44" s="8"/>
       <c r="K44" s="14"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="14"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="36"/>
       <c r="O44" s="15"/>
       <c r="P44" s="8"/>
       <c r="Q44" s="14"/>
@@ -3234,58 +3248,58 @@
       <c r="AH44" s="8"/>
       <c r="AI44" s="14"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21"/>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A45" s="23"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="22"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="14"/>
-      <c r="X45" s="12"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="14"/>
-      <c r="AA45" s="15"/>
-      <c r="AB45" s="8"/>
-      <c r="AC45" s="14"/>
-      <c r="AD45" s="15"/>
-      <c r="AE45" s="8"/>
-      <c r="AF45" s="14"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="29"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="26"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="27"/>
+      <c r="AC45" s="28"/>
+      <c r="AD45" s="29"/>
+      <c r="AE45" s="27"/>
+      <c r="AF45" s="28"/>
       <c r="AG45" s="15"/>
       <c r="AH45" s="8"/>
       <c r="AI45" s="14"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="21"/>
       <c r="D46" s="22"/>
-      <c r="E46" s="73"/>
+      <c r="E46" s="66"/>
       <c r="F46" s="12"/>
       <c r="G46" s="8"/>
       <c r="H46" s="14"/>
       <c r="I46" s="15"/>
       <c r="J46" s="8"/>
       <c r="K46" s="14"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="36"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="14"/>
       <c r="O46" s="15"/>
       <c r="P46" s="8"/>
       <c r="Q46" s="14"/>
@@ -3308,49 +3322,49 @@
       <c r="AH46" s="8"/>
       <c r="AI46" s="14"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A47" s="20"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="21"/>
       <c r="D47" s="22"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="27"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="26"/>
-      <c r="Y47" s="27"/>
-      <c r="Z47" s="28"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="27"/>
-      <c r="AC47" s="28"/>
-      <c r="AD47" s="29"/>
-      <c r="AE47" s="27"/>
-      <c r="AF47" s="28"/>
-      <c r="AG47" s="15"/>
-      <c r="AH47" s="8"/>
-      <c r="AI47" s="14"/>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="E47" s="66"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="15"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="14"/>
+      <c r="AA47" s="15"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="14"/>
+      <c r="AD47" s="15"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="14"/>
+      <c r="AG47" s="29"/>
+      <c r="AH47" s="27"/>
+      <c r="AI47" s="28"/>
+    </row>
+    <row r="48" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="20"/>
-      <c r="B48" s="31"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="21"/>
       <c r="D48" s="22"/>
-      <c r="E48" s="73"/>
+      <c r="E48" s="66"/>
       <c r="F48" s="12"/>
       <c r="G48" s="8"/>
       <c r="H48" s="14"/>
@@ -3382,12 +3396,12 @@
       <c r="AH48" s="8"/>
       <c r="AI48" s="14"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A49" s="20"/>
-      <c r="B49" s="31"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="21"/>
       <c r="D49" s="22"/>
-      <c r="E49" s="73"/>
+      <c r="E49" s="66"/>
       <c r="F49" s="12"/>
       <c r="G49" s="8"/>
       <c r="H49" s="14"/>
@@ -3415,16 +3429,16 @@
       <c r="AD49" s="15"/>
       <c r="AE49" s="8"/>
       <c r="AF49" s="14"/>
-      <c r="AG49" s="29"/>
-      <c r="AH49" s="27"/>
-      <c r="AI49" s="28"/>
-    </row>
-    <row r="50" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AG49" s="15"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="14"/>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="21"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="73"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="65"/>
       <c r="F50" s="12"/>
       <c r="G50" s="8"/>
       <c r="H50" s="14"/>
@@ -3456,49 +3470,49 @@
       <c r="AH50" s="8"/>
       <c r="AI50" s="14"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21"/>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="22"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="14"/>
-      <c r="U51" s="15"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="14"/>
-      <c r="X51" s="12"/>
-      <c r="Y51" s="8"/>
-      <c r="Z51" s="14"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="27"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="29"/>
+      <c r="V51" s="27"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="26"/>
+      <c r="Y51" s="27"/>
+      <c r="Z51" s="28"/>
       <c r="AA51" s="15"/>
       <c r="AB51" s="8"/>
       <c r="AC51" s="14"/>
-      <c r="AD51" s="15"/>
-      <c r="AE51" s="8"/>
-      <c r="AF51" s="14"/>
+      <c r="AD51" s="29"/>
+      <c r="AE51" s="27"/>
+      <c r="AF51" s="28"/>
       <c r="AG51" s="15"/>
       <c r="AH51" s="8"/>
       <c r="AI51" s="14"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A52" s="20"/>
-      <c r="B52" s="23"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="21"/>
       <c r="D52" s="30"/>
-      <c r="E52" s="72"/>
+      <c r="E52" s="65"/>
       <c r="F52" s="12"/>
       <c r="G52" s="8"/>
       <c r="H52" s="14"/>
@@ -3520,7 +3534,7 @@
       <c r="X52" s="12"/>
       <c r="Y52" s="8"/>
       <c r="Z52" s="14"/>
-      <c r="AA52" s="15"/>
+      <c r="AA52" s="12"/>
       <c r="AB52" s="8"/>
       <c r="AC52" s="14"/>
       <c r="AD52" s="15"/>
@@ -3530,49 +3544,49 @@
       <c r="AH52" s="8"/>
       <c r="AI52" s="14"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A53" s="23"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="25"/>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A53" s="20"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="22"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="29"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="28"/>
-      <c r="U53" s="29"/>
-      <c r="V53" s="27"/>
-      <c r="W53" s="28"/>
-      <c r="X53" s="26"/>
-      <c r="Y53" s="27"/>
-      <c r="Z53" s="28"/>
-      <c r="AA53" s="15"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="14"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="14"/>
+      <c r="AA53" s="12"/>
       <c r="AB53" s="8"/>
       <c r="AC53" s="14"/>
-      <c r="AD53" s="29"/>
-      <c r="AE53" s="27"/>
-      <c r="AF53" s="28"/>
+      <c r="AD53" s="15"/>
+      <c r="AE53" s="8"/>
+      <c r="AF53" s="14"/>
       <c r="AG53" s="15"/>
       <c r="AH53" s="8"/>
       <c r="AI53" s="14"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A54" s="20"/>
       <c r="B54" s="31"/>
       <c r="C54" s="21"/>
       <c r="D54" s="30"/>
-      <c r="E54" s="72"/>
+      <c r="E54" s="65"/>
       <c r="F54" s="12"/>
       <c r="G54" s="8"/>
       <c r="H54" s="14"/>
@@ -3600,16 +3614,16 @@
       <c r="AD54" s="15"/>
       <c r="AE54" s="8"/>
       <c r="AF54" s="14"/>
-      <c r="AG54" s="15"/>
+      <c r="AG54" s="12"/>
       <c r="AH54" s="8"/>
       <c r="AI54" s="14"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A55" s="20"/>
       <c r="B55" s="31"/>
       <c r="C55" s="21"/>
       <c r="D55" s="22"/>
-      <c r="E55" s="73"/>
+      <c r="E55" s="66"/>
       <c r="F55" s="12"/>
       <c r="G55" s="8"/>
       <c r="H55" s="14"/>
@@ -3637,16 +3651,16 @@
       <c r="AD55" s="15"/>
       <c r="AE55" s="8"/>
       <c r="AF55" s="14"/>
-      <c r="AG55" s="15"/>
+      <c r="AG55" s="12"/>
       <c r="AH55" s="8"/>
       <c r="AI55" s="14"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A56" s="20"/>
       <c r="B56" s="31"/>
       <c r="C56" s="21"/>
       <c r="D56" s="30"/>
-      <c r="E56" s="72"/>
+      <c r="E56" s="65"/>
       <c r="F56" s="12"/>
       <c r="G56" s="8"/>
       <c r="H56" s="14"/>
@@ -3678,12 +3692,12 @@
       <c r="AH56" s="8"/>
       <c r="AI56" s="14"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="20"/>
       <c r="B57" s="31"/>
       <c r="C57" s="21"/>
       <c r="D57" s="22"/>
-      <c r="E57" s="73"/>
+      <c r="E57" s="66"/>
       <c r="F57" s="12"/>
       <c r="G57" s="8"/>
       <c r="H57" s="14"/>
@@ -3715,12 +3729,12 @@
       <c r="AH57" s="8"/>
       <c r="AI57" s="14"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A58" s="20"/>
-      <c r="B58" s="31"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="21"/>
       <c r="D58" s="30"/>
-      <c r="E58" s="72"/>
+      <c r="E58" s="65"/>
       <c r="F58" s="12"/>
       <c r="G58" s="8"/>
       <c r="H58" s="14"/>
@@ -3752,12 +3766,12 @@
       <c r="AH58" s="8"/>
       <c r="AI58" s="14"/>
     </row>
-    <row r="59" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A59" s="20"/>
-      <c r="B59" s="31"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="21"/>
       <c r="D59" s="22"/>
-      <c r="E59" s="73"/>
+      <c r="E59" s="66"/>
       <c r="F59" s="12"/>
       <c r="G59" s="8"/>
       <c r="H59" s="14"/>
@@ -3789,49 +3803,49 @@
       <c r="AH59" s="8"/>
       <c r="AI59" s="14"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="14"/>
-      <c r="R60" s="15"/>
-      <c r="S60" s="8"/>
-      <c r="T60" s="14"/>
-      <c r="U60" s="15"/>
-      <c r="V60" s="8"/>
-      <c r="W60" s="14"/>
-      <c r="X60" s="12"/>
-      <c r="Y60" s="8"/>
-      <c r="Z60" s="14"/>
-      <c r="AA60" s="12"/>
-      <c r="AB60" s="8"/>
-      <c r="AC60" s="14"/>
-      <c r="AD60" s="15"/>
-      <c r="AE60" s="8"/>
-      <c r="AF60" s="14"/>
-      <c r="AG60" s="12"/>
-      <c r="AH60" s="8"/>
-      <c r="AI60" s="14"/>
-    </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A60" s="23"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="27"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="29"/>
+      <c r="V60" s="27"/>
+      <c r="W60" s="28"/>
+      <c r="X60" s="26"/>
+      <c r="Y60" s="27"/>
+      <c r="Z60" s="28"/>
+      <c r="AA60" s="26"/>
+      <c r="AB60" s="27"/>
+      <c r="AC60" s="28"/>
+      <c r="AD60" s="29"/>
+      <c r="AE60" s="27"/>
+      <c r="AF60" s="28"/>
+      <c r="AG60" s="26"/>
+      <c r="AH60" s="27"/>
+      <c r="AI60" s="28"/>
+    </row>
+    <row r="61" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="21"/>
       <c r="D61" s="22"/>
-      <c r="E61" s="73"/>
+      <c r="E61" s="66"/>
       <c r="F61" s="12"/>
       <c r="G61" s="8"/>
       <c r="H61" s="14"/>
@@ -3863,49 +3877,49 @@
       <c r="AH61" s="8"/>
       <c r="AI61" s="14"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A62" s="23"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="29"/>
-      <c r="P62" s="27"/>
-      <c r="Q62" s="28"/>
-      <c r="R62" s="29"/>
-      <c r="S62" s="27"/>
-      <c r="T62" s="28"/>
-      <c r="U62" s="29"/>
-      <c r="V62" s="27"/>
-      <c r="W62" s="28"/>
-      <c r="X62" s="26"/>
-      <c r="Y62" s="27"/>
-      <c r="Z62" s="28"/>
-      <c r="AA62" s="26"/>
-      <c r="AB62" s="27"/>
-      <c r="AC62" s="28"/>
-      <c r="AD62" s="29"/>
-      <c r="AE62" s="27"/>
-      <c r="AF62" s="28"/>
-      <c r="AG62" s="26"/>
-      <c r="AH62" s="27"/>
-      <c r="AI62" s="28"/>
-    </row>
-    <row r="63" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A62" s="20"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="14"/>
+      <c r="U62" s="15"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="14"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="14"/>
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="8"/>
+      <c r="AC62" s="14"/>
+      <c r="AD62" s="15"/>
+      <c r="AE62" s="8"/>
+      <c r="AF62" s="14"/>
+      <c r="AG62" s="12"/>
+      <c r="AH62" s="8"/>
+      <c r="AI62" s="14"/>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A63" s="20"/>
-      <c r="B63" s="31"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="21"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="73"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="65"/>
       <c r="F63" s="12"/>
       <c r="G63" s="8"/>
       <c r="H63" s="14"/>
@@ -3937,49 +3951,49 @@
       <c r="AH63" s="8"/>
       <c r="AI63" s="14"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A64" s="20"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="14"/>
-      <c r="R64" s="15"/>
-      <c r="S64" s="8"/>
-      <c r="T64" s="14"/>
-      <c r="U64" s="15"/>
-      <c r="V64" s="8"/>
-      <c r="W64" s="14"/>
-      <c r="X64" s="12"/>
-      <c r="Y64" s="8"/>
-      <c r="Z64" s="14"/>
-      <c r="AA64" s="12"/>
-      <c r="AB64" s="8"/>
-      <c r="AC64" s="14"/>
-      <c r="AD64" s="15"/>
-      <c r="AE64" s="8"/>
-      <c r="AF64" s="14"/>
-      <c r="AG64" s="12"/>
-      <c r="AH64" s="8"/>
-      <c r="AI64" s="14"/>
-    </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A64" s="23"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="27"/>
+      <c r="Q64" s="28"/>
+      <c r="R64" s="29"/>
+      <c r="S64" s="27"/>
+      <c r="T64" s="28"/>
+      <c r="U64" s="29"/>
+      <c r="V64" s="27"/>
+      <c r="W64" s="28"/>
+      <c r="X64" s="26"/>
+      <c r="Y64" s="27"/>
+      <c r="Z64" s="28"/>
+      <c r="AA64" s="26"/>
+      <c r="AB64" s="27"/>
+      <c r="AC64" s="28"/>
+      <c r="AD64" s="29"/>
+      <c r="AE64" s="27"/>
+      <c r="AF64" s="28"/>
+      <c r="AG64" s="26"/>
+      <c r="AH64" s="27"/>
+      <c r="AI64" s="28"/>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="21"/>
       <c r="D65" s="30"/>
-      <c r="E65" s="72"/>
+      <c r="E65" s="65"/>
       <c r="F65" s="12"/>
       <c r="G65" s="8"/>
       <c r="H65" s="14"/>
@@ -4011,49 +4025,49 @@
       <c r="AH65" s="8"/>
       <c r="AI65" s="14"/>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A66" s="23"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="25"/>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A66" s="20"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="21"/>
       <c r="D66" s="22"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="27"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="29"/>
-      <c r="P66" s="27"/>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="29"/>
-      <c r="S66" s="27"/>
-      <c r="T66" s="28"/>
-      <c r="U66" s="29"/>
-      <c r="V66" s="27"/>
-      <c r="W66" s="28"/>
-      <c r="X66" s="26"/>
-      <c r="Y66" s="27"/>
-      <c r="Z66" s="28"/>
-      <c r="AA66" s="26"/>
-      <c r="AB66" s="27"/>
-      <c r="AC66" s="28"/>
-      <c r="AD66" s="29"/>
-      <c r="AE66" s="27"/>
-      <c r="AF66" s="28"/>
-      <c r="AG66" s="26"/>
-      <c r="AH66" s="27"/>
-      <c r="AI66" s="28"/>
-    </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="E66" s="66"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="14"/>
+      <c r="U66" s="15"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="14"/>
+      <c r="X66" s="12"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="14"/>
+      <c r="AA66" s="12"/>
+      <c r="AB66" s="8"/>
+      <c r="AC66" s="14"/>
+      <c r="AD66" s="15"/>
+      <c r="AE66" s="8"/>
+      <c r="AF66" s="14"/>
+      <c r="AG66" s="12"/>
+      <c r="AH66" s="8"/>
+      <c r="AI66" s="14"/>
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A67" s="20"/>
       <c r="B67" s="31"/>
       <c r="C67" s="21"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="72"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="66"/>
       <c r="F67" s="12"/>
       <c r="G67" s="8"/>
       <c r="H67" s="14"/>
@@ -4085,12 +4099,12 @@
       <c r="AH67" s="8"/>
       <c r="AI67" s="14"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="20"/>
       <c r="B68" s="31"/>
       <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="73"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="65"/>
       <c r="F68" s="12"/>
       <c r="G68" s="8"/>
       <c r="H68" s="14"/>
@@ -4122,12 +4136,12 @@
       <c r="AH68" s="8"/>
       <c r="AI68" s="14"/>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A69" s="20"/>
       <c r="B69" s="31"/>
       <c r="C69" s="21"/>
       <c r="D69" s="22"/>
-      <c r="E69" s="73"/>
+      <c r="E69" s="66"/>
       <c r="F69" s="12"/>
       <c r="G69" s="8"/>
       <c r="H69" s="14"/>
@@ -4159,12 +4173,12 @@
       <c r="AH69" s="8"/>
       <c r="AI69" s="14"/>
     </row>
-    <row r="70" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A70" s="20"/>
-      <c r="B70" s="31"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="21"/>
       <c r="D70" s="30"/>
-      <c r="E70" s="72"/>
+      <c r="E70" s="65"/>
       <c r="F70" s="12"/>
       <c r="G70" s="8"/>
       <c r="H70" s="14"/>
@@ -4196,49 +4210,49 @@
       <c r="AH70" s="8"/>
       <c r="AI70" s="14"/>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A71" s="20"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="21"/>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A71" s="23"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="22"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="14"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="14"/>
-      <c r="R71" s="15"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="14"/>
-      <c r="U71" s="15"/>
-      <c r="V71" s="8"/>
-      <c r="W71" s="14"/>
-      <c r="X71" s="12"/>
-      <c r="Y71" s="8"/>
-      <c r="Z71" s="14"/>
-      <c r="AA71" s="12"/>
-      <c r="AB71" s="8"/>
-      <c r="AC71" s="14"/>
-      <c r="AD71" s="15"/>
-      <c r="AE71" s="8"/>
-      <c r="AF71" s="14"/>
-      <c r="AG71" s="12"/>
-      <c r="AH71" s="8"/>
-      <c r="AI71" s="14"/>
-    </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="E71" s="66"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="27"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="29"/>
+      <c r="P71" s="27"/>
+      <c r="Q71" s="28"/>
+      <c r="R71" s="29"/>
+      <c r="S71" s="27"/>
+      <c r="T71" s="28"/>
+      <c r="U71" s="29"/>
+      <c r="V71" s="27"/>
+      <c r="W71" s="28"/>
+      <c r="X71" s="26"/>
+      <c r="Y71" s="27"/>
+      <c r="Z71" s="28"/>
+      <c r="AA71" s="26"/>
+      <c r="AB71" s="27"/>
+      <c r="AC71" s="28"/>
+      <c r="AD71" s="29"/>
+      <c r="AE71" s="27"/>
+      <c r="AF71" s="28"/>
+      <c r="AG71" s="26"/>
+      <c r="AH71" s="27"/>
+      <c r="AI71" s="28"/>
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A72" s="20"/>
-      <c r="B72" s="20"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="21"/>
       <c r="D72" s="30"/>
-      <c r="E72" s="72"/>
+      <c r="E72" s="65"/>
       <c r="F72" s="12"/>
       <c r="G72" s="8"/>
       <c r="H72" s="14"/>
@@ -4270,49 +4284,49 @@
       <c r="AH72" s="8"/>
       <c r="AI72" s="14"/>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A73" s="23"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
+    <row r="73" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="20"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="21"/>
       <c r="D73" s="22"/>
-      <c r="E73" s="73"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="27"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="29"/>
-      <c r="P73" s="27"/>
-      <c r="Q73" s="28"/>
-      <c r="R73" s="29"/>
-      <c r="S73" s="27"/>
-      <c r="T73" s="28"/>
-      <c r="U73" s="29"/>
-      <c r="V73" s="27"/>
-      <c r="W73" s="28"/>
-      <c r="X73" s="26"/>
-      <c r="Y73" s="27"/>
-      <c r="Z73" s="28"/>
-      <c r="AA73" s="26"/>
-      <c r="AB73" s="27"/>
-      <c r="AC73" s="28"/>
-      <c r="AD73" s="29"/>
-      <c r="AE73" s="27"/>
-      <c r="AF73" s="28"/>
-      <c r="AG73" s="26"/>
-      <c r="AH73" s="27"/>
-      <c r="AI73" s="28"/>
-    </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="E73" s="66"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="14"/>
+      <c r="R73" s="15"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="14"/>
+      <c r="U73" s="15"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="14"/>
+      <c r="X73" s="12"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="14"/>
+      <c r="AA73" s="12"/>
+      <c r="AB73" s="8"/>
+      <c r="AC73" s="14"/>
+      <c r="AD73" s="15"/>
+      <c r="AE73" s="8"/>
+      <c r="AF73" s="14"/>
+      <c r="AG73" s="12"/>
+      <c r="AH73" s="8"/>
+      <c r="AI73" s="14"/>
+    </row>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A74" s="20"/>
       <c r="B74" s="31"/>
       <c r="C74" s="21"/>
       <c r="D74" s="30"/>
-      <c r="E74" s="72"/>
+      <c r="E74" s="65"/>
       <c r="F74" s="12"/>
       <c r="G74" s="8"/>
       <c r="H74" s="14"/>
@@ -4344,12 +4358,12 @@
       <c r="AH74" s="8"/>
       <c r="AI74" s="14"/>
     </row>
-    <row r="75" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A75" s="20"/>
-      <c r="B75" s="31"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="21"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="73"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="65"/>
       <c r="F75" s="12"/>
       <c r="G75" s="8"/>
       <c r="H75" s="14"/>
@@ -4381,49 +4395,49 @@
       <c r="AH75" s="8"/>
       <c r="AI75" s="14"/>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A76" s="20"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="14"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="14"/>
-      <c r="R76" s="15"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="14"/>
-      <c r="U76" s="15"/>
-      <c r="V76" s="8"/>
-      <c r="W76" s="14"/>
-      <c r="X76" s="12"/>
-      <c r="Y76" s="8"/>
-      <c r="Z76" s="14"/>
-      <c r="AA76" s="12"/>
-      <c r="AB76" s="8"/>
-      <c r="AC76" s="14"/>
-      <c r="AD76" s="15"/>
-      <c r="AE76" s="8"/>
-      <c r="AF76" s="14"/>
-      <c r="AG76" s="12"/>
-      <c r="AH76" s="8"/>
-      <c r="AI76" s="14"/>
-    </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A76" s="23"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="27"/>
+      <c r="N76" s="28"/>
+      <c r="O76" s="29"/>
+      <c r="P76" s="27"/>
+      <c r="Q76" s="28"/>
+      <c r="R76" s="29"/>
+      <c r="S76" s="27"/>
+      <c r="T76" s="28"/>
+      <c r="U76" s="29"/>
+      <c r="V76" s="27"/>
+      <c r="W76" s="28"/>
+      <c r="X76" s="26"/>
+      <c r="Y76" s="27"/>
+      <c r="Z76" s="28"/>
+      <c r="AA76" s="26"/>
+      <c r="AB76" s="27"/>
+      <c r="AC76" s="28"/>
+      <c r="AD76" s="29"/>
+      <c r="AE76" s="27"/>
+      <c r="AF76" s="28"/>
+      <c r="AG76" s="26"/>
+      <c r="AH76" s="27"/>
+      <c r="AI76" s="28"/>
+    </row>
+    <row r="77" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A77" s="20"/>
-      <c r="B77" s="20"/>
+      <c r="B77" s="31"/>
       <c r="C77" s="21"/>
       <c r="D77" s="30"/>
-      <c r="E77" s="72"/>
+      <c r="E77" s="65"/>
       <c r="F77" s="12"/>
       <c r="G77" s="8"/>
       <c r="H77" s="14"/>
@@ -4455,49 +4469,49 @@
       <c r="AH77" s="8"/>
       <c r="AI77" s="14"/>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A78" s="23"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="25"/>
+    <row r="78" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A78" s="20"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="21"/>
       <c r="D78" s="22"/>
-      <c r="E78" s="73"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="28"/>
-      <c r="L78" s="26"/>
-      <c r="M78" s="27"/>
-      <c r="N78" s="28"/>
-      <c r="O78" s="29"/>
-      <c r="P78" s="27"/>
-      <c r="Q78" s="28"/>
-      <c r="R78" s="29"/>
-      <c r="S78" s="27"/>
-      <c r="T78" s="28"/>
-      <c r="U78" s="29"/>
-      <c r="V78" s="27"/>
-      <c r="W78" s="28"/>
-      <c r="X78" s="26"/>
-      <c r="Y78" s="27"/>
-      <c r="Z78" s="28"/>
-      <c r="AA78" s="26"/>
-      <c r="AB78" s="27"/>
-      <c r="AC78" s="28"/>
-      <c r="AD78" s="29"/>
-      <c r="AE78" s="27"/>
-      <c r="AF78" s="28"/>
-      <c r="AG78" s="26"/>
-      <c r="AH78" s="27"/>
-      <c r="AI78" s="28"/>
-    </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="E78" s="66"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="14"/>
+      <c r="R78" s="15"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="14"/>
+      <c r="U78" s="15"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="14"/>
+      <c r="X78" s="12"/>
+      <c r="Y78" s="8"/>
+      <c r="Z78" s="14"/>
+      <c r="AA78" s="12"/>
+      <c r="AB78" s="8"/>
+      <c r="AC78" s="14"/>
+      <c r="AD78" s="15"/>
+      <c r="AE78" s="8"/>
+      <c r="AF78" s="14"/>
+      <c r="AG78" s="12"/>
+      <c r="AH78" s="8"/>
+      <c r="AI78" s="14"/>
+    </row>
+    <row r="79" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A79" s="20"/>
       <c r="B79" s="31"/>
       <c r="C79" s="21"/>
       <c r="D79" s="30"/>
-      <c r="E79" s="72"/>
+      <c r="E79" s="65"/>
       <c r="F79" s="12"/>
       <c r="G79" s="8"/>
       <c r="H79" s="14"/>
@@ -4529,85 +4543,55 @@
       <c r="AH79" s="8"/>
       <c r="AI79" s="14"/>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A80" s="20"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="14"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="8"/>
-      <c r="Q80" s="14"/>
-      <c r="R80" s="15"/>
-      <c r="S80" s="8"/>
-      <c r="T80" s="14"/>
-      <c r="U80" s="15"/>
-      <c r="V80" s="8"/>
-      <c r="W80" s="14"/>
-      <c r="X80" s="12"/>
-      <c r="Y80" s="8"/>
-      <c r="Z80" s="14"/>
-      <c r="AA80" s="12"/>
-      <c r="AB80" s="8"/>
-      <c r="AC80" s="14"/>
-      <c r="AD80" s="15"/>
-      <c r="AE80" s="8"/>
-      <c r="AF80" s="14"/>
-      <c r="AG80" s="12"/>
-      <c r="AH80" s="8"/>
-      <c r="AI80" s="14"/>
-    </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A81" s="20"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="72"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="14"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="8"/>
-      <c r="Q81" s="14"/>
-      <c r="R81" s="15"/>
-      <c r="S81" s="8"/>
-      <c r="T81" s="14"/>
-      <c r="U81" s="15"/>
-      <c r="V81" s="8"/>
-      <c r="W81" s="14"/>
-      <c r="X81" s="12"/>
-      <c r="Y81" s="8"/>
-      <c r="Z81" s="14"/>
-      <c r="AA81" s="12"/>
-      <c r="AB81" s="8"/>
-      <c r="AC81" s="14"/>
-      <c r="AD81" s="15"/>
-      <c r="AE81" s="8"/>
-      <c r="AF81" s="14"/>
-      <c r="AG81" s="12"/>
-      <c r="AH81" s="8"/>
-      <c r="AI81" s="14"/>
-    </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="D80" s="18">
+        <v>1</v>
+      </c>
+      <c r="E80" s="67"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="13"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="7"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="13"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="13"/>
+      <c r="T80" s="10"/>
+      <c r="U80" s="13"/>
+      <c r="W80" s="10"/>
+      <c r="X80" s="7"/>
+      <c r="Z80" s="10"/>
+      <c r="AA80" s="7"/>
+      <c r="AC80" s="10"/>
+      <c r="AD80" s="13"/>
+    </row>
+    <row r="81" spans="4:30" x14ac:dyDescent="0.35">
+      <c r="D81" s="19">
+        <v>1</v>
+      </c>
+      <c r="E81" s="68"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="13"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="7"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="13"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="13"/>
+      <c r="T81" s="10"/>
+      <c r="U81" s="13"/>
+      <c r="W81" s="10"/>
+      <c r="X81" s="7"/>
+      <c r="Z81" s="10"/>
+      <c r="AA81" s="7"/>
+      <c r="AC81" s="10"/>
+      <c r="AD81" s="13"/>
+    </row>
+    <row r="82" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D82" s="18">
         <v>1</v>
       </c>
-      <c r="E82" s="74"/>
+      <c r="E82" s="67"/>
       <c r="H82" s="10"/>
       <c r="I82" s="13"/>
       <c r="K82" s="10"/>
@@ -4625,11 +4609,11 @@
       <c r="AC82" s="10"/>
       <c r="AD82" s="13"/>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D83" s="19">
         <v>1</v>
       </c>
-      <c r="E83" s="75"/>
+      <c r="E83" s="68"/>
       <c r="H83" s="10"/>
       <c r="I83" s="13"/>
       <c r="K83" s="10"/>
@@ -4647,11 +4631,11 @@
       <c r="AC83" s="10"/>
       <c r="AD83" s="13"/>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D84" s="18">
         <v>1</v>
       </c>
-      <c r="E84" s="74"/>
+      <c r="E84" s="67"/>
       <c r="H84" s="10"/>
       <c r="I84" s="13"/>
       <c r="K84" s="10"/>
@@ -4669,11 +4653,11 @@
       <c r="AC84" s="10"/>
       <c r="AD84" s="13"/>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D85" s="19">
         <v>1</v>
       </c>
-      <c r="E85" s="75"/>
+      <c r="E85" s="68"/>
       <c r="H85" s="10"/>
       <c r="I85" s="13"/>
       <c r="K85" s="10"/>
@@ -4691,11 +4675,11 @@
       <c r="AC85" s="10"/>
       <c r="AD85" s="13"/>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D86" s="18">
         <v>1</v>
       </c>
-      <c r="E86" s="74"/>
+      <c r="E86" s="67"/>
       <c r="H86" s="10"/>
       <c r="I86" s="13"/>
       <c r="K86" s="10"/>
@@ -4713,11 +4697,11 @@
       <c r="AC86" s="10"/>
       <c r="AD86" s="13"/>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D87" s="19">
         <v>1</v>
       </c>
-      <c r="E87" s="75"/>
+      <c r="E87" s="68"/>
       <c r="H87" s="10"/>
       <c r="I87" s="13"/>
       <c r="K87" s="10"/>
@@ -4735,11 +4719,11 @@
       <c r="AC87" s="10"/>
       <c r="AD87" s="13"/>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D88" s="18">
         <v>1</v>
       </c>
-      <c r="E88" s="74"/>
+      <c r="E88" s="67"/>
       <c r="H88" s="10"/>
       <c r="I88" s="13"/>
       <c r="K88" s="10"/>
@@ -4757,11 +4741,11 @@
       <c r="AC88" s="10"/>
       <c r="AD88" s="13"/>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D89" s="19">
         <v>1</v>
       </c>
-      <c r="E89" s="75"/>
+      <c r="E89" s="68"/>
       <c r="H89" s="10"/>
       <c r="I89" s="13"/>
       <c r="K89" s="10"/>
@@ -4779,11 +4763,11 @@
       <c r="AC89" s="10"/>
       <c r="AD89" s="13"/>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D90" s="18">
         <v>1</v>
       </c>
-      <c r="E90" s="74"/>
+      <c r="E90" s="67"/>
       <c r="H90" s="10"/>
       <c r="I90" s="13"/>
       <c r="K90" s="10"/>
@@ -4801,11 +4785,11 @@
       <c r="AC90" s="10"/>
       <c r="AD90" s="13"/>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D91" s="19">
         <v>1</v>
       </c>
-      <c r="E91" s="75"/>
+      <c r="E91" s="68"/>
       <c r="H91" s="10"/>
       <c r="I91" s="13"/>
       <c r="K91" s="10"/>
@@ -4823,11 +4807,11 @@
       <c r="AC91" s="10"/>
       <c r="AD91" s="13"/>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D92" s="18">
         <v>1</v>
       </c>
-      <c r="E92" s="74"/>
+      <c r="E92" s="67"/>
       <c r="H92" s="10"/>
       <c r="I92" s="13"/>
       <c r="K92" s="10"/>
@@ -4845,11 +4829,11 @@
       <c r="AC92" s="10"/>
       <c r="AD92" s="13"/>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D93" s="19">
         <v>1</v>
       </c>
-      <c r="E93" s="75"/>
+      <c r="E93" s="68"/>
       <c r="H93" s="10"/>
       <c r="I93" s="13"/>
       <c r="K93" s="10"/>
@@ -4867,11 +4851,11 @@
       <c r="AC93" s="10"/>
       <c r="AD93" s="13"/>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D94" s="18">
         <v>1</v>
       </c>
-      <c r="E94" s="74"/>
+      <c r="E94" s="67"/>
       <c r="H94" s="10"/>
       <c r="I94" s="13"/>
       <c r="K94" s="10"/>
@@ -4889,11 +4873,11 @@
       <c r="AC94" s="10"/>
       <c r="AD94" s="13"/>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D95" s="19">
         <v>1</v>
       </c>
-      <c r="E95" s="75"/>
+      <c r="E95" s="68"/>
       <c r="H95" s="10"/>
       <c r="I95" s="13"/>
       <c r="K95" s="10"/>
@@ -4911,11 +4895,11 @@
       <c r="AC95" s="10"/>
       <c r="AD95" s="13"/>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D96" s="18">
         <v>1</v>
       </c>
-      <c r="E96" s="74"/>
+      <c r="E96" s="67"/>
       <c r="H96" s="10"/>
       <c r="I96" s="13"/>
       <c r="K96" s="10"/>
@@ -4931,13 +4915,13 @@
       <c r="Z96" s="10"/>
       <c r="AA96" s="7"/>
       <c r="AC96" s="10"/>
-      <c r="AD96" s="13"/>
-    </row>
-    <row r="97" spans="4:30" x14ac:dyDescent="0.2">
+      <c r="AD96" s="7"/>
+    </row>
+    <row r="97" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D97" s="19">
         <v>1</v>
       </c>
-      <c r="E97" s="75"/>
+      <c r="E97" s="68"/>
       <c r="H97" s="10"/>
       <c r="I97" s="13"/>
       <c r="K97" s="10"/>
@@ -4953,13 +4937,13 @@
       <c r="Z97" s="10"/>
       <c r="AA97" s="7"/>
       <c r="AC97" s="10"/>
-      <c r="AD97" s="13"/>
-    </row>
-    <row r="98" spans="4:30" x14ac:dyDescent="0.2">
+      <c r="AD97" s="7"/>
+    </row>
+    <row r="98" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D98" s="18">
         <v>1</v>
       </c>
-      <c r="E98" s="74"/>
+      <c r="E98" s="67"/>
       <c r="H98" s="10"/>
       <c r="I98" s="13"/>
       <c r="K98" s="10"/>
@@ -4977,11 +4961,11 @@
       <c r="AC98" s="10"/>
       <c r="AD98" s="7"/>
     </row>
-    <row r="99" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D99" s="19">
         <v>1</v>
       </c>
-      <c r="E99" s="75"/>
+      <c r="E99" s="68"/>
       <c r="H99" s="10"/>
       <c r="I99" s="13"/>
       <c r="K99" s="10"/>
@@ -4999,11 +4983,11 @@
       <c r="AC99" s="10"/>
       <c r="AD99" s="7"/>
     </row>
-    <row r="100" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D100" s="18">
         <v>1</v>
       </c>
-      <c r="E100" s="74"/>
+      <c r="E100" s="67"/>
       <c r="H100" s="10"/>
       <c r="I100" s="13"/>
       <c r="K100" s="10"/>
@@ -5021,11 +5005,11 @@
       <c r="AC100" s="10"/>
       <c r="AD100" s="7"/>
     </row>
-    <row r="101" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D101" s="19">
         <v>1</v>
       </c>
-      <c r="E101" s="75"/>
+      <c r="E101" s="68"/>
       <c r="H101" s="10"/>
       <c r="I101" s="13"/>
       <c r="K101" s="10"/>
@@ -5043,11 +5027,11 @@
       <c r="AC101" s="10"/>
       <c r="AD101" s="7"/>
     </row>
-    <row r="102" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D102" s="18">
         <v>1</v>
       </c>
-      <c r="E102" s="74"/>
+      <c r="E102" s="67"/>
       <c r="H102" s="10"/>
       <c r="I102" s="13"/>
       <c r="K102" s="10"/>
@@ -5065,11 +5049,11 @@
       <c r="AC102" s="10"/>
       <c r="AD102" s="7"/>
     </row>
-    <row r="103" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D103" s="19">
         <v>1</v>
       </c>
-      <c r="E103" s="75"/>
+      <c r="E103" s="68"/>
       <c r="H103" s="10"/>
       <c r="I103" s="13"/>
       <c r="K103" s="10"/>
@@ -5087,11 +5071,11 @@
       <c r="AC103" s="10"/>
       <c r="AD103" s="7"/>
     </row>
-    <row r="104" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D104" s="18">
         <v>1</v>
       </c>
-      <c r="E104" s="74"/>
+      <c r="E104" s="67"/>
       <c r="H104" s="10"/>
       <c r="I104" s="13"/>
       <c r="K104" s="10"/>
@@ -5109,11 +5093,11 @@
       <c r="AC104" s="10"/>
       <c r="AD104" s="7"/>
     </row>
-    <row r="105" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D105" s="19">
         <v>1</v>
       </c>
-      <c r="E105" s="75"/>
+      <c r="E105" s="68"/>
       <c r="H105" s="10"/>
       <c r="I105" s="13"/>
       <c r="K105" s="10"/>
@@ -5131,11 +5115,11 @@
       <c r="AC105" s="10"/>
       <c r="AD105" s="7"/>
     </row>
-    <row r="106" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D106" s="18">
         <v>1</v>
       </c>
-      <c r="E106" s="74"/>
+      <c r="E106" s="67"/>
       <c r="H106" s="10"/>
       <c r="I106" s="13"/>
       <c r="K106" s="10"/>
@@ -5153,11 +5137,11 @@
       <c r="AC106" s="10"/>
       <c r="AD106" s="7"/>
     </row>
-    <row r="107" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D107" s="19">
         <v>1</v>
       </c>
-      <c r="E107" s="75"/>
+      <c r="E107" s="68"/>
       <c r="H107" s="10"/>
       <c r="I107" s="13"/>
       <c r="K107" s="10"/>
@@ -5175,11 +5159,11 @@
       <c r="AC107" s="10"/>
       <c r="AD107" s="7"/>
     </row>
-    <row r="108" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D108" s="18">
         <v>1</v>
       </c>
-      <c r="E108" s="74"/>
+      <c r="E108" s="67"/>
       <c r="H108" s="10"/>
       <c r="I108" s="13"/>
       <c r="K108" s="10"/>
@@ -5197,11 +5181,11 @@
       <c r="AC108" s="10"/>
       <c r="AD108" s="7"/>
     </row>
-    <row r="109" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D109" s="19">
         <v>1</v>
       </c>
-      <c r="E109" s="75"/>
+      <c r="E109" s="68"/>
       <c r="H109" s="10"/>
       <c r="I109" s="13"/>
       <c r="K109" s="10"/>
@@ -5219,11 +5203,11 @@
       <c r="AC109" s="10"/>
       <c r="AD109" s="7"/>
     </row>
-    <row r="110" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D110" s="18">
         <v>1</v>
       </c>
-      <c r="E110" s="74"/>
+      <c r="E110" s="67"/>
       <c r="H110" s="10"/>
       <c r="I110" s="13"/>
       <c r="K110" s="10"/>
@@ -5241,11 +5225,11 @@
       <c r="AC110" s="10"/>
       <c r="AD110" s="7"/>
     </row>
-    <row r="111" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D111" s="19">
         <v>1</v>
       </c>
-      <c r="E111" s="75"/>
+      <c r="E111" s="68"/>
       <c r="H111" s="10"/>
       <c r="I111" s="13"/>
       <c r="K111" s="10"/>
@@ -5263,11 +5247,11 @@
       <c r="AC111" s="10"/>
       <c r="AD111" s="7"/>
     </row>
-    <row r="112" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D112" s="18">
         <v>1</v>
       </c>
-      <c r="E112" s="74"/>
+      <c r="E112" s="67"/>
       <c r="H112" s="10"/>
       <c r="I112" s="13"/>
       <c r="K112" s="10"/>
@@ -5277,19 +5261,17 @@
       <c r="Q112" s="10"/>
       <c r="R112" s="13"/>
       <c r="T112" s="10"/>
-      <c r="U112" s="13"/>
-      <c r="W112" s="10"/>
-      <c r="X112" s="7"/>
+      <c r="U112" s="7"/>
       <c r="Z112" s="10"/>
       <c r="AA112" s="7"/>
       <c r="AC112" s="10"/>
       <c r="AD112" s="7"/>
     </row>
-    <row r="113" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D113" s="19">
         <v>1</v>
       </c>
-      <c r="E113" s="75"/>
+      <c r="E113" s="68"/>
       <c r="H113" s="10"/>
       <c r="I113" s="13"/>
       <c r="K113" s="10"/>
@@ -5299,19 +5281,17 @@
       <c r="Q113" s="10"/>
       <c r="R113" s="13"/>
       <c r="T113" s="10"/>
-      <c r="U113" s="13"/>
-      <c r="W113" s="10"/>
-      <c r="X113" s="7"/>
+      <c r="U113" s="7"/>
       <c r="Z113" s="10"/>
       <c r="AA113" s="7"/>
       <c r="AC113" s="10"/>
       <c r="AD113" s="7"/>
     </row>
-    <row r="114" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D114" s="18">
         <v>1</v>
       </c>
-      <c r="E114" s="74"/>
+      <c r="E114" s="67"/>
       <c r="H114" s="10"/>
       <c r="I114" s="13"/>
       <c r="K114" s="10"/>
@@ -5327,11 +5307,11 @@
       <c r="AC114" s="10"/>
       <c r="AD114" s="7"/>
     </row>
-    <row r="115" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D115" s="19">
         <v>1</v>
       </c>
-      <c r="E115" s="75"/>
+      <c r="E115" s="68"/>
       <c r="H115" s="10"/>
       <c r="I115" s="13"/>
       <c r="K115" s="10"/>
@@ -5347,11 +5327,11 @@
       <c r="AC115" s="10"/>
       <c r="AD115" s="7"/>
     </row>
-    <row r="116" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D116" s="18">
         <v>1</v>
       </c>
-      <c r="E116" s="74"/>
+      <c r="E116" s="67"/>
       <c r="H116" s="10"/>
       <c r="I116" s="13"/>
       <c r="K116" s="10"/>
@@ -5367,11 +5347,11 @@
       <c r="AC116" s="10"/>
       <c r="AD116" s="7"/>
     </row>
-    <row r="117" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D117" s="19">
         <v>1</v>
       </c>
-      <c r="E117" s="75"/>
+      <c r="E117" s="68"/>
       <c r="H117" s="10"/>
       <c r="I117" s="13"/>
       <c r="K117" s="10"/>
@@ -5387,11 +5367,11 @@
       <c r="AC117" s="10"/>
       <c r="AD117" s="7"/>
     </row>
-    <row r="118" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D118" s="18">
         <v>1</v>
       </c>
-      <c r="E118" s="74"/>
+      <c r="E118" s="67"/>
       <c r="H118" s="10"/>
       <c r="I118" s="13"/>
       <c r="K118" s="10"/>
@@ -5407,11 +5387,11 @@
       <c r="AC118" s="10"/>
       <c r="AD118" s="7"/>
     </row>
-    <row r="119" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D119" s="19">
         <v>1</v>
       </c>
-      <c r="E119" s="75"/>
+      <c r="E119" s="68"/>
       <c r="H119" s="10"/>
       <c r="I119" s="13"/>
       <c r="K119" s="10"/>
@@ -5427,11 +5407,11 @@
       <c r="AC119" s="10"/>
       <c r="AD119" s="7"/>
     </row>
-    <row r="120" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D120" s="18">
         <v>1</v>
       </c>
-      <c r="E120" s="74"/>
+      <c r="E120" s="67"/>
       <c r="H120" s="10"/>
       <c r="I120" s="13"/>
       <c r="K120" s="10"/>
@@ -5447,11 +5427,11 @@
       <c r="AC120" s="10"/>
       <c r="AD120" s="7"/>
     </row>
-    <row r="121" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D121" s="19">
         <v>1</v>
       </c>
-      <c r="E121" s="75"/>
+      <c r="E121" s="68"/>
       <c r="H121" s="10"/>
       <c r="I121" s="13"/>
       <c r="K121" s="10"/>
@@ -5467,11 +5447,11 @@
       <c r="AC121" s="10"/>
       <c r="AD121" s="7"/>
     </row>
-    <row r="122" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D122" s="18">
         <v>1</v>
       </c>
-      <c r="E122" s="74"/>
+      <c r="E122" s="67"/>
       <c r="H122" s="10"/>
       <c r="I122" s="13"/>
       <c r="K122" s="10"/>
@@ -5487,11 +5467,11 @@
       <c r="AC122" s="10"/>
       <c r="AD122" s="7"/>
     </row>
-    <row r="123" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D123" s="19">
         <v>1</v>
       </c>
-      <c r="E123" s="75"/>
+      <c r="E123" s="68"/>
       <c r="H123" s="10"/>
       <c r="I123" s="13"/>
       <c r="K123" s="10"/>
@@ -5507,11 +5487,11 @@
       <c r="AC123" s="10"/>
       <c r="AD123" s="7"/>
     </row>
-    <row r="124" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D124" s="18">
         <v>1</v>
       </c>
-      <c r="E124" s="74"/>
+      <c r="E124" s="67"/>
       <c r="H124" s="10"/>
       <c r="I124" s="13"/>
       <c r="K124" s="10"/>
@@ -5527,11 +5507,11 @@
       <c r="AC124" s="10"/>
       <c r="AD124" s="7"/>
     </row>
-    <row r="125" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D125" s="19">
         <v>1</v>
       </c>
-      <c r="E125" s="75"/>
+      <c r="E125" s="68"/>
       <c r="H125" s="10"/>
       <c r="I125" s="13"/>
       <c r="K125" s="10"/>
@@ -5547,11 +5527,11 @@
       <c r="AC125" s="10"/>
       <c r="AD125" s="7"/>
     </row>
-    <row r="126" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D126" s="18">
         <v>1</v>
       </c>
-      <c r="E126" s="74"/>
+      <c r="E126" s="67"/>
       <c r="H126" s="10"/>
       <c r="I126" s="13"/>
       <c r="K126" s="10"/>
@@ -5567,11 +5547,11 @@
       <c r="AC126" s="10"/>
       <c r="AD126" s="7"/>
     </row>
-    <row r="127" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D127" s="19">
         <v>1</v>
       </c>
-      <c r="E127" s="75"/>
+      <c r="E127" s="68"/>
       <c r="H127" s="10"/>
       <c r="I127" s="13"/>
       <c r="K127" s="10"/>
@@ -5587,11 +5567,11 @@
       <c r="AC127" s="10"/>
       <c r="AD127" s="7"/>
     </row>
-    <row r="128" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D128" s="18">
         <v>1</v>
       </c>
-      <c r="E128" s="74"/>
+      <c r="E128" s="67"/>
       <c r="H128" s="10"/>
       <c r="I128" s="13"/>
       <c r="K128" s="10"/>
@@ -5607,11 +5587,11 @@
       <c r="AC128" s="10"/>
       <c r="AD128" s="7"/>
     </row>
-    <row r="129" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D129" s="19">
         <v>1</v>
       </c>
-      <c r="E129" s="75"/>
+      <c r="E129" s="68"/>
       <c r="H129" s="10"/>
       <c r="I129" s="13"/>
       <c r="K129" s="10"/>
@@ -5627,15 +5607,13 @@
       <c r="AC129" s="10"/>
       <c r="AD129" s="7"/>
     </row>
-    <row r="130" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D130" s="18">
         <v>1</v>
       </c>
-      <c r="E130" s="74"/>
+      <c r="E130" s="67"/>
       <c r="H130" s="10"/>
-      <c r="I130" s="13"/>
-      <c r="K130" s="10"/>
-      <c r="L130" s="7"/>
+      <c r="I130" s="7"/>
       <c r="N130" s="10"/>
       <c r="O130" s="13"/>
       <c r="Q130" s="10"/>
@@ -5647,15 +5625,13 @@
       <c r="AC130" s="10"/>
       <c r="AD130" s="7"/>
     </row>
-    <row r="131" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D131" s="19">
         <v>1</v>
       </c>
-      <c r="E131" s="75"/>
+      <c r="E131" s="68"/>
       <c r="H131" s="10"/>
-      <c r="I131" s="13"/>
-      <c r="K131" s="10"/>
-      <c r="L131" s="7"/>
+      <c r="I131" s="7"/>
       <c r="N131" s="10"/>
       <c r="O131" s="13"/>
       <c r="Q131" s="10"/>
@@ -5667,47 +5643,43 @@
       <c r="AC131" s="10"/>
       <c r="AD131" s="7"/>
     </row>
-    <row r="132" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D132" s="18">
         <v>1</v>
       </c>
-      <c r="E132" s="74"/>
+      <c r="E132" s="67"/>
       <c r="H132" s="10"/>
       <c r="I132" s="7"/>
       <c r="N132" s="10"/>
       <c r="O132" s="13"/>
       <c r="Q132" s="10"/>
-      <c r="R132" s="13"/>
-      <c r="T132" s="10"/>
-      <c r="U132" s="7"/>
+      <c r="R132" s="7"/>
       <c r="Z132" s="10"/>
       <c r="AA132" s="7"/>
       <c r="AC132" s="10"/>
       <c r="AD132" s="7"/>
     </row>
-    <row r="133" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D133" s="19">
         <v>1</v>
       </c>
-      <c r="E133" s="75"/>
+      <c r="E133" s="68"/>
       <c r="H133" s="10"/>
       <c r="I133" s="7"/>
       <c r="N133" s="10"/>
       <c r="O133" s="13"/>
       <c r="Q133" s="10"/>
-      <c r="R133" s="13"/>
-      <c r="T133" s="10"/>
-      <c r="U133" s="7"/>
+      <c r="R133" s="7"/>
       <c r="Z133" s="10"/>
       <c r="AA133" s="7"/>
       <c r="AC133" s="10"/>
       <c r="AD133" s="7"/>
     </row>
-    <row r="134" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D134" s="18">
         <v>1</v>
       </c>
-      <c r="E134" s="74"/>
+      <c r="E134" s="67"/>
       <c r="H134" s="10"/>
       <c r="I134" s="7"/>
       <c r="N134" s="10"/>
@@ -5719,11 +5691,11 @@
       <c r="AC134" s="10"/>
       <c r="AD134" s="7"/>
     </row>
-    <row r="135" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D135" s="19">
         <v>1</v>
       </c>
-      <c r="E135" s="75"/>
+      <c r="E135" s="68"/>
       <c r="H135" s="10"/>
       <c r="I135" s="7"/>
       <c r="N135" s="10"/>
@@ -5735,11 +5707,11 @@
       <c r="AC135" s="10"/>
       <c r="AD135" s="7"/>
     </row>
-    <row r="136" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D136" s="18">
         <v>1</v>
       </c>
-      <c r="E136" s="74"/>
+      <c r="E136" s="67"/>
       <c r="H136" s="10"/>
       <c r="I136" s="7"/>
       <c r="N136" s="10"/>
@@ -5751,11 +5723,11 @@
       <c r="AC136" s="10"/>
       <c r="AD136" s="7"/>
     </row>
-    <row r="137" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D137" s="19">
         <v>1</v>
       </c>
-      <c r="E137" s="75"/>
+      <c r="E137" s="68"/>
       <c r="H137" s="10"/>
       <c r="I137" s="7"/>
       <c r="N137" s="10"/>
@@ -5767,11 +5739,11 @@
       <c r="AC137" s="10"/>
       <c r="AD137" s="7"/>
     </row>
-    <row r="138" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D138" s="18">
         <v>1</v>
       </c>
-      <c r="E138" s="74"/>
+      <c r="E138" s="67"/>
       <c r="H138" s="10"/>
       <c r="I138" s="7"/>
       <c r="N138" s="10"/>
@@ -5783,11 +5755,11 @@
       <c r="AC138" s="10"/>
       <c r="AD138" s="7"/>
     </row>
-    <row r="139" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D139" s="19">
         <v>1</v>
       </c>
-      <c r="E139" s="75"/>
+      <c r="E139" s="68"/>
       <c r="H139" s="10"/>
       <c r="I139" s="7"/>
       <c r="N139" s="10"/>
@@ -5799,11 +5771,11 @@
       <c r="AC139" s="10"/>
       <c r="AD139" s="7"/>
     </row>
-    <row r="140" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D140" s="18">
         <v>1</v>
       </c>
-      <c r="E140" s="74"/>
+      <c r="E140" s="67"/>
       <c r="H140" s="10"/>
       <c r="I140" s="7"/>
       <c r="N140" s="10"/>
@@ -5815,11 +5787,11 @@
       <c r="AC140" s="10"/>
       <c r="AD140" s="7"/>
     </row>
-    <row r="141" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D141" s="19">
         <v>1</v>
       </c>
-      <c r="E141" s="75"/>
+      <c r="E141" s="68"/>
       <c r="H141" s="10"/>
       <c r="I141" s="7"/>
       <c r="N141" s="10"/>
@@ -5831,11 +5803,11 @@
       <c r="AC141" s="10"/>
       <c r="AD141" s="7"/>
     </row>
-    <row r="142" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D142" s="18">
         <v>1</v>
       </c>
-      <c r="E142" s="74"/>
+      <c r="E142" s="67"/>
       <c r="H142" s="10"/>
       <c r="I142" s="7"/>
       <c r="N142" s="10"/>
@@ -5847,11 +5819,11 @@
       <c r="AC142" s="10"/>
       <c r="AD142" s="7"/>
     </row>
-    <row r="143" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D143" s="19">
         <v>1</v>
       </c>
-      <c r="E143" s="75"/>
+      <c r="E143" s="68"/>
       <c r="H143" s="10"/>
       <c r="I143" s="7"/>
       <c r="N143" s="10"/>
@@ -5863,11 +5835,11 @@
       <c r="AC143" s="10"/>
       <c r="AD143" s="7"/>
     </row>
-    <row r="144" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D144" s="18">
         <v>1</v>
       </c>
-      <c r="E144" s="74"/>
+      <c r="E144" s="67"/>
       <c r="H144" s="10"/>
       <c r="I144" s="7"/>
       <c r="N144" s="10"/>
@@ -5879,11 +5851,11 @@
       <c r="AC144" s="10"/>
       <c r="AD144" s="7"/>
     </row>
-    <row r="145" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="145" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D145" s="19">
         <v>1</v>
       </c>
-      <c r="E145" s="75"/>
+      <c r="E145" s="68"/>
       <c r="H145" s="10"/>
       <c r="I145" s="7"/>
       <c r="N145" s="10"/>
@@ -5895,11 +5867,11 @@
       <c r="AC145" s="10"/>
       <c r="AD145" s="7"/>
     </row>
-    <row r="146" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="146" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D146" s="18">
         <v>1</v>
       </c>
-      <c r="E146" s="74"/>
+      <c r="E146" s="67"/>
       <c r="H146" s="10"/>
       <c r="I146" s="7"/>
       <c r="N146" s="10"/>
@@ -5911,11 +5883,11 @@
       <c r="AC146" s="10"/>
       <c r="AD146" s="7"/>
     </row>
-    <row r="147" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="147" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D147" s="19">
         <v>1</v>
       </c>
-      <c r="E147" s="75"/>
+      <c r="E147" s="68"/>
       <c r="H147" s="10"/>
       <c r="I147" s="7"/>
       <c r="N147" s="10"/>
@@ -5927,11 +5899,11 @@
       <c r="AC147" s="10"/>
       <c r="AD147" s="7"/>
     </row>
-    <row r="148" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="148" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D148" s="18">
         <v>1</v>
       </c>
-      <c r="E148" s="74"/>
+      <c r="E148" s="67"/>
       <c r="H148" s="10"/>
       <c r="I148" s="7"/>
       <c r="N148" s="10"/>
@@ -5943,11 +5915,11 @@
       <c r="AC148" s="10"/>
       <c r="AD148" s="7"/>
     </row>
-    <row r="149" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="149" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D149" s="19">
         <v>1</v>
       </c>
-      <c r="E149" s="75"/>
+      <c r="E149" s="68"/>
       <c r="H149" s="10"/>
       <c r="I149" s="7"/>
       <c r="N149" s="10"/>
@@ -5959,11 +5931,11 @@
       <c r="AC149" s="10"/>
       <c r="AD149" s="7"/>
     </row>
-    <row r="150" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="150" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D150" s="18">
         <v>1</v>
       </c>
-      <c r="E150" s="74"/>
+      <c r="E150" s="67"/>
       <c r="H150" s="10"/>
       <c r="I150" s="7"/>
       <c r="N150" s="10"/>
@@ -5975,11 +5947,11 @@
       <c r="AC150" s="10"/>
       <c r="AD150" s="7"/>
     </row>
-    <row r="151" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="151" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D151" s="19">
         <v>1</v>
       </c>
-      <c r="E151" s="75"/>
+      <c r="E151" s="68"/>
       <c r="H151" s="10"/>
       <c r="I151" s="7"/>
       <c r="N151" s="10"/>
@@ -5991,11 +5963,11 @@
       <c r="AC151" s="10"/>
       <c r="AD151" s="7"/>
     </row>
-    <row r="152" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="152" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D152" s="18">
         <v>1</v>
       </c>
-      <c r="E152" s="74"/>
+      <c r="E152" s="67"/>
       <c r="H152" s="10"/>
       <c r="I152" s="7"/>
       <c r="N152" s="10"/>
@@ -6007,11 +5979,11 @@
       <c r="AC152" s="10"/>
       <c r="AD152" s="7"/>
     </row>
-    <row r="153" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="153" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D153" s="19">
         <v>1</v>
       </c>
-      <c r="E153" s="75"/>
+      <c r="E153" s="68"/>
       <c r="H153" s="10"/>
       <c r="I153" s="7"/>
       <c r="N153" s="10"/>
@@ -6023,11 +5995,11 @@
       <c r="AC153" s="10"/>
       <c r="AD153" s="7"/>
     </row>
-    <row r="154" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="154" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D154" s="18">
         <v>1</v>
       </c>
-      <c r="E154" s="74"/>
+      <c r="E154" s="67"/>
       <c r="H154" s="10"/>
       <c r="I154" s="7"/>
       <c r="N154" s="10"/>
@@ -6039,11 +6011,11 @@
       <c r="AC154" s="10"/>
       <c r="AD154" s="7"/>
     </row>
-    <row r="155" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="155" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D155" s="19">
         <v>1</v>
       </c>
-      <c r="E155" s="75"/>
+      <c r="E155" s="68"/>
       <c r="H155" s="10"/>
       <c r="I155" s="7"/>
       <c r="N155" s="10"/>
@@ -6055,11 +6027,11 @@
       <c r="AC155" s="10"/>
       <c r="AD155" s="7"/>
     </row>
-    <row r="156" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="156" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D156" s="18">
         <v>1</v>
       </c>
-      <c r="E156" s="74"/>
+      <c r="E156" s="67"/>
       <c r="H156" s="10"/>
       <c r="I156" s="7"/>
       <c r="N156" s="10"/>
@@ -6071,11 +6043,11 @@
       <c r="AC156" s="10"/>
       <c r="AD156" s="7"/>
     </row>
-    <row r="157" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="157" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D157" s="19">
         <v>1</v>
       </c>
-      <c r="E157" s="75"/>
+      <c r="E157" s="68"/>
       <c r="H157" s="10"/>
       <c r="I157" s="7"/>
       <c r="N157" s="10"/>
@@ -6087,11 +6059,11 @@
       <c r="AC157" s="10"/>
       <c r="AD157" s="7"/>
     </row>
-    <row r="158" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="158" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D158" s="18">
         <v>1</v>
       </c>
-      <c r="E158" s="74"/>
+      <c r="E158" s="67"/>
       <c r="H158" s="10"/>
       <c r="I158" s="7"/>
       <c r="N158" s="10"/>
@@ -6103,11 +6075,11 @@
       <c r="AC158" s="10"/>
       <c r="AD158" s="7"/>
     </row>
-    <row r="159" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="159" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D159" s="19">
         <v>1</v>
       </c>
-      <c r="E159" s="75"/>
+      <c r="E159" s="68"/>
       <c r="H159" s="10"/>
       <c r="I159" s="7"/>
       <c r="N159" s="10"/>
@@ -6119,11 +6091,11 @@
       <c r="AC159" s="10"/>
       <c r="AD159" s="7"/>
     </row>
-    <row r="160" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="160" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D160" s="18">
         <v>1</v>
       </c>
-      <c r="E160" s="74"/>
+      <c r="E160" s="67"/>
       <c r="H160" s="10"/>
       <c r="I160" s="7"/>
       <c r="N160" s="10"/>
@@ -6135,11 +6107,11 @@
       <c r="AC160" s="10"/>
       <c r="AD160" s="7"/>
     </row>
-    <row r="161" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="161" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D161" s="19">
         <v>1</v>
       </c>
-      <c r="E161" s="75"/>
+      <c r="E161" s="68"/>
       <c r="H161" s="10"/>
       <c r="I161" s="7"/>
       <c r="N161" s="10"/>
@@ -6151,11 +6123,11 @@
       <c r="AC161" s="10"/>
       <c r="AD161" s="7"/>
     </row>
-    <row r="162" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="162" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D162" s="18">
         <v>1</v>
       </c>
-      <c r="E162" s="74"/>
+      <c r="E162" s="67"/>
       <c r="H162" s="10"/>
       <c r="I162" s="7"/>
       <c r="N162" s="10"/>
@@ -6167,11 +6139,11 @@
       <c r="AC162" s="10"/>
       <c r="AD162" s="7"/>
     </row>
-    <row r="163" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="163" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D163" s="19">
         <v>1</v>
       </c>
-      <c r="E163" s="75"/>
+      <c r="E163" s="68"/>
       <c r="H163" s="10"/>
       <c r="I163" s="7"/>
       <c r="N163" s="10"/>
@@ -6183,11 +6155,11 @@
       <c r="AC163" s="10"/>
       <c r="AD163" s="7"/>
     </row>
-    <row r="164" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="164" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D164" s="18">
         <v>1</v>
       </c>
-      <c r="E164" s="74"/>
+      <c r="E164" s="67"/>
       <c r="H164" s="10"/>
       <c r="I164" s="7"/>
       <c r="N164" s="10"/>
@@ -6199,11 +6171,11 @@
       <c r="AC164" s="10"/>
       <c r="AD164" s="7"/>
     </row>
-    <row r="165" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="165" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D165" s="19">
         <v>1</v>
       </c>
-      <c r="E165" s="75"/>
+      <c r="E165" s="68"/>
       <c r="H165" s="10"/>
       <c r="I165" s="7"/>
       <c r="N165" s="10"/>
@@ -6215,11 +6187,11 @@
       <c r="AC165" s="10"/>
       <c r="AD165" s="7"/>
     </row>
-    <row r="166" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="166" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D166" s="18">
         <v>1</v>
       </c>
-      <c r="E166" s="74"/>
+      <c r="E166" s="67"/>
       <c r="H166" s="10"/>
       <c r="I166" s="7"/>
       <c r="N166" s="10"/>
@@ -6231,11 +6203,11 @@
       <c r="AC166" s="10"/>
       <c r="AD166" s="7"/>
     </row>
-    <row r="167" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="167" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D167" s="19">
         <v>1</v>
       </c>
-      <c r="E167" s="75"/>
+      <c r="E167" s="68"/>
       <c r="H167" s="10"/>
       <c r="I167" s="7"/>
       <c r="N167" s="10"/>
@@ -6247,11 +6219,11 @@
       <c r="AC167" s="10"/>
       <c r="AD167" s="7"/>
     </row>
-    <row r="168" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="168" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D168" s="18">
         <v>1</v>
       </c>
-      <c r="E168" s="74"/>
+      <c r="E168" s="67"/>
       <c r="H168" s="10"/>
       <c r="I168" s="7"/>
       <c r="N168" s="10"/>
@@ -6263,11 +6235,11 @@
       <c r="AC168" s="10"/>
       <c r="AD168" s="7"/>
     </row>
-    <row r="169" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="169" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D169" s="19">
         <v>1</v>
       </c>
-      <c r="E169" s="75"/>
+      <c r="E169" s="68"/>
       <c r="H169" s="10"/>
       <c r="I169" s="7"/>
       <c r="N169" s="10"/>
@@ -6279,11 +6251,11 @@
       <c r="AC169" s="10"/>
       <c r="AD169" s="7"/>
     </row>
-    <row r="170" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="170" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D170" s="18">
         <v>1</v>
       </c>
-      <c r="E170" s="74"/>
+      <c r="E170" s="67"/>
       <c r="H170" s="10"/>
       <c r="I170" s="7"/>
       <c r="N170" s="10"/>
@@ -6295,11 +6267,11 @@
       <c r="AC170" s="10"/>
       <c r="AD170" s="7"/>
     </row>
-    <row r="171" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="171" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D171" s="19">
         <v>1</v>
       </c>
-      <c r="E171" s="75"/>
+      <c r="E171" s="68"/>
       <c r="H171" s="10"/>
       <c r="I171" s="7"/>
       <c r="N171" s="10"/>
@@ -6311,11 +6283,11 @@
       <c r="AC171" s="10"/>
       <c r="AD171" s="7"/>
     </row>
-    <row r="172" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="172" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D172" s="18">
         <v>1</v>
       </c>
-      <c r="E172" s="74"/>
+      <c r="E172" s="67"/>
       <c r="H172" s="10"/>
       <c r="I172" s="7"/>
       <c r="N172" s="10"/>
@@ -6327,11 +6299,11 @@
       <c r="AC172" s="10"/>
       <c r="AD172" s="7"/>
     </row>
-    <row r="173" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="173" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D173" s="19">
         <v>1</v>
       </c>
-      <c r="E173" s="75"/>
+      <c r="E173" s="68"/>
       <c r="H173" s="10"/>
       <c r="I173" s="7"/>
       <c r="N173" s="10"/>
@@ -6343,11 +6315,11 @@
       <c r="AC173" s="10"/>
       <c r="AD173" s="7"/>
     </row>
-    <row r="174" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="174" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D174" s="18">
         <v>1</v>
       </c>
-      <c r="E174" s="74"/>
+      <c r="E174" s="67"/>
       <c r="H174" s="10"/>
       <c r="I174" s="7"/>
       <c r="N174" s="10"/>
@@ -6359,11 +6331,11 @@
       <c r="AC174" s="10"/>
       <c r="AD174" s="7"/>
     </row>
-    <row r="175" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="175" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D175" s="19">
         <v>1</v>
       </c>
-      <c r="E175" s="75"/>
+      <c r="E175" s="68"/>
       <c r="H175" s="10"/>
       <c r="I175" s="7"/>
       <c r="N175" s="10"/>
@@ -6375,11 +6347,11 @@
       <c r="AC175" s="10"/>
       <c r="AD175" s="7"/>
     </row>
-    <row r="176" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="176" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D176" s="18">
         <v>1</v>
       </c>
-      <c r="E176" s="74"/>
+      <c r="E176" s="67"/>
       <c r="H176" s="10"/>
       <c r="I176" s="7"/>
       <c r="N176" s="10"/>
@@ -6391,11 +6363,11 @@
       <c r="AC176" s="10"/>
       <c r="AD176" s="7"/>
     </row>
-    <row r="177" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="177" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D177" s="19">
         <v>1</v>
       </c>
-      <c r="E177" s="75"/>
+      <c r="E177" s="68"/>
       <c r="H177" s="10"/>
       <c r="I177" s="7"/>
       <c r="N177" s="10"/>
@@ -6407,11 +6379,11 @@
       <c r="AC177" s="10"/>
       <c r="AD177" s="7"/>
     </row>
-    <row r="178" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="178" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D178" s="18">
         <v>1</v>
       </c>
-      <c r="E178" s="74"/>
+      <c r="E178" s="67"/>
       <c r="H178" s="10"/>
       <c r="I178" s="7"/>
       <c r="N178" s="10"/>
@@ -6423,11 +6395,11 @@
       <c r="AC178" s="10"/>
       <c r="AD178" s="7"/>
     </row>
-    <row r="179" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="179" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D179" s="19">
         <v>1</v>
       </c>
-      <c r="E179" s="75"/>
+      <c r="E179" s="68"/>
       <c r="H179" s="10"/>
       <c r="I179" s="7"/>
       <c r="N179" s="10"/>
@@ -6439,11 +6411,11 @@
       <c r="AC179" s="10"/>
       <c r="AD179" s="7"/>
     </row>
-    <row r="180" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="180" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D180" s="18">
         <v>1</v>
       </c>
-      <c r="E180" s="74"/>
+      <c r="E180" s="67"/>
       <c r="H180" s="10"/>
       <c r="I180" s="7"/>
       <c r="N180" s="10"/>
@@ -6455,11 +6427,11 @@
       <c r="AC180" s="10"/>
       <c r="AD180" s="7"/>
     </row>
-    <row r="181" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="181" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D181" s="19">
         <v>1</v>
       </c>
-      <c r="E181" s="75"/>
+      <c r="E181" s="68"/>
       <c r="H181" s="10"/>
       <c r="I181" s="7"/>
       <c r="N181" s="10"/>
@@ -6471,11 +6443,11 @@
       <c r="AC181" s="10"/>
       <c r="AD181" s="7"/>
     </row>
-    <row r="182" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="182" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D182" s="18">
         <v>1</v>
       </c>
-      <c r="E182" s="74"/>
+      <c r="E182" s="67"/>
       <c r="H182" s="10"/>
       <c r="I182" s="7"/>
       <c r="N182" s="10"/>
@@ -6487,11 +6459,11 @@
       <c r="AC182" s="10"/>
       <c r="AD182" s="7"/>
     </row>
-    <row r="183" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="183" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D183" s="19">
         <v>1</v>
       </c>
-      <c r="E183" s="75"/>
+      <c r="E183" s="68"/>
       <c r="H183" s="10"/>
       <c r="I183" s="7"/>
       <c r="N183" s="10"/>
@@ -6503,11 +6475,11 @@
       <c r="AC183" s="10"/>
       <c r="AD183" s="7"/>
     </row>
-    <row r="184" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="184" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D184" s="18">
         <v>1</v>
       </c>
-      <c r="E184" s="74"/>
+      <c r="E184" s="67"/>
       <c r="H184" s="10"/>
       <c r="I184" s="7"/>
       <c r="N184" s="10"/>
@@ -6519,11 +6491,11 @@
       <c r="AC184" s="10"/>
       <c r="AD184" s="7"/>
     </row>
-    <row r="185" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="185" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D185" s="19">
         <v>1</v>
       </c>
-      <c r="E185" s="75"/>
+      <c r="E185" s="68"/>
       <c r="H185" s="10"/>
       <c r="I185" s="7"/>
       <c r="N185" s="10"/>
@@ -6535,11 +6507,11 @@
       <c r="AC185" s="10"/>
       <c r="AD185" s="7"/>
     </row>
-    <row r="186" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="186" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D186" s="18">
         <v>1</v>
       </c>
-      <c r="E186" s="74"/>
+      <c r="E186" s="67"/>
       <c r="H186" s="10"/>
       <c r="I186" s="7"/>
       <c r="N186" s="10"/>
@@ -6551,11 +6523,11 @@
       <c r="AC186" s="10"/>
       <c r="AD186" s="7"/>
     </row>
-    <row r="187" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="187" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D187" s="19">
         <v>1</v>
       </c>
-      <c r="E187" s="75"/>
+      <c r="E187" s="68"/>
       <c r="H187" s="10"/>
       <c r="I187" s="7"/>
       <c r="N187" s="10"/>
@@ -6567,11 +6539,11 @@
       <c r="AC187" s="10"/>
       <c r="AD187" s="7"/>
     </row>
-    <row r="188" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="188" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D188" s="18">
         <v>1</v>
       </c>
-      <c r="E188" s="74"/>
+      <c r="E188" s="67"/>
       <c r="H188" s="10"/>
       <c r="I188" s="7"/>
       <c r="N188" s="10"/>
@@ -6583,11 +6555,11 @@
       <c r="AC188" s="10"/>
       <c r="AD188" s="7"/>
     </row>
-    <row r="189" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="189" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D189" s="19">
         <v>1</v>
       </c>
-      <c r="E189" s="75"/>
+      <c r="E189" s="68"/>
       <c r="H189" s="10"/>
       <c r="I189" s="7"/>
       <c r="N189" s="10"/>
@@ -6599,13 +6571,11 @@
       <c r="AC189" s="10"/>
       <c r="AD189" s="7"/>
     </row>
-    <row r="190" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="190" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D190" s="18">
         <v>1</v>
       </c>
-      <c r="E190" s="74"/>
-      <c r="H190" s="10"/>
-      <c r="I190" s="7"/>
+      <c r="E190" s="67"/>
       <c r="N190" s="10"/>
       <c r="O190" s="13"/>
       <c r="Q190" s="10"/>
@@ -6615,13 +6585,11 @@
       <c r="AC190" s="10"/>
       <c r="AD190" s="7"/>
     </row>
-    <row r="191" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="191" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D191" s="19">
         <v>1</v>
       </c>
-      <c r="E191" s="75"/>
-      <c r="H191" s="10"/>
-      <c r="I191" s="7"/>
+      <c r="E191" s="68"/>
       <c r="N191" s="10"/>
       <c r="O191" s="13"/>
       <c r="Q191" s="10"/>
@@ -6631,11 +6599,11 @@
       <c r="AC191" s="10"/>
       <c r="AD191" s="7"/>
     </row>
-    <row r="192" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="192" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D192" s="18">
         <v>1</v>
       </c>
-      <c r="E192" s="74"/>
+      <c r="E192" s="67"/>
       <c r="N192" s="10"/>
       <c r="O192" s="13"/>
       <c r="Q192" s="10"/>
@@ -6645,11 +6613,11 @@
       <c r="AC192" s="10"/>
       <c r="AD192" s="7"/>
     </row>
-    <row r="193" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="193" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D193" s="19">
         <v>1</v>
       </c>
-      <c r="E193" s="75"/>
+      <c r="E193" s="68"/>
       <c r="N193" s="10"/>
       <c r="O193" s="13"/>
       <c r="Q193" s="10"/>
@@ -6659,39 +6627,35 @@
       <c r="AC193" s="10"/>
       <c r="AD193" s="7"/>
     </row>
-    <row r="194" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="194" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D194" s="18">
         <v>1</v>
       </c>
-      <c r="E194" s="74"/>
+      <c r="E194" s="67"/>
       <c r="N194" s="10"/>
-      <c r="O194" s="13"/>
-      <c r="Q194" s="10"/>
-      <c r="R194" s="7"/>
+      <c r="O194" s="7"/>
       <c r="Z194" s="10"/>
       <c r="AA194" s="7"/>
       <c r="AC194" s="10"/>
       <c r="AD194" s="7"/>
     </row>
-    <row r="195" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="195" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D195" s="19">
         <v>1</v>
       </c>
-      <c r="E195" s="75"/>
+      <c r="E195" s="68"/>
       <c r="N195" s="10"/>
-      <c r="O195" s="13"/>
-      <c r="Q195" s="10"/>
-      <c r="R195" s="7"/>
+      <c r="O195" s="7"/>
       <c r="Z195" s="10"/>
       <c r="AA195" s="7"/>
       <c r="AC195" s="10"/>
       <c r="AD195" s="7"/>
     </row>
-    <row r="196" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="196" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D196" s="18">
         <v>1</v>
       </c>
-      <c r="E196" s="74"/>
+      <c r="E196" s="67"/>
       <c r="N196" s="10"/>
       <c r="O196" s="7"/>
       <c r="Z196" s="10"/>
@@ -6699,11 +6663,11 @@
       <c r="AC196" s="10"/>
       <c r="AD196" s="7"/>
     </row>
-    <row r="197" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="197" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D197" s="19">
         <v>1</v>
       </c>
-      <c r="E197" s="75"/>
+      <c r="E197" s="68"/>
       <c r="N197" s="10"/>
       <c r="O197" s="7"/>
       <c r="Z197" s="10"/>
@@ -6711,11 +6675,11 @@
       <c r="AC197" s="10"/>
       <c r="AD197" s="7"/>
     </row>
-    <row r="198" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="198" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D198" s="18">
         <v>1</v>
       </c>
-      <c r="E198" s="74"/>
+      <c r="E198" s="67"/>
       <c r="N198" s="10"/>
       <c r="O198" s="7"/>
       <c r="Z198" s="10"/>
@@ -6723,11 +6687,11 @@
       <c r="AC198" s="10"/>
       <c r="AD198" s="7"/>
     </row>
-    <row r="199" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="199" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D199" s="19">
         <v>1</v>
       </c>
-      <c r="E199" s="75"/>
+      <c r="E199" s="68"/>
       <c r="N199" s="10"/>
       <c r="O199" s="7"/>
       <c r="Z199" s="10"/>
@@ -6735,11 +6699,11 @@
       <c r="AC199" s="10"/>
       <c r="AD199" s="7"/>
     </row>
-    <row r="200" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="200" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D200" s="18">
         <v>1</v>
       </c>
-      <c r="E200" s="74"/>
+      <c r="E200" s="67"/>
       <c r="N200" s="10"/>
       <c r="O200" s="7"/>
       <c r="Z200" s="10"/>
@@ -6747,11 +6711,11 @@
       <c r="AC200" s="10"/>
       <c r="AD200" s="7"/>
     </row>
-    <row r="201" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="201" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D201" s="19">
         <v>1</v>
       </c>
-      <c r="E201" s="75"/>
+      <c r="E201" s="68"/>
       <c r="N201" s="10"/>
       <c r="O201" s="7"/>
       <c r="Z201" s="10"/>
@@ -6759,11 +6723,11 @@
       <c r="AC201" s="10"/>
       <c r="AD201" s="7"/>
     </row>
-    <row r="202" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="202" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D202" s="18">
         <v>1</v>
       </c>
-      <c r="E202" s="74"/>
+      <c r="E202" s="67"/>
       <c r="N202" s="10"/>
       <c r="O202" s="7"/>
       <c r="Z202" s="10"/>
@@ -6771,11 +6735,11 @@
       <c r="AC202" s="10"/>
       <c r="AD202" s="7"/>
     </row>
-    <row r="203" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="203" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D203" s="19">
         <v>1</v>
       </c>
-      <c r="E203" s="75"/>
+      <c r="E203" s="68"/>
       <c r="N203" s="10"/>
       <c r="O203" s="7"/>
       <c r="Z203" s="10"/>
@@ -6783,11 +6747,11 @@
       <c r="AC203" s="10"/>
       <c r="AD203" s="7"/>
     </row>
-    <row r="204" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="204" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D204" s="18">
         <v>1</v>
       </c>
-      <c r="E204" s="74"/>
+      <c r="E204" s="67"/>
       <c r="N204" s="10"/>
       <c r="O204" s="7"/>
       <c r="Z204" s="10"/>
@@ -6795,11 +6759,11 @@
       <c r="AC204" s="10"/>
       <c r="AD204" s="7"/>
     </row>
-    <row r="205" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="205" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D205" s="19">
         <v>1</v>
       </c>
-      <c r="E205" s="75"/>
+      <c r="E205" s="68"/>
       <c r="N205" s="10"/>
       <c r="O205" s="7"/>
       <c r="Z205" s="10"/>
@@ -6807,11 +6771,11 @@
       <c r="AC205" s="10"/>
       <c r="AD205" s="7"/>
     </row>
-    <row r="206" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="206" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D206" s="18">
         <v>1</v>
       </c>
-      <c r="E206" s="74"/>
+      <c r="E206" s="67"/>
       <c r="N206" s="10"/>
       <c r="O206" s="7"/>
       <c r="Z206" s="10"/>
@@ -6819,11 +6783,11 @@
       <c r="AC206" s="10"/>
       <c r="AD206" s="7"/>
     </row>
-    <row r="207" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="207" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D207" s="19">
         <v>1</v>
       </c>
-      <c r="E207" s="75"/>
+      <c r="E207" s="68"/>
       <c r="N207" s="10"/>
       <c r="O207" s="7"/>
       <c r="Z207" s="10"/>
@@ -6831,11 +6795,11 @@
       <c r="AC207" s="10"/>
       <c r="AD207" s="7"/>
     </row>
-    <row r="208" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="208" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D208" s="18">
         <v>1</v>
       </c>
-      <c r="E208" s="74"/>
+      <c r="E208" s="67"/>
       <c r="N208" s="10"/>
       <c r="O208" s="7"/>
       <c r="Z208" s="10"/>
@@ -6843,11 +6807,11 @@
       <c r="AC208" s="10"/>
       <c r="AD208" s="7"/>
     </row>
-    <row r="209" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="209" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D209" s="19">
         <v>1</v>
       </c>
-      <c r="E209" s="75"/>
+      <c r="E209" s="68"/>
       <c r="N209" s="10"/>
       <c r="O209" s="7"/>
       <c r="Z209" s="10"/>
@@ -6855,11 +6819,11 @@
       <c r="AC209" s="10"/>
       <c r="AD209" s="7"/>
     </row>
-    <row r="210" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="210" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D210" s="18">
         <v>1</v>
       </c>
-      <c r="E210" s="74"/>
+      <c r="E210" s="67"/>
       <c r="N210" s="10"/>
       <c r="O210" s="7"/>
       <c r="Z210" s="10"/>
@@ -6867,11 +6831,11 @@
       <c r="AC210" s="10"/>
       <c r="AD210" s="7"/>
     </row>
-    <row r="211" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="211" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D211" s="19">
         <v>1</v>
       </c>
-      <c r="E211" s="75"/>
+      <c r="E211" s="68"/>
       <c r="N211" s="10"/>
       <c r="O211" s="7"/>
       <c r="Z211" s="10"/>
@@ -6879,11 +6843,11 @@
       <c r="AC211" s="10"/>
       <c r="AD211" s="7"/>
     </row>
-    <row r="212" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="212" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D212" s="18">
         <v>1</v>
       </c>
-      <c r="E212" s="74"/>
+      <c r="E212" s="67"/>
       <c r="N212" s="10"/>
       <c r="O212" s="7"/>
       <c r="Z212" s="10"/>
@@ -6891,11 +6855,11 @@
       <c r="AC212" s="10"/>
       <c r="AD212" s="7"/>
     </row>
-    <row r="213" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="213" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D213" s="19">
         <v>1</v>
       </c>
-      <c r="E213" s="75"/>
+      <c r="E213" s="68"/>
       <c r="N213" s="10"/>
       <c r="O213" s="7"/>
       <c r="Z213" s="10"/>
@@ -6903,11 +6867,11 @@
       <c r="AC213" s="10"/>
       <c r="AD213" s="7"/>
     </row>
-    <row r="214" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="214" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D214" s="18">
         <v>1</v>
       </c>
-      <c r="E214" s="74"/>
+      <c r="E214" s="67"/>
       <c r="N214" s="10"/>
       <c r="O214" s="7"/>
       <c r="Z214" s="10"/>
@@ -6915,11 +6879,11 @@
       <c r="AC214" s="10"/>
       <c r="AD214" s="7"/>
     </row>
-    <row r="215" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="215" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D215" s="19">
         <v>1</v>
       </c>
-      <c r="E215" s="75"/>
+      <c r="E215" s="68"/>
       <c r="N215" s="10"/>
       <c r="O215" s="7"/>
       <c r="Z215" s="10"/>
@@ -6927,11 +6891,11 @@
       <c r="AC215" s="10"/>
       <c r="AD215" s="7"/>
     </row>
-    <row r="216" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="216" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D216" s="18">
         <v>1</v>
       </c>
-      <c r="E216" s="74"/>
+      <c r="E216" s="67"/>
       <c r="N216" s="10"/>
       <c r="O216" s="7"/>
       <c r="Z216" s="10"/>
@@ -6939,11 +6903,11 @@
       <c r="AC216" s="10"/>
       <c r="AD216" s="7"/>
     </row>
-    <row r="217" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="217" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D217" s="19">
         <v>1</v>
       </c>
-      <c r="E217" s="75"/>
+      <c r="E217" s="68"/>
       <c r="N217" s="10"/>
       <c r="O217" s="7"/>
       <c r="Z217" s="10"/>
@@ -6951,11 +6915,11 @@
       <c r="AC217" s="10"/>
       <c r="AD217" s="7"/>
     </row>
-    <row r="218" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="218" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D218" s="18">
         <v>1</v>
       </c>
-      <c r="E218" s="74"/>
+      <c r="E218" s="67"/>
       <c r="N218" s="10"/>
       <c r="O218" s="7"/>
       <c r="Z218" s="10"/>
@@ -6963,11 +6927,11 @@
       <c r="AC218" s="10"/>
       <c r="AD218" s="7"/>
     </row>
-    <row r="219" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="219" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D219" s="19">
         <v>1</v>
       </c>
-      <c r="E219" s="75"/>
+      <c r="E219" s="68"/>
       <c r="N219" s="10"/>
       <c r="O219" s="7"/>
       <c r="Z219" s="10"/>
@@ -6975,11 +6939,11 @@
       <c r="AC219" s="10"/>
       <c r="AD219" s="7"/>
     </row>
-    <row r="220" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="220" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D220" s="18">
         <v>1</v>
       </c>
-      <c r="E220" s="74"/>
+      <c r="E220" s="67"/>
       <c r="N220" s="10"/>
       <c r="O220" s="7"/>
       <c r="Z220" s="10"/>
@@ -6987,11 +6951,11 @@
       <c r="AC220" s="10"/>
       <c r="AD220" s="7"/>
     </row>
-    <row r="221" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="221" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D221" s="19">
         <v>1</v>
       </c>
-      <c r="E221" s="75"/>
+      <c r="E221" s="68"/>
       <c r="N221" s="10"/>
       <c r="O221" s="7"/>
       <c r="Z221" s="10"/>
@@ -6999,11 +6963,11 @@
       <c r="AC221" s="10"/>
       <c r="AD221" s="7"/>
     </row>
-    <row r="222" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="222" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D222" s="18">
         <v>1</v>
       </c>
-      <c r="E222" s="74"/>
+      <c r="E222" s="67"/>
       <c r="N222" s="10"/>
       <c r="O222" s="7"/>
       <c r="Z222" s="10"/>
@@ -7011,11 +6975,11 @@
       <c r="AC222" s="10"/>
       <c r="AD222" s="7"/>
     </row>
-    <row r="223" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="223" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D223" s="19">
         <v>1</v>
       </c>
-      <c r="E223" s="75"/>
+      <c r="E223" s="68"/>
       <c r="N223" s="10"/>
       <c r="O223" s="7"/>
       <c r="Z223" s="10"/>
@@ -7023,11 +6987,11 @@
       <c r="AC223" s="10"/>
       <c r="AD223" s="7"/>
     </row>
-    <row r="224" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="224" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D224" s="18">
         <v>1</v>
       </c>
-      <c r="E224" s="74"/>
+      <c r="E224" s="67"/>
       <c r="N224" s="10"/>
       <c r="O224" s="7"/>
       <c r="Z224" s="10"/>
@@ -7035,11 +6999,11 @@
       <c r="AC224" s="10"/>
       <c r="AD224" s="7"/>
     </row>
-    <row r="225" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="225" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D225" s="19">
         <v>1</v>
       </c>
-      <c r="E225" s="75"/>
+      <c r="E225" s="68"/>
       <c r="N225" s="10"/>
       <c r="O225" s="7"/>
       <c r="Z225" s="10"/>
@@ -7047,11 +7011,11 @@
       <c r="AC225" s="10"/>
       <c r="AD225" s="7"/>
     </row>
-    <row r="226" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="226" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D226" s="18">
         <v>1</v>
       </c>
-      <c r="E226" s="74"/>
+      <c r="E226" s="67"/>
       <c r="N226" s="10"/>
       <c r="O226" s="7"/>
       <c r="Z226" s="10"/>
@@ -7059,11 +7023,11 @@
       <c r="AC226" s="10"/>
       <c r="AD226" s="7"/>
     </row>
-    <row r="227" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="227" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D227" s="19">
         <v>1</v>
       </c>
-      <c r="E227" s="75"/>
+      <c r="E227" s="68"/>
       <c r="N227" s="10"/>
       <c r="O227" s="7"/>
       <c r="Z227" s="10"/>
@@ -7071,11 +7035,11 @@
       <c r="AC227" s="10"/>
       <c r="AD227" s="7"/>
     </row>
-    <row r="228" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="228" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D228" s="18">
         <v>1</v>
       </c>
-      <c r="E228" s="74"/>
+      <c r="E228" s="67"/>
       <c r="N228" s="10"/>
       <c r="O228" s="7"/>
       <c r="Z228" s="10"/>
@@ -7083,11 +7047,11 @@
       <c r="AC228" s="10"/>
       <c r="AD228" s="7"/>
     </row>
-    <row r="229" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="229" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D229" s="19">
         <v>1</v>
       </c>
-      <c r="E229" s="75"/>
+      <c r="E229" s="68"/>
       <c r="N229" s="10"/>
       <c r="O229" s="7"/>
       <c r="Z229" s="10"/>
@@ -7095,11 +7059,11 @@
       <c r="AC229" s="10"/>
       <c r="AD229" s="7"/>
     </row>
-    <row r="230" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="230" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D230" s="18">
         <v>1</v>
       </c>
-      <c r="E230" s="74"/>
+      <c r="E230" s="67"/>
       <c r="N230" s="10"/>
       <c r="O230" s="7"/>
       <c r="Z230" s="10"/>
@@ -7107,11 +7071,11 @@
       <c r="AC230" s="10"/>
       <c r="AD230" s="7"/>
     </row>
-    <row r="231" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="231" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D231" s="19">
         <v>1</v>
       </c>
-      <c r="E231" s="75"/>
+      <c r="E231" s="68"/>
       <c r="N231" s="10"/>
       <c r="O231" s="7"/>
       <c r="Z231" s="10"/>
@@ -7119,11 +7083,11 @@
       <c r="AC231" s="10"/>
       <c r="AD231" s="7"/>
     </row>
-    <row r="232" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="232" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D232" s="18">
         <v>1</v>
       </c>
-      <c r="E232" s="74"/>
+      <c r="E232" s="67"/>
       <c r="N232" s="10"/>
       <c r="O232" s="7"/>
       <c r="Z232" s="10"/>
@@ -7131,11 +7095,11 @@
       <c r="AC232" s="10"/>
       <c r="AD232" s="7"/>
     </row>
-    <row r="233" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="233" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D233" s="19">
         <v>1</v>
       </c>
-      <c r="E233" s="75"/>
+      <c r="E233" s="68"/>
       <c r="N233" s="10"/>
       <c r="O233" s="7"/>
       <c r="Z233" s="10"/>
@@ -7143,11 +7107,11 @@
       <c r="AC233" s="10"/>
       <c r="AD233" s="7"/>
     </row>
-    <row r="234" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="234" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D234" s="18">
         <v>1</v>
       </c>
-      <c r="E234" s="74"/>
+      <c r="E234" s="67"/>
       <c r="N234" s="10"/>
       <c r="O234" s="7"/>
       <c r="Z234" s="10"/>
@@ -7155,11 +7119,11 @@
       <c r="AC234" s="10"/>
       <c r="AD234" s="7"/>
     </row>
-    <row r="235" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="235" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D235" s="19">
         <v>1</v>
       </c>
-      <c r="E235" s="75"/>
+      <c r="E235" s="68"/>
       <c r="N235" s="10"/>
       <c r="O235" s="7"/>
       <c r="Z235" s="10"/>
@@ -7167,11 +7131,11 @@
       <c r="AC235" s="10"/>
       <c r="AD235" s="7"/>
     </row>
-    <row r="236" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="236" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D236" s="18">
         <v>1</v>
       </c>
-      <c r="E236" s="74"/>
+      <c r="E236" s="67"/>
       <c r="N236" s="10"/>
       <c r="O236" s="7"/>
       <c r="Z236" s="10"/>
@@ -7179,11 +7143,11 @@
       <c r="AC236" s="10"/>
       <c r="AD236" s="7"/>
     </row>
-    <row r="237" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="237" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D237" s="19">
         <v>1</v>
       </c>
-      <c r="E237" s="75"/>
+      <c r="E237" s="68"/>
       <c r="N237" s="10"/>
       <c r="O237" s="7"/>
       <c r="Z237" s="10"/>
@@ -7191,11 +7155,11 @@
       <c r="AC237" s="10"/>
       <c r="AD237" s="7"/>
     </row>
-    <row r="238" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="238" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D238" s="18">
         <v>1</v>
       </c>
-      <c r="E238" s="74"/>
+      <c r="E238" s="67"/>
       <c r="N238" s="10"/>
       <c r="O238" s="7"/>
       <c r="Z238" s="10"/>
@@ -7203,11 +7167,11 @@
       <c r="AC238" s="10"/>
       <c r="AD238" s="7"/>
     </row>
-    <row r="239" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="239" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D239" s="19">
         <v>1</v>
       </c>
-      <c r="E239" s="75"/>
+      <c r="E239" s="68"/>
       <c r="N239" s="10"/>
       <c r="O239" s="7"/>
       <c r="Z239" s="10"/>
@@ -7215,11 +7179,11 @@
       <c r="AC239" s="10"/>
       <c r="AD239" s="7"/>
     </row>
-    <row r="240" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="240" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D240" s="18">
         <v>1</v>
       </c>
-      <c r="E240" s="74"/>
+      <c r="E240" s="67"/>
       <c r="N240" s="10"/>
       <c r="O240" s="7"/>
       <c r="Z240" s="10"/>
@@ -7227,11 +7191,11 @@
       <c r="AC240" s="10"/>
       <c r="AD240" s="7"/>
     </row>
-    <row r="241" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="241" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D241" s="19">
         <v>1</v>
       </c>
-      <c r="E241" s="75"/>
+      <c r="E241" s="68"/>
       <c r="N241" s="10"/>
       <c r="O241" s="7"/>
       <c r="Z241" s="10"/>
@@ -7239,11 +7203,11 @@
       <c r="AC241" s="10"/>
       <c r="AD241" s="7"/>
     </row>
-    <row r="242" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="242" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D242" s="18">
         <v>1</v>
       </c>
-      <c r="E242" s="74"/>
+      <c r="E242" s="67"/>
       <c r="N242" s="10"/>
       <c r="O242" s="7"/>
       <c r="Z242" s="10"/>
@@ -7251,11 +7215,11 @@
       <c r="AC242" s="10"/>
       <c r="AD242" s="7"/>
     </row>
-    <row r="243" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="243" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D243" s="19">
         <v>1</v>
       </c>
-      <c r="E243" s="75"/>
+      <c r="E243" s="68"/>
       <c r="N243" s="10"/>
       <c r="O243" s="7"/>
       <c r="Z243" s="10"/>
@@ -7263,11 +7227,11 @@
       <c r="AC243" s="10"/>
       <c r="AD243" s="7"/>
     </row>
-    <row r="244" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="244" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D244" s="18">
         <v>1</v>
       </c>
-      <c r="E244" s="74"/>
+      <c r="E244" s="67"/>
       <c r="N244" s="10"/>
       <c r="O244" s="7"/>
       <c r="Z244" s="10"/>
@@ -7275,11 +7239,11 @@
       <c r="AC244" s="10"/>
       <c r="AD244" s="7"/>
     </row>
-    <row r="245" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="245" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D245" s="19">
         <v>1</v>
       </c>
-      <c r="E245" s="75"/>
+      <c r="E245" s="68"/>
       <c r="N245" s="10"/>
       <c r="O245" s="7"/>
       <c r="Z245" s="10"/>
@@ -7287,11 +7251,11 @@
       <c r="AC245" s="10"/>
       <c r="AD245" s="7"/>
     </row>
-    <row r="246" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="246" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D246" s="18">
         <v>1</v>
       </c>
-      <c r="E246" s="74"/>
+      <c r="E246" s="67"/>
       <c r="N246" s="10"/>
       <c r="O246" s="7"/>
       <c r="Z246" s="10"/>
@@ -7299,11 +7263,11 @@
       <c r="AC246" s="10"/>
       <c r="AD246" s="7"/>
     </row>
-    <row r="247" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="247" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D247" s="19">
         <v>1</v>
       </c>
-      <c r="E247" s="75"/>
+      <c r="E247" s="68"/>
       <c r="N247" s="10"/>
       <c r="O247" s="7"/>
       <c r="Z247" s="10"/>
@@ -7311,11 +7275,11 @@
       <c r="AC247" s="10"/>
       <c r="AD247" s="7"/>
     </row>
-    <row r="248" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="248" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D248" s="18">
         <v>1</v>
       </c>
-      <c r="E248" s="74"/>
+      <c r="E248" s="67"/>
       <c r="N248" s="10"/>
       <c r="O248" s="7"/>
       <c r="Z248" s="10"/>
@@ -7323,477 +7287,453 @@
       <c r="AC248" s="10"/>
       <c r="AD248" s="7"/>
     </row>
-    <row r="249" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="249" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D249" s="19">
         <v>1</v>
       </c>
-      <c r="E249" s="75"/>
-      <c r="N249" s="10"/>
-      <c r="O249" s="7"/>
+      <c r="E249" s="68"/>
       <c r="Z249" s="10"/>
       <c r="AA249" s="7"/>
       <c r="AC249" s="10"/>
       <c r="AD249" s="7"/>
     </row>
-    <row r="250" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="250" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D250" s="18">
         <v>1</v>
       </c>
-      <c r="E250" s="74"/>
-      <c r="N250" s="10"/>
-      <c r="O250" s="7"/>
-      <c r="Z250" s="10"/>
-      <c r="AA250" s="7"/>
+      <c r="E250" s="67"/>
       <c r="AC250" s="10"/>
       <c r="AD250" s="7"/>
     </row>
-    <row r="251" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="251" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D251" s="19">
         <v>1</v>
       </c>
-      <c r="E251" s="75"/>
-      <c r="Z251" s="10"/>
-      <c r="AA251" s="7"/>
+      <c r="E251" s="68"/>
       <c r="AC251" s="10"/>
       <c r="AD251" s="7"/>
     </row>
-    <row r="252" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="252" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D252" s="18">
         <v>1</v>
       </c>
-      <c r="E252" s="74"/>
+      <c r="E252" s="67"/>
       <c r="AC252" s="10"/>
       <c r="AD252" s="7"/>
     </row>
-    <row r="253" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="253" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D253" s="19">
         <v>1</v>
       </c>
-      <c r="E253" s="75"/>
+      <c r="E253" s="68"/>
       <c r="AC253" s="10"/>
       <c r="AD253" s="7"/>
     </row>
-    <row r="254" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="254" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D254" s="18">
         <v>1</v>
       </c>
-      <c r="E254" s="74"/>
+      <c r="E254" s="67"/>
       <c r="AC254" s="10"/>
       <c r="AD254" s="7"/>
     </row>
-    <row r="255" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="255" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D255" s="19">
         <v>1</v>
       </c>
-      <c r="E255" s="75"/>
+      <c r="E255" s="68"/>
       <c r="AC255" s="10"/>
       <c r="AD255" s="7"/>
     </row>
-    <row r="256" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="256" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D256" s="18">
         <v>1</v>
       </c>
-      <c r="E256" s="74"/>
+      <c r="E256" s="67"/>
       <c r="AC256" s="10"/>
       <c r="AD256" s="7"/>
     </row>
-    <row r="257" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="257" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D257" s="19">
         <v>1</v>
       </c>
-      <c r="E257" s="75"/>
+      <c r="E257" s="68"/>
       <c r="AC257" s="10"/>
       <c r="AD257" s="7"/>
     </row>
-    <row r="258" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="258" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D258" s="18">
         <v>1</v>
       </c>
-      <c r="E258" s="74"/>
+      <c r="E258" s="67"/>
       <c r="AC258" s="10"/>
       <c r="AD258" s="7"/>
     </row>
-    <row r="259" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="259" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D259" s="19">
         <v>1</v>
       </c>
-      <c r="E259" s="75"/>
+      <c r="E259" s="68"/>
       <c r="AC259" s="10"/>
       <c r="AD259" s="7"/>
     </row>
-    <row r="260" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="260" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D260" s="18">
         <v>1</v>
       </c>
-      <c r="E260" s="74"/>
+      <c r="E260" s="67"/>
       <c r="AC260" s="10"/>
       <c r="AD260" s="7"/>
     </row>
-    <row r="261" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="261" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D261" s="19">
         <v>1</v>
       </c>
-      <c r="E261" s="75"/>
+      <c r="E261" s="68"/>
       <c r="AC261" s="10"/>
       <c r="AD261" s="7"/>
     </row>
-    <row r="262" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="262" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D262" s="18">
         <v>1</v>
       </c>
-      <c r="E262" s="74"/>
+      <c r="E262" s="67"/>
       <c r="AC262" s="10"/>
       <c r="AD262" s="7"/>
     </row>
-    <row r="263" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="263" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D263" s="19">
         <v>1</v>
       </c>
-      <c r="E263" s="75"/>
+      <c r="E263" s="68"/>
       <c r="AC263" s="10"/>
       <c r="AD263" s="7"/>
     </row>
-    <row r="264" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="264" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D264" s="18">
         <v>1</v>
       </c>
-      <c r="E264" s="74"/>
+      <c r="E264" s="67"/>
       <c r="AC264" s="10"/>
       <c r="AD264" s="7"/>
     </row>
-    <row r="265" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="265" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D265" s="19">
         <v>1</v>
       </c>
-      <c r="E265" s="75"/>
+      <c r="E265" s="68"/>
       <c r="AC265" s="10"/>
       <c r="AD265" s="7"/>
     </row>
-    <row r="266" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="266" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D266" s="18">
         <v>1</v>
       </c>
-      <c r="E266" s="74"/>
+      <c r="E266" s="67"/>
       <c r="AC266" s="10"/>
       <c r="AD266" s="7"/>
     </row>
-    <row r="267" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="267" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D267" s="19">
         <v>1</v>
       </c>
-      <c r="E267" s="75"/>
+      <c r="E267" s="68"/>
       <c r="AC267" s="10"/>
       <c r="AD267" s="7"/>
     </row>
-    <row r="268" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="268" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D268" s="18">
         <v>1</v>
       </c>
-      <c r="E268" s="74"/>
+      <c r="E268" s="67"/>
       <c r="AC268" s="10"/>
       <c r="AD268" s="7"/>
     </row>
-    <row r="269" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="269" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D269" s="19">
         <v>1</v>
       </c>
-      <c r="E269" s="75"/>
+      <c r="E269" s="68"/>
       <c r="AC269" s="10"/>
       <c r="AD269" s="7"/>
     </row>
-    <row r="270" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="270" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D270" s="18">
         <v>1</v>
       </c>
-      <c r="E270" s="74"/>
+      <c r="E270" s="67"/>
       <c r="AC270" s="10"/>
       <c r="AD270" s="7"/>
     </row>
-    <row r="271" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="271" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D271" s="19">
         <v>1</v>
       </c>
-      <c r="E271" s="75"/>
-      <c r="AC271" s="10"/>
-      <c r="AD271" s="7"/>
-    </row>
-    <row r="272" spans="4:30" x14ac:dyDescent="0.2">
+      <c r="E271" s="68"/>
+    </row>
+    <row r="272" spans="4:30" x14ac:dyDescent="0.35">
       <c r="D272" s="18">
         <v>1</v>
       </c>
-      <c r="E272" s="74"/>
-      <c r="AC272" s="10"/>
-      <c r="AD272" s="7"/>
-    </row>
-    <row r="273" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E272" s="67"/>
+    </row>
+    <row r="273" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D273" s="19">
         <v>1</v>
       </c>
-      <c r="E273" s="75"/>
-    </row>
-    <row r="274" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E273" s="68"/>
+    </row>
+    <row r="274" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D274" s="18">
         <v>1</v>
       </c>
-      <c r="E274" s="74"/>
-    </row>
-    <row r="275" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E274" s="67"/>
+    </row>
+    <row r="275" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D275" s="19">
         <v>1</v>
       </c>
-      <c r="E275" s="75"/>
-    </row>
-    <row r="276" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E275" s="68"/>
+    </row>
+    <row r="276" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D276" s="18">
         <v>1</v>
       </c>
-      <c r="E276" s="74"/>
-    </row>
-    <row r="277" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E276" s="67"/>
+    </row>
+    <row r="277" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D277" s="19">
         <v>1</v>
       </c>
-      <c r="E277" s="75"/>
-    </row>
-    <row r="278" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E277" s="68"/>
+    </row>
+    <row r="278" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D278" s="18">
         <v>1</v>
       </c>
-      <c r="E278" s="74"/>
-    </row>
-    <row r="279" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E278" s="67"/>
+    </row>
+    <row r="279" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D279" s="19">
         <v>1</v>
       </c>
-      <c r="E279" s="75"/>
-    </row>
-    <row r="280" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E279" s="68"/>
+    </row>
+    <row r="280" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D280" s="18">
         <v>1</v>
       </c>
-      <c r="E280" s="74"/>
-    </row>
-    <row r="281" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E280" s="67"/>
+    </row>
+    <row r="281" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D281" s="19">
         <v>1</v>
       </c>
-      <c r="E281" s="75"/>
-    </row>
-    <row r="282" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E281" s="68"/>
+    </row>
+    <row r="282" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D282" s="18">
         <v>1</v>
       </c>
-      <c r="E282" s="74"/>
-    </row>
-    <row r="283" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E282" s="67"/>
+    </row>
+    <row r="283" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D283" s="19">
         <v>1</v>
       </c>
-      <c r="E283" s="75"/>
-    </row>
-    <row r="284" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E283" s="68"/>
+    </row>
+    <row r="284" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D284" s="18">
         <v>1</v>
       </c>
-      <c r="E284" s="74"/>
-    </row>
-    <row r="285" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E284" s="67"/>
+    </row>
+    <row r="285" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D285" s="19">
         <v>1</v>
       </c>
-      <c r="E285" s="75"/>
-    </row>
-    <row r="286" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E285" s="68"/>
+    </row>
+    <row r="286" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D286" s="18">
         <v>1</v>
       </c>
-      <c r="E286" s="74"/>
-    </row>
-    <row r="287" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E286" s="67"/>
+    </row>
+    <row r="287" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D287" s="19">
         <v>1</v>
       </c>
-      <c r="E287" s="75"/>
-    </row>
-    <row r="288" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E287" s="68"/>
+    </row>
+    <row r="288" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D288" s="18">
         <v>1</v>
       </c>
-      <c r="E288" s="74"/>
-    </row>
-    <row r="289" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E288" s="67"/>
+    </row>
+    <row r="289" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D289" s="19">
         <v>1</v>
       </c>
-      <c r="E289" s="75"/>
-    </row>
-    <row r="290" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E289" s="68"/>
+    </row>
+    <row r="290" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D290" s="18">
         <v>1</v>
       </c>
-      <c r="E290" s="74"/>
-    </row>
-    <row r="291" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E290" s="67"/>
+    </row>
+    <row r="291" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D291" s="19">
         <v>1</v>
       </c>
-      <c r="E291" s="75"/>
-    </row>
-    <row r="292" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E291" s="68"/>
+    </row>
+    <row r="292" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D292" s="18">
         <v>1</v>
       </c>
-      <c r="E292" s="74"/>
-    </row>
-    <row r="293" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E292" s="67"/>
+    </row>
+    <row r="293" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D293" s="19">
         <v>1</v>
       </c>
-      <c r="E293" s="75"/>
-    </row>
-    <row r="294" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E293" s="68"/>
+    </row>
+    <row r="294" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D294" s="18">
         <v>1</v>
       </c>
-      <c r="E294" s="74"/>
-    </row>
-    <row r="295" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E294" s="67"/>
+    </row>
+    <row r="295" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D295" s="19">
         <v>1</v>
       </c>
-      <c r="E295" s="75"/>
-    </row>
-    <row r="296" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E295" s="68"/>
+    </row>
+    <row r="296" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D296" s="18">
         <v>1</v>
       </c>
-      <c r="E296" s="74"/>
-    </row>
-    <row r="297" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E296" s="67"/>
+    </row>
+    <row r="297" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D297" s="19">
         <v>1</v>
       </c>
-      <c r="E297" s="75"/>
-    </row>
-    <row r="298" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E297" s="68"/>
+    </row>
+    <row r="298" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D298" s="18">
         <v>1</v>
       </c>
-      <c r="E298" s="74"/>
-    </row>
-    <row r="299" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E298" s="67"/>
+    </row>
+    <row r="299" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D299" s="19">
         <v>1</v>
       </c>
-      <c r="E299" s="75"/>
-    </row>
-    <row r="300" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E299" s="68"/>
+    </row>
+    <row r="300" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D300" s="18">
         <v>1</v>
       </c>
-      <c r="E300" s="74"/>
-    </row>
-    <row r="301" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E300" s="67"/>
+    </row>
+    <row r="301" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D301" s="19">
         <v>1</v>
       </c>
-      <c r="E301" s="75"/>
-    </row>
-    <row r="302" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E301" s="68"/>
+    </row>
+    <row r="302" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D302" s="18">
         <v>1</v>
       </c>
-      <c r="E302" s="74"/>
-    </row>
-    <row r="303" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E302" s="67"/>
+    </row>
+    <row r="303" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D303" s="19">
         <v>1</v>
       </c>
-      <c r="E303" s="75"/>
-    </row>
-    <row r="304" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E303" s="68"/>
+    </row>
+    <row r="304" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D304" s="18">
         <v>1</v>
       </c>
-      <c r="E304" s="74"/>
-    </row>
-    <row r="305" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E304" s="67"/>
+    </row>
+    <row r="305" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D305" s="19">
         <v>1</v>
       </c>
-      <c r="E305" s="75"/>
-    </row>
-    <row r="306" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E305" s="68"/>
+    </row>
+    <row r="306" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D306" s="18">
         <v>1</v>
       </c>
-      <c r="E306" s="74"/>
-    </row>
-    <row r="307" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E306" s="67"/>
+    </row>
+    <row r="307" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D307" s="19">
         <v>1</v>
       </c>
-      <c r="E307" s="75"/>
-    </row>
-    <row r="308" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E307" s="68"/>
+    </row>
+    <row r="308" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D308" s="18">
         <v>1</v>
       </c>
-      <c r="E308" s="74"/>
-    </row>
-    <row r="309" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E308" s="67"/>
+    </row>
+    <row r="309" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D309" s="19">
         <v>1</v>
       </c>
-      <c r="E309" s="75"/>
-    </row>
-    <row r="310" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E309" s="68"/>
+    </row>
+    <row r="310" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D310" s="18">
         <v>1</v>
       </c>
-      <c r="E310" s="74"/>
-    </row>
-    <row r="311" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E310" s="67"/>
+    </row>
+    <row r="311" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D311" s="19">
         <v>1</v>
       </c>
-      <c r="E311" s="75"/>
-    </row>
-    <row r="312" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E311" s="68"/>
+    </row>
+    <row r="312" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D312" s="18">
         <v>1</v>
       </c>
-      <c r="E312" s="74"/>
-    </row>
-    <row r="313" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E312" s="67"/>
+    </row>
+    <row r="313" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D313" s="19">
         <v>1</v>
       </c>
-      <c r="E313" s="75"/>
-    </row>
-    <row r="314" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E313" s="68"/>
+    </row>
+    <row r="314" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D314" s="18">
         <v>1</v>
       </c>
-      <c r="E314" s="74"/>
-    </row>
-    <row r="315" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E314" s="67"/>
+    </row>
+    <row r="315" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D315" s="19">
         <v>1</v>
       </c>
-      <c r="E315" s="75"/>
-    </row>
-    <row r="316" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D316" s="18">
-        <v>1</v>
-      </c>
-      <c r="E316" s="74"/>
-    </row>
-    <row r="317" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D317" s="19">
-        <v>1</v>
-      </c>
-      <c r="E317" s="75"/>
+      <c r="E315" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -7822,14 +7762,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="61.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -7845,108 +7785,108 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="56"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="56"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="56" t="s">
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C7" s="56" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="56" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C8" s="56" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="56" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C9" s="56" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="56" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C10" s="56" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="56" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C11" s="56" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="56" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C13" s="56"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="56" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="56" t="s">
+      <c r="C14" s="56"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="56"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="56" t="s">
+      <c r="C15" s="56"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="56"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="56" t="s">
+      <c r="C16" s="56"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="56"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="56" t="s">
+      <c r="C17" s="56"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="56"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="56" t="s">
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="56"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="56" t="s">
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="56" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="56" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="56" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/gantt_chart.xlsx
+++ b/gantt_chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlawson\Documents\GitHub\hfm_integration_demonstration_plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB3642DC-7218-4D9F-8E2D-460B0B96F7E6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5532A46F-0A79-4467-94A8-92545DC0FC80}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="460" windowWidth="32460" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="148">
   <si>
     <t>1.1.1</t>
   </si>
@@ -470,13 +470,10 @@
     <t>Yellow cell indicate decision points and/or milestones</t>
   </si>
   <si>
-    <t>ABL eqn/IC/BC development *</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>ABL eqn/IC/BC development*</t>
+    <t xml:space="preserve">ABL eqn/IC/BC development </t>
+  </si>
+  <si>
+    <t>ABL eqn/IC/BC development</t>
   </si>
 </sst>
 </file>
@@ -793,7 +790,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -909,6 +906,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -924,23 +934,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="4" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1228,8 +1221,8 @@
   <dimension ref="A1:AK315"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1277,97 +1270,97 @@
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="64"/>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71" t="s">
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71" t="s">
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="71"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
     </row>
     <row r="2" spans="1:37" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="64"/>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="75" t="s">
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="73" t="s">
+      <c r="J2" s="84"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="73"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="75" t="s">
+      <c r="M2" s="84"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="75" t="s">
+      <c r="P2" s="84"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="73"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="75" t="s">
+      <c r="S2" s="84"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="73"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="73" t="s">
+      <c r="V2" s="84"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="73" t="s">
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="75" t="s">
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="73" t="s">
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="74"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="85"/>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
@@ -2050,102 +2043,98 @@
       <c r="AI16" s="41"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A17" s="76" t="s">
+      <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="77" t="s">
+      <c r="B17" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="79" t="s">
+      <c r="D17" s="72" t="s">
         <v>120</v>
       </c>
       <c r="E17" t="s">
         <v>146</v>
       </c>
       <c r="F17" s="39"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="55" t="s">
-        <v>147</v>
-      </c>
+      <c r="G17" s="73"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="55"/>
       <c r="M17" s="53"/>
       <c r="N17" s="54"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="80"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="82"/>
-      <c r="V17" s="80"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="80"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="83"/>
-      <c r="AB17" s="80"/>
-      <c r="AC17" s="81"/>
-      <c r="AD17" s="82"/>
-      <c r="AE17" s="80"/>
-      <c r="AF17" s="81"/>
-      <c r="AG17" s="83"/>
-      <c r="AH17" s="80"/>
-      <c r="AI17" s="81"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="74"/>
+      <c r="X17" s="76"/>
+      <c r="Y17" s="73"/>
+      <c r="Z17" s="74"/>
+      <c r="AA17" s="76"/>
+      <c r="AB17" s="73"/>
+      <c r="AC17" s="74"/>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="73"/>
+      <c r="AF17" s="74"/>
+      <c r="AG17" s="76"/>
+      <c r="AH17" s="73"/>
+      <c r="AI17" s="74"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A18" s="76" t="s">
+      <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="B18" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="79" t="s">
+      <c r="D18" s="72" t="s">
         <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F18" s="39"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="55" t="s">
-        <v>147</v>
-      </c>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="55"/>
       <c r="M18" s="53"/>
       <c r="N18" s="54"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="82"/>
-      <c r="S18" s="80"/>
-      <c r="T18" s="81"/>
-      <c r="U18" s="82"/>
-      <c r="V18" s="80"/>
-      <c r="W18" s="81"/>
-      <c r="X18" s="83"/>
-      <c r="Y18" s="80"/>
-      <c r="Z18" s="81"/>
-      <c r="AA18" s="83"/>
-      <c r="AB18" s="80"/>
-      <c r="AC18" s="81"/>
-      <c r="AD18" s="82"/>
-      <c r="AE18" s="80"/>
-      <c r="AF18" s="81"/>
-      <c r="AG18" s="83"/>
-      <c r="AH18" s="80"/>
-      <c r="AI18" s="81"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="76"/>
+      <c r="Y18" s="73"/>
+      <c r="Z18" s="74"/>
+      <c r="AA18" s="76"/>
+      <c r="AB18" s="73"/>
+      <c r="AC18" s="74"/>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="73"/>
+      <c r="AF18" s="74"/>
+      <c r="AG18" s="76"/>
+      <c r="AH18" s="73"/>
+      <c r="AI18" s="74"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
@@ -2229,12 +2218,12 @@
       <c r="X20" s="52"/>
       <c r="Y20" s="53"/>
       <c r="Z20" s="61"/>
-      <c r="AA20" s="84"/>
-      <c r="AB20" s="85"/>
-      <c r="AC20" s="86"/>
-      <c r="AD20" s="87"/>
-      <c r="AE20" s="85"/>
-      <c r="AF20" s="86"/>
+      <c r="AA20" s="77"/>
+      <c r="AB20" s="78"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="80"/>
+      <c r="AE20" s="78"/>
+      <c r="AF20" s="79"/>
       <c r="AG20" s="12"/>
       <c r="AH20" s="8"/>
       <c r="AI20" s="14"/>
@@ -2277,12 +2266,12 @@
       <c r="AA21" s="52"/>
       <c r="AB21" s="53"/>
       <c r="AC21" s="54"/>
-      <c r="AD21" s="88"/>
+      <c r="AD21" s="81"/>
       <c r="AE21" s="8"/>
-      <c r="AF21" s="86"/>
-      <c r="AG21" s="84"/>
-      <c r="AH21" s="85"/>
-      <c r="AI21" s="86"/>
+      <c r="AF21" s="79"/>
+      <c r="AG21" s="77"/>
+      <c r="AH21" s="78"/>
+      <c r="AI21" s="79"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>

--- a/gantt_chart.xlsx
+++ b/gantt_chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mlawson/Documents/GitHub/hfm_integration_demonstration_plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26150A0-106D-4047-B460-4A4E20EE6F3C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20B31035-691C-CE4A-A16C-68708804B4AD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="460" windowWidth="32460" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="460" windowWidth="66060" windowHeight="37340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ECP Integration &amp; Demonstration" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="148">
   <si>
     <t>1.1.1</t>
   </si>
@@ -146,9 +146,6 @@
     <t>2.1.5</t>
   </si>
   <si>
-    <t>2.1.6</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.1.4 </t>
   </si>
   <si>
@@ -293,194 +290,197 @@
     <t>Herges/Knaus</t>
   </si>
   <si>
+    <t>1.1.7</t>
+  </si>
+  <si>
+    <t>Mesh capability for active wake steering during simulation</t>
+  </si>
+  <si>
+    <t>1.1.8</t>
+  </si>
+  <si>
+    <t>Mixed Actuator Disc/AL</t>
+  </si>
+  <si>
+    <t>DAKOTA link for MLMF sampling</t>
+  </si>
+  <si>
+    <t>Frankel</t>
+  </si>
+  <si>
+    <t>Validation cases</t>
+  </si>
+  <si>
+    <t>Initial SWiFT case</t>
+  </si>
+  <si>
+    <t>Q3 Fy18</t>
+  </si>
+  <si>
+    <t>SWiFT UQ Case</t>
+  </si>
+  <si>
+    <t>Q4 FY18</t>
+  </si>
+  <si>
+    <t>SWiFT stable case</t>
+  </si>
+  <si>
+    <t>Q2Fy18</t>
+  </si>
+  <si>
+    <t>SWiFT Unstable case</t>
+  </si>
+  <si>
+    <t>Q3FY18</t>
+  </si>
+  <si>
+    <t>SWiFT stable, active Wake steering</t>
+  </si>
+  <si>
+    <t>Q4Fy18</t>
+  </si>
+  <si>
+    <t>SWiFT MLMF statistical analysis</t>
+  </si>
+  <si>
+    <t>Q2FY19</t>
+  </si>
+  <si>
+    <t>DanAero blade?</t>
+  </si>
+  <si>
+    <t>Siemens blade?</t>
+  </si>
+  <si>
+    <t>GE?</t>
+  </si>
+  <si>
+    <t>Rodsand II</t>
+  </si>
+  <si>
+    <t>OWEZ</t>
+  </si>
+  <si>
+    <t>MEXICO</t>
+  </si>
+  <si>
+    <t>Phase VI</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Person Weeks</t>
+  </si>
+  <si>
+    <t>Lawson, Shreyas</t>
+  </si>
+  <si>
+    <t>Overset group. Other method for wake movement?</t>
+  </si>
+  <si>
+    <t>Actuator disc capability (Actuator Disk/Line Group)</t>
+  </si>
+  <si>
+    <t>Tony, Matt C</t>
+  </si>
+  <si>
+    <t>1PM</t>
+  </si>
+  <si>
+    <t>Wind farm inflow and wake stats advanced capibilities</t>
+  </si>
+  <si>
+    <t>1PM @ quarter time</t>
+  </si>
+  <si>
+    <t>Blaylock / Shashank / Tony</t>
+  </si>
+  <si>
+    <t>Ganesh / Blaylock</t>
+  </si>
+  <si>
+    <t>Whole team</t>
+  </si>
+  <si>
+    <t>2PM @ half time</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Notes: Is there a disconnect between WD and HFM/ECP? How can this be improved?  A high level question for A2e management / Pis</t>
+  </si>
+  <si>
+    <t>Improved DAKOTA coupling for ABL and AL simulations</t>
+  </si>
+  <si>
+    <t>Frankel, Geraci</t>
+  </si>
+  <si>
+    <t>1 PM, quarter time</t>
+  </si>
+  <si>
+    <t>meshing/nesting, precursor, UQ</t>
+  </si>
+  <si>
+    <t>DAKOTA coupling for AAL</t>
+  </si>
+  <si>
+    <t>0.5pm (.15 for 3 months)</t>
+  </si>
+  <si>
+    <t>AAL, UQ</t>
+  </si>
+  <si>
+    <t>1PM (.3 for 3 months)</t>
+  </si>
+  <si>
+    <t>UQ, overlap WD</t>
+  </si>
+  <si>
+    <t>Shreyas, Blaylock</t>
+  </si>
+  <si>
+    <t>3PM (.25 for 4qtr)</t>
+  </si>
+  <si>
+    <t>Depends on gaps from WD validation studies</t>
+  </si>
+  <si>
+    <t>NREL 5 MW data processing and publication</t>
+  </si>
+  <si>
+    <t>3.1.14</t>
+  </si>
+  <si>
+    <t>Decision on what turbine we will use for blade resolved simulations</t>
+  </si>
+  <si>
+    <t>ML, MS, SA</t>
+  </si>
+  <si>
+    <t>FSI capibility, RANS-LES capibiulity</t>
+  </si>
+  <si>
+    <t>Yellow cell indicate decision points and/or milestones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABL eqn/IC/BC development </t>
+  </si>
+  <si>
     <t>ABL eqn/IC/BC development</t>
   </si>
   <si>
-    <t>1.1.7</t>
-  </si>
-  <si>
-    <t>Mesh capability for active wake steering during simulation</t>
-  </si>
-  <si>
-    <t>1.1.8</t>
-  </si>
-  <si>
-    <t>Mixed Actuator Disc/AL</t>
-  </si>
-  <si>
-    <t>DAKOTA link for MLMF sampling</t>
-  </si>
-  <si>
-    <t>Frankel</t>
-  </si>
-  <si>
-    <t>Validation cases</t>
-  </si>
-  <si>
-    <t>Initial SWiFT case</t>
-  </si>
-  <si>
-    <t>Q3 Fy18</t>
-  </si>
-  <si>
-    <t>SWiFT UQ Case</t>
-  </si>
-  <si>
-    <t>Q4 FY18</t>
-  </si>
-  <si>
-    <t>SWiFT stable case</t>
-  </si>
-  <si>
-    <t>Q2Fy18</t>
-  </si>
-  <si>
-    <t>SWiFT Unstable case</t>
-  </si>
-  <si>
-    <t>Q3FY18</t>
-  </si>
-  <si>
-    <t>SWiFT stable, active Wake steering</t>
-  </si>
-  <si>
-    <t>Q4Fy18</t>
-  </si>
-  <si>
-    <t>SWiFT MLMF statistical analysis</t>
-  </si>
-  <si>
-    <t>Q2FY19</t>
-  </si>
-  <si>
-    <t>DanAero blade?</t>
-  </si>
-  <si>
-    <t>Siemens blade?</t>
-  </si>
-  <si>
-    <t>GE?</t>
-  </si>
-  <si>
-    <t>Rodsand II</t>
-  </si>
-  <si>
-    <t>OWEZ</t>
-  </si>
-  <si>
-    <t>MEXICO</t>
-  </si>
-  <si>
-    <t>Phase VI</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>Person Weeks</t>
-  </si>
-  <si>
-    <t>Lawson, Shreyas</t>
-  </si>
-  <si>
-    <t>Overset group. Other method for wake movement?</t>
-  </si>
-  <si>
-    <t>Actuator disc capability (Actuator Disk/Line Group)</t>
-  </si>
-  <si>
-    <t>Tony, Matt C</t>
-  </si>
-  <si>
-    <t>1PM</t>
-  </si>
-  <si>
-    <t>Wind farm inflow and wake stats advanced capibilities</t>
-  </si>
-  <si>
-    <t>1PM @ quarter time</t>
-  </si>
-  <si>
-    <t>Blaylock / Shashank / Tony</t>
-  </si>
-  <si>
-    <t>Ganesh / Blaylock</t>
-  </si>
-  <si>
-    <t>Whole team</t>
-  </si>
-  <si>
-    <t>2PM @ half time</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>Notes: Is there a disconnect between WD and HFM/ECP? How can this be improved?  A high level question for A2e management / Pis</t>
-  </si>
-  <si>
-    <t>Improved DAKOTA coupling for ABL and AL simulations</t>
-  </si>
-  <si>
-    <t>Frankel, Geraci</t>
-  </si>
-  <si>
-    <t>1 PM, quarter time</t>
-  </si>
-  <si>
-    <t>meshing/nesting, precursor, UQ</t>
-  </si>
-  <si>
-    <t>DAKOTA coupling for AAL</t>
-  </si>
-  <si>
-    <t>0.5pm (.15 for 3 months)</t>
-  </si>
-  <si>
-    <t>AAL, UQ</t>
-  </si>
-  <si>
-    <t>3PM (.33 for 4qtr)</t>
-  </si>
-  <si>
-    <t>1PM (.3 for 3 months)</t>
-  </si>
-  <si>
-    <t>UQ, overlap WD</t>
-  </si>
-  <si>
-    <t>Shreyas, Blaylock</t>
-  </si>
-  <si>
-    <t>3PM (.25 for 4qtr)</t>
-  </si>
-  <si>
-    <t>Depends on gaps from WD validation studies</t>
-  </si>
-  <si>
-    <t>NREL 5 MW data processing and publication</t>
-  </si>
-  <si>
-    <t>3.1.14</t>
-  </si>
-  <si>
-    <t>Decision on what turbine we will use for blade resolved simulations</t>
-  </si>
-  <si>
-    <t>ML, MS, SA</t>
-  </si>
-  <si>
-    <t>FSI capibility, RANS-LES capibiulity</t>
-  </si>
-  <si>
-    <t>Yellow cell indicate decision points and/or milestones</t>
+    <t>Uncertinity and coordination between the ABL team and the integration/demo team is needed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -547,15 +547,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,6 +574,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -784,7 +783,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -872,17 +871,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="4" applyBorder="1"/>
@@ -890,9 +880,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -910,6 +897,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -925,14 +926,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{86CDE7DA-BFC6-A046-B759-A702721CAA6B}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1210,11 +1214,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK317"/>
+  <dimension ref="A1:AK315"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1223,7 +1227,7 @@
     <col min="2" max="2" width="67.1640625" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.1640625" style="76" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" style="68" customWidth="1"/>
     <col min="6" max="6" width="4.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.5" style="5" customWidth="1"/>
@@ -1261,98 +1265,98 @@
     <row r="1" spans="1:37" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="78" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77" t="s">
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77" t="s">
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
     </row>
     <row r="2" spans="1:37" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="79" t="s">
+      <c r="E2" s="63"/>
+      <c r="F2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="81" t="s">
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="79" t="s">
+      <c r="J2" s="83"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="79"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="81" t="s">
+      <c r="M2" s="83"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="81" t="s">
+      <c r="P2" s="83"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="79"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="81" t="s">
+      <c r="S2" s="83"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="79"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="79" t="s">
+      <c r="V2" s="83"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="79" t="s">
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="81" t="s">
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="79" t="s">
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="80"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="84"/>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1362,13 +1366,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="70" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>48</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>32</v>
@@ -1466,14 +1470,14 @@
         <v>15</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="8"/>
@@ -1511,13 +1515,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="32"/>
-      <c r="E5" s="69"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="52"/>
       <c r="G5" s="53"/>
       <c r="H5"/>
@@ -1555,10 +1559,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>86</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="47"/>
@@ -1594,21 +1598,21 @@
       <c r="AI6" s="14"/>
       <c r="AK6" s="21"/>
     </row>
-    <row r="7" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="E7" s="62" t="s">
         <v>130</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="69" t="s">
-        <v>132</v>
       </c>
       <c r="F7"/>
       <c r="G7" s="8"/>
@@ -1618,7 +1622,7 @@
       <c r="K7" s="54"/>
       <c r="L7" s="52"/>
       <c r="M7" s="53"/>
-      <c r="N7" s="67"/>
+      <c r="N7" s="60"/>
       <c r="O7" s="15"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="14"/>
@@ -1642,21 +1646,21 @@
       <c r="AI7" s="14"/>
       <c r="AK7" s="21"/>
     </row>
-    <row r="8" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="62" t="s">
         <v>133</v>
-      </c>
-      <c r="C8" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="69" t="s">
-        <v>135</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="8"/>
@@ -1689,21 +1693,21 @@
       <c r="AH8" s="8"/>
       <c r="AI8" s="14"/>
     </row>
-    <row r="9" spans="1:37" s="66" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" s="59" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="69" t="s">
-        <v>117</v>
+        <v>137</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>115</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="8"/>
@@ -1719,7 +1723,7 @@
       <c r="Q9" s="54"/>
       <c r="R9" s="55"/>
       <c r="S9" s="53"/>
-      <c r="T9" s="67"/>
+      <c r="T9" s="60"/>
       <c r="U9" s="15"/>
       <c r="V9" s="8"/>
       <c r="W9" s="14"/>
@@ -1737,21 +1741,21 @@
       <c r="AI9" s="14"/>
       <c r="AJ9"/>
     </row>
-    <row r="10" spans="1:37" s="66" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" s="59" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="69" t="s">
         <v>118</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>116</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="8"/>
@@ -1787,19 +1791,19 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="69" t="s">
-        <v>138</v>
+        <v>134</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>135</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="8"/>
@@ -1834,19 +1838,19 @@
     </row>
     <row r="12" spans="1:37" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="E12" s="69" t="s">
-        <v>141</v>
+        <v>137</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>138</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="8"/>
@@ -1865,7 +1869,7 @@
       <c r="T12" s="54"/>
       <c r="U12" s="55"/>
       <c r="V12" s="53"/>
-      <c r="W12" s="67"/>
+      <c r="W12" s="60"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="14"/>
@@ -1885,7 +1889,7 @@
       <c r="B13" s="48"/>
       <c r="C13" s="21"/>
       <c r="D13" s="32"/>
-      <c r="E13" s="69"/>
+      <c r="E13" s="62"/>
       <c r="F13" s="12"/>
       <c r="G13" s="8"/>
       <c r="H13" s="14"/>
@@ -1922,7 +1926,7 @@
       <c r="B14" s="48"/>
       <c r="C14" s="21"/>
       <c r="D14" s="32"/>
-      <c r="E14" s="69"/>
+      <c r="E14" s="62"/>
       <c r="F14" s="12"/>
       <c r="G14" s="8"/>
       <c r="H14" s="14"/>
@@ -1959,13 +1963,13 @@
       <c r="B15" s="48"/>
       <c r="C15" s="21"/>
       <c r="D15" s="32"/>
-      <c r="E15" s="69"/>
+      <c r="E15" s="62"/>
       <c r="F15" s="12"/>
       <c r="G15" s="8"/>
       <c r="H15" s="14"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="64"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="58"/>
       <c r="L15" s="12"/>
       <c r="M15" s="8"/>
       <c r="N15" s="14"/>
@@ -1996,13 +2000,13 @@
         <v>33</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="24"/>
-      <c r="E16" s="50"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="39"/>
       <c r="G16" s="40"/>
       <c r="H16" s="41"/>
@@ -2034,156 +2038,161 @@
       <c r="AH16" s="40"/>
       <c r="AI16" s="41"/>
     </row>
-    <row r="17" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57" t="s">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="74"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="75"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="73"/>
+      <c r="AA17" s="75"/>
+      <c r="AB17" s="72"/>
+      <c r="AC17" s="73"/>
+      <c r="AD17" s="74"/>
+      <c r="AE17" s="72"/>
+      <c r="AF17" s="73"/>
+      <c r="AG17" s="75"/>
+      <c r="AH17" s="72"/>
+      <c r="AI17" s="73"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="32" t="s">
+      <c r="C18" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="86" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="39"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="75"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="73"/>
+      <c r="AA18" s="75"/>
+      <c r="AB18" s="72"/>
+      <c r="AC18" s="73"/>
+      <c r="AD18" s="74"/>
+      <c r="AE18" s="72"/>
+      <c r="AF18" s="73"/>
+      <c r="AG18" s="75"/>
+      <c r="AH18" s="72"/>
+      <c r="AI18" s="73"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="59"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="60"/>
-      <c r="Z17" s="61"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="60"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="62"/>
-      <c r="AE17" s="60"/>
-      <c r="AF17" s="61"/>
-      <c r="AG17" s="59"/>
-      <c r="AH17" s="60"/>
-      <c r="AI17" s="61"/>
-    </row>
-    <row r="18" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="59"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="61"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="60"/>
-      <c r="W18" s="61"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="60"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="60"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="62"/>
-      <c r="AE18" s="60"/>
-      <c r="AF18" s="61"/>
-      <c r="AG18" s="59"/>
-      <c r="AH18" s="60"/>
-      <c r="AI18" s="61"/>
-    </row>
-    <row r="19" spans="1:35" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="58"/>
-      <c r="C19" s="46" t="s">
-        <v>123</v>
-      </c>
       <c r="D19" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="71"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="60"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="60"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="60"/>
-      <c r="AC19" s="61"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="60"/>
-      <c r="AF19" s="61"/>
-      <c r="AG19" s="59"/>
-      <c r="AH19" s="60"/>
-      <c r="AI19" s="61"/>
+        <v>124</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="14"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="48" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="69" t="s">
-        <v>65</v>
-      </c>
+      <c r="E20" s="25"/>
       <c r="F20" s="12"/>
       <c r="G20" s="8"/>
       <c r="H20" s="14"/>
@@ -2199,46 +2208,46 @@
       <c r="R20" s="15"/>
       <c r="S20" s="8"/>
       <c r="T20" s="14"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="14"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="60"/>
+      <c r="AA20" s="76"/>
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="78"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="77"/>
+      <c r="AF20" s="78"/>
       <c r="AG20" s="12"/>
       <c r="AH20" s="8"/>
       <c r="AI20" s="14"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" s="48" t="s">
         <v>81</v>
       </c>
       <c r="C21" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="D21" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="47"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="12"/>
       <c r="G21" s="8"/>
       <c r="H21" s="14"/>
       <c r="I21" s="15"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="15"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="12"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="15"/>
@@ -2249,41 +2258,33 @@
       <c r="W21" s="14"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="8"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="15"/>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="53"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="80"/>
       <c r="AE21" s="8"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="14"/>
+      <c r="AF21" s="78"/>
+      <c r="AG21" s="76"/>
+      <c r="AH21" s="77"/>
+      <c r="AI21" s="78"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="47"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="62"/>
       <c r="F22" s="12"/>
       <c r="G22" s="8"/>
       <c r="H22" s="14"/>
       <c r="I22" s="15"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="12"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="15"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="15"/>
@@ -2306,12 +2307,18 @@
       <c r="AI22" s="14"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="25"/>
+      <c r="A23" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>113</v>
+      </c>
       <c r="E23" s="47"/>
       <c r="F23" s="12"/>
       <c r="G23" s="8"/>
@@ -2322,7 +2329,7 @@
       <c r="L23" s="15"/>
       <c r="M23" s="8"/>
       <c r="N23" s="14"/>
-      <c r="O23" s="12"/>
+      <c r="O23" s="15"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="15"/>
@@ -2345,11 +2352,21 @@
       <c r="AI23" s="14"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="69"/>
+      <c r="A24" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="32">
+        <v>1</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>65</v>
+      </c>
       <c r="F24" s="12"/>
       <c r="G24" s="8"/>
       <c r="H24" s="14"/>
@@ -2359,9 +2376,9 @@
       <c r="L24" s="15"/>
       <c r="M24" s="8"/>
       <c r="N24" s="14"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="14"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="60"/>
       <c r="R24" s="15"/>
       <c r="S24" s="8"/>
       <c r="T24" s="14"/>
@@ -2381,32 +2398,30 @@
       <c r="AH24" s="8"/>
       <c r="AI24" s="14"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>55</v>
+    <row r="25" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>141</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="47"/>
+        <v>142</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="62"/>
       <c r="F25" s="12"/>
       <c r="G25" s="8"/>
       <c r="H25" s="14"/>
       <c r="I25" s="15"/>
       <c r="J25" s="8"/>
       <c r="K25" s="14"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="14"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="60"/>
       <c r="R25" s="15"/>
       <c r="S25" s="8"/>
       <c r="T25" s="14"/>
@@ -2416,9 +2431,9 @@
       <c r="X25" s="12"/>
       <c r="Y25" s="8"/>
       <c r="Z25" s="14"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="14"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="36"/>
       <c r="AD25" s="15"/>
       <c r="AE25" s="8"/>
       <c r="AF25" s="14"/>
@@ -2431,16 +2446,16 @@
         <v>41</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D26" s="32">
-        <v>1</v>
-      </c>
-      <c r="E26" s="69" t="s">
-        <v>66</v>
+        <v>4</v>
+      </c>
+      <c r="E26" s="62" t="s">
+        <v>143</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="8"/>
@@ -2451,15 +2466,15 @@
       <c r="L26" s="15"/>
       <c r="M26" s="8"/>
       <c r="N26" s="14"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="14"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="54"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="8"/>
       <c r="Z26" s="14"/>
@@ -2473,42 +2488,43 @@
       <c r="AH26" s="8"/>
       <c r="AI26" s="14"/>
     </row>
-    <row r="27" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="69"/>
+        <v>69</v>
+      </c>
+      <c r="D27" s="32">
+        <v>2</v>
+      </c>
+      <c r="E27" s="62"/>
       <c r="F27" s="12"/>
       <c r="G27" s="8"/>
       <c r="H27" s="14"/>
       <c r="I27" s="15"/>
       <c r="J27" s="8"/>
       <c r="K27" s="14"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="67"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="14"/>
       <c r="R27" s="15"/>
       <c r="S27" s="8"/>
       <c r="T27" s="14"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="8"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="53"/>
       <c r="W27" s="14"/>
       <c r="X27" s="12"/>
-      <c r="Y27" s="8"/>
       <c r="Z27" s="14"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="35"/>
-      <c r="AC27" s="36"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="14"/>
       <c r="AD27" s="15"/>
       <c r="AE27" s="8"/>
       <c r="AF27" s="14"/>
@@ -2518,40 +2534,37 @@
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D28" s="32">
-        <v>4</v>
-      </c>
-      <c r="E28" s="69" t="s">
-        <v>146</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E28" s="62"/>
       <c r="F28" s="12"/>
       <c r="G28" s="8"/>
       <c r="H28" s="14"/>
       <c r="I28" s="15"/>
       <c r="J28" s="8"/>
       <c r="K28" s="14"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="14"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="36"/>
       <c r="O28" s="15"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="14"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="54"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="14"/>
       <c r="U28" s="55"/>
       <c r="V28" s="53"/>
-      <c r="W28" s="54"/>
+      <c r="W28" s="14"/>
       <c r="X28" s="12"/>
-      <c r="Y28" s="8"/>
       <c r="Z28" s="14"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="8"/>
@@ -2565,36 +2578,36 @@
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D29" s="32">
-        <v>2</v>
-      </c>
-      <c r="E29" s="69"/>
+        <v>4</v>
+      </c>
+      <c r="E29" s="62"/>
       <c r="F29" s="12"/>
       <c r="G29" s="8"/>
       <c r="H29" s="14"/>
       <c r="I29" s="15"/>
       <c r="J29" s="8"/>
       <c r="K29" s="14"/>
-      <c r="L29" s="15"/>
+      <c r="L29" s="12"/>
       <c r="M29" s="8"/>
       <c r="N29" s="14"/>
-      <c r="O29" s="15"/>
+      <c r="O29" s="12"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="14"/>
-      <c r="R29" s="15"/>
+      <c r="R29" s="12"/>
       <c r="S29" s="8"/>
       <c r="T29" s="14"/>
       <c r="U29" s="55"/>
       <c r="V29" s="53"/>
-      <c r="W29" s="14"/>
+      <c r="W29" s="60"/>
       <c r="X29" s="12"/>
       <c r="Z29" s="14"/>
       <c r="AA29" s="12"/>
@@ -2607,42 +2620,43 @@
       <c r="AH29" s="8"/>
       <c r="AI29" s="14"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D30" s="32">
-        <v>1</v>
-      </c>
-      <c r="E30" s="69"/>
+        <v>4</v>
+      </c>
+      <c r="E30" s="62"/>
       <c r="F30" s="12"/>
       <c r="G30" s="8"/>
       <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
+      <c r="I30" s="12"/>
       <c r="J30" s="8"/>
       <c r="K30" s="14"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="15"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="12"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="14"/>
-      <c r="R30" s="15"/>
+      <c r="R30" s="12"/>
       <c r="S30" s="8"/>
       <c r="T30" s="14"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="53"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="8"/>
       <c r="W30" s="14"/>
-      <c r="X30" s="12"/>
-      <c r="Z30" s="14"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="8"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="54"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="53"/>
       <c r="AC30" s="14"/>
       <c r="AD30" s="15"/>
       <c r="AE30" s="8"/>
@@ -2653,7 +2667,7 @@
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B31" s="48" t="s">
         <v>56</v>
@@ -2662,13 +2676,13 @@
         <v>67</v>
       </c>
       <c r="D31" s="32">
-        <v>4</v>
-      </c>
-      <c r="E31" s="69"/>
+        <v>6</v>
+      </c>
+      <c r="E31" s="62"/>
       <c r="F31" s="12"/>
       <c r="G31" s="8"/>
       <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
+      <c r="I31" s="12"/>
       <c r="J31" s="8"/>
       <c r="K31" s="14"/>
       <c r="L31" s="12"/>
@@ -2680,132 +2694,133 @@
       <c r="R31" s="12"/>
       <c r="S31" s="8"/>
       <c r="T31" s="14"/>
-      <c r="U31" s="55"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="67"/>
-      <c r="X31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="8"/>
       <c r="Z31" s="14"/>
-      <c r="AA31" s="12"/>
-      <c r="AB31" s="8"/>
-      <c r="AC31" s="14"/>
-      <c r="AD31" s="15"/>
-      <c r="AE31" s="8"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="54"/>
+      <c r="AD31" s="55"/>
+      <c r="AE31" s="53"/>
       <c r="AF31" s="14"/>
       <c r="AG31" s="12"/>
       <c r="AH31" s="8"/>
       <c r="AI31" s="14"/>
     </row>
-    <row r="32" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D32" s="32">
-        <v>4</v>
-      </c>
-      <c r="E32" s="69"/>
+        <v>2</v>
+      </c>
+      <c r="E32" s="62"/>
       <c r="F32" s="12"/>
       <c r="G32" s="8"/>
       <c r="H32" s="14"/>
-      <c r="I32" s="12"/>
+      <c r="I32" s="15"/>
       <c r="J32" s="8"/>
       <c r="K32" s="14"/>
       <c r="L32" s="12"/>
       <c r="M32" s="8"/>
       <c r="N32" s="14"/>
-      <c r="O32" s="12"/>
+      <c r="O32" s="15"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="14"/>
-      <c r="R32" s="12"/>
+      <c r="R32" s="15"/>
       <c r="S32" s="8"/>
       <c r="T32" s="14"/>
-      <c r="U32" s="12"/>
+      <c r="U32" s="15"/>
       <c r="V32" s="8"/>
       <c r="W32" s="14"/>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="53"/>
-      <c r="Z32" s="54"/>
-      <c r="AA32" s="52"/>
-      <c r="AB32" s="53"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="8"/>
       <c r="AC32" s="14"/>
-      <c r="AD32" s="15"/>
-      <c r="AE32" s="8"/>
-      <c r="AF32" s="14"/>
+      <c r="AD32" s="55"/>
+      <c r="AE32" s="53"/>
+      <c r="AF32" s="54"/>
       <c r="AG32" s="12"/>
       <c r="AH32" s="8"/>
       <c r="AI32" s="14"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D33" s="32">
-        <v>6</v>
-      </c>
-      <c r="E33" s="69"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="E33" s="47"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="15"/>
       <c r="M33" s="8"/>
       <c r="N33" s="14"/>
-      <c r="O33" s="12"/>
+      <c r="O33" s="15"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="14"/>
-      <c r="R33" s="12"/>
+      <c r="R33" s="15"/>
       <c r="S33" s="8"/>
       <c r="T33" s="14"/>
-      <c r="U33" s="12"/>
+      <c r="U33" s="15"/>
       <c r="V33" s="8"/>
       <c r="W33" s="14"/>
       <c r="X33" s="15"/>
       <c r="Y33" s="8"/>
       <c r="Z33" s="14"/>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="35"/>
-      <c r="AC33" s="54"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="14"/>
       <c r="AD33" s="55"/>
       <c r="AE33" s="53"/>
-      <c r="AF33" s="14"/>
-      <c r="AG33" s="12"/>
-      <c r="AH33" s="8"/>
-      <c r="AI33" s="14"/>
+      <c r="AF33" s="54"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="27"/>
+      <c r="AI33" s="28"/>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D34" s="32">
-        <v>2</v>
-      </c>
-      <c r="E34" s="69"/>
+        <v>6</v>
+      </c>
+      <c r="E34" s="62"/>
       <c r="F34" s="12"/>
       <c r="G34" s="8"/>
       <c r="H34" s="14"/>
       <c r="I34" s="15"/>
       <c r="J34" s="8"/>
       <c r="K34" s="14"/>
-      <c r="L34" s="12"/>
+      <c r="L34" s="15"/>
       <c r="M34" s="8"/>
       <c r="N34" s="14"/>
       <c r="O34" s="15"/>
@@ -2820,84 +2835,84 @@
       <c r="X34" s="15"/>
       <c r="Y34" s="8"/>
       <c r="Z34" s="14"/>
-      <c r="AA34" s="15"/>
+      <c r="AA34" s="12"/>
       <c r="AB34" s="8"/>
       <c r="AC34" s="14"/>
-      <c r="AD34" s="55"/>
-      <c r="AE34" s="53"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="8"/>
       <c r="AF34" s="54"/>
-      <c r="AG34" s="12"/>
-      <c r="AH34" s="8"/>
+      <c r="AG34" s="52"/>
+      <c r="AH34" s="61"/>
       <c r="AI34" s="14"/>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D35" s="32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E35" s="47"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="28"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="14"/>
       <c r="L35" s="15"/>
       <c r="M35" s="8"/>
       <c r="N35" s="14"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="14"/>
-      <c r="X35" s="15"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="12"/>
       <c r="Y35" s="8"/>
       <c r="Z35" s="14"/>
       <c r="AA35" s="12"/>
       <c r="AB35" s="8"/>
       <c r="AC35" s="14"/>
-      <c r="AD35" s="55"/>
-      <c r="AE35" s="53"/>
-      <c r="AF35" s="54"/>
-      <c r="AG35" s="26"/>
-      <c r="AH35" s="27"/>
-      <c r="AI35" s="28"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="14"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="53"/>
+      <c r="AI35" s="54"/>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D36" s="32">
-        <v>6</v>
-      </c>
-      <c r="E36" s="69"/>
+        <v>4</v>
+      </c>
+      <c r="E36" s="62"/>
       <c r="F36" s="12"/>
       <c r="G36" s="8"/>
       <c r="H36" s="14"/>
       <c r="I36" s="15"/>
       <c r="J36" s="8"/>
       <c r="K36" s="14"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="14"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="60"/>
       <c r="O36" s="15"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="14"/>
@@ -2907,7 +2922,7 @@
       <c r="U36" s="15"/>
       <c r="V36" s="8"/>
       <c r="W36" s="14"/>
-      <c r="X36" s="15"/>
+      <c r="X36" s="12"/>
       <c r="Y36" s="8"/>
       <c r="Z36" s="14"/>
       <c r="AA36" s="12"/>
@@ -2915,24 +2930,16 @@
       <c r="AC36" s="14"/>
       <c r="AD36" s="15"/>
       <c r="AE36" s="8"/>
-      <c r="AF36" s="54"/>
-      <c r="AG36" s="52"/>
-      <c r="AH36" s="68"/>
+      <c r="AF36" s="14"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="8"/>
       <c r="AI36" s="14"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="32">
-        <v>4</v>
-      </c>
+    <row r="37" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="47"/>
       <c r="F37" s="12"/>
       <c r="G37" s="8"/>
@@ -2943,51 +2950,43 @@
       <c r="L37" s="15"/>
       <c r="M37" s="8"/>
       <c r="N37" s="14"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="28"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="14"/>
       <c r="X37" s="12"/>
       <c r="Y37" s="8"/>
       <c r="Z37" s="14"/>
       <c r="AA37" s="12"/>
       <c r="AB37" s="8"/>
       <c r="AC37" s="14"/>
-      <c r="AD37" s="15"/>
-      <c r="AE37" s="8"/>
-      <c r="AF37" s="14"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="27"/>
+      <c r="AF37" s="28"/>
       <c r="AG37" s="12"/>
-      <c r="AH37" s="53"/>
-      <c r="AI37" s="54"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="14"/>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="32">
-        <v>4</v>
-      </c>
-      <c r="E38" s="69"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="47"/>
       <c r="F38" s="12"/>
       <c r="G38" s="8"/>
       <c r="H38" s="14"/>
       <c r="I38" s="15"/>
       <c r="J38" s="8"/>
       <c r="K38" s="14"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="67"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="14"/>
       <c r="O38" s="15"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="14"/>
@@ -3000,9 +2999,9 @@
       <c r="X38" s="12"/>
       <c r="Y38" s="8"/>
       <c r="Z38" s="14"/>
-      <c r="AA38" s="12"/>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="14"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="36"/>
       <c r="AD38" s="15"/>
       <c r="AE38" s="8"/>
       <c r="AF38" s="14"/>
@@ -3010,18 +3009,20 @@
       <c r="AH38" s="8"/>
       <c r="AI38" s="14"/>
     </row>
-    <row r="39" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="14"/>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A39" s="33"/>
+      <c r="B39" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="36"/>
       <c r="L39" s="15"/>
       <c r="M39" s="8"/>
       <c r="N39" s="14"/>
@@ -3034,31 +3035,33 @@
       <c r="U39" s="15"/>
       <c r="V39" s="8"/>
       <c r="W39" s="14"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="14"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="36"/>
       <c r="AA39" s="12"/>
       <c r="AB39" s="8"/>
       <c r="AC39" s="14"/>
-      <c r="AD39" s="29"/>
-      <c r="AE39" s="27"/>
-      <c r="AF39" s="28"/>
-      <c r="AG39" s="12"/>
-      <c r="AH39" s="8"/>
-      <c r="AI39" s="14"/>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="21"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="14"/>
+      <c r="AG39" s="34"/>
+      <c r="AH39" s="35"/>
+      <c r="AI39" s="36"/>
+    </row>
+    <row r="40" spans="1:35" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" s="33"/>
+      <c r="B40" s="87" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="32"/>
       <c r="D40" s="25"/>
       <c r="E40" s="47"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="14"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="28"/>
       <c r="L40" s="15"/>
       <c r="M40" s="8"/>
       <c r="N40" s="14"/>
@@ -3071,33 +3074,31 @@
       <c r="U40" s="15"/>
       <c r="V40" s="8"/>
       <c r="W40" s="14"/>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="14"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="35"/>
-      <c r="AC40" s="36"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="14"/>
       <c r="AD40" s="15"/>
       <c r="AE40" s="8"/>
       <c r="AF40" s="14"/>
-      <c r="AG40" s="12"/>
-      <c r="AH40" s="8"/>
-      <c r="AI40" s="14"/>
+      <c r="AG40" s="34"/>
+      <c r="AH40" s="35"/>
+      <c r="AI40" s="36"/>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
-      <c r="B41" s="82" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="36"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="14"/>
       <c r="L41" s="15"/>
       <c r="M41" s="8"/>
       <c r="N41" s="14"/>
@@ -3110,31 +3111,31 @@
       <c r="U41" s="15"/>
       <c r="V41" s="8"/>
       <c r="W41" s="14"/>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="35"/>
-      <c r="Z41" s="36"/>
-      <c r="AA41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="15"/>
       <c r="AB41" s="8"/>
       <c r="AC41" s="14"/>
       <c r="AD41" s="15"/>
       <c r="AE41" s="8"/>
       <c r="AF41" s="14"/>
-      <c r="AG41" s="34"/>
-      <c r="AH41" s="35"/>
-      <c r="AI41" s="36"/>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A42" s="33"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="28"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="14"/>
+    </row>
+    <row r="42" spans="1:35" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="20"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="14"/>
       <c r="L42" s="15"/>
       <c r="M42" s="8"/>
       <c r="N42" s="14"/>
@@ -3147,25 +3148,25 @@
       <c r="U42" s="15"/>
       <c r="V42" s="8"/>
       <c r="W42" s="14"/>
-      <c r="X42" s="26"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="28"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="14"/>
       <c r="AA42" s="15"/>
       <c r="AB42" s="8"/>
       <c r="AC42" s="14"/>
       <c r="AD42" s="15"/>
       <c r="AE42" s="8"/>
       <c r="AF42" s="14"/>
-      <c r="AG42" s="34"/>
-      <c r="AH42" s="35"/>
-      <c r="AI42" s="36"/>
+      <c r="AG42" s="15"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="14"/>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A43" s="33"/>
-      <c r="B43" s="48"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="21"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="72"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="65"/>
       <c r="F43" s="12"/>
       <c r="G43" s="8"/>
       <c r="H43" s="14"/>
@@ -3193,25 +3194,25 @@
       <c r="AD43" s="15"/>
       <c r="AE43" s="8"/>
       <c r="AF43" s="14"/>
-      <c r="AG43" s="12"/>
+      <c r="AG43" s="15"/>
       <c r="AH43" s="8"/>
       <c r="AI43" s="14"/>
     </row>
-    <row r="44" spans="1:35" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="20"/>
-      <c r="B44" s="48"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="72"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="65"/>
       <c r="F44" s="12"/>
       <c r="G44" s="8"/>
       <c r="H44" s="14"/>
       <c r="I44" s="15"/>
       <c r="J44" s="8"/>
       <c r="K44" s="14"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="14"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="36"/>
       <c r="O44" s="15"/>
       <c r="P44" s="8"/>
       <c r="Q44" s="14"/>
@@ -3235,57 +3236,57 @@
       <c r="AI44" s="14"/>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="22"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="14"/>
-      <c r="X45" s="12"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="14"/>
-      <c r="AA45" s="15"/>
-      <c r="AB45" s="8"/>
-      <c r="AC45" s="14"/>
-      <c r="AD45" s="15"/>
-      <c r="AE45" s="8"/>
-      <c r="AF45" s="14"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="29"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="26"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="27"/>
+      <c r="AC45" s="28"/>
+      <c r="AD45" s="29"/>
+      <c r="AE45" s="27"/>
+      <c r="AF45" s="28"/>
       <c r="AG45" s="15"/>
       <c r="AH45" s="8"/>
       <c r="AI45" s="14"/>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="21"/>
       <c r="D46" s="22"/>
-      <c r="E46" s="73"/>
+      <c r="E46" s="65"/>
       <c r="F46" s="12"/>
       <c r="G46" s="8"/>
       <c r="H46" s="14"/>
       <c r="I46" s="15"/>
       <c r="J46" s="8"/>
       <c r="K46" s="14"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="36"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="14"/>
       <c r="O46" s="15"/>
       <c r="P46" s="8"/>
       <c r="Q46" s="14"/>
@@ -3309,48 +3310,48 @@
       <c r="AI46" s="14"/>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="21"/>
       <c r="D47" s="22"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="27"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="26"/>
-      <c r="Y47" s="27"/>
-      <c r="Z47" s="28"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="27"/>
-      <c r="AC47" s="28"/>
-      <c r="AD47" s="29"/>
-      <c r="AE47" s="27"/>
-      <c r="AF47" s="28"/>
-      <c r="AG47" s="15"/>
-      <c r="AH47" s="8"/>
-      <c r="AI47" s="14"/>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="E47" s="65"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="15"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="14"/>
+      <c r="AA47" s="15"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="14"/>
+      <c r="AD47" s="15"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="14"/>
+      <c r="AG47" s="29"/>
+      <c r="AH47" s="27"/>
+      <c r="AI47" s="28"/>
+    </row>
+    <row r="48" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="20"/>
-      <c r="B48" s="31"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="21"/>
       <c r="D48" s="22"/>
-      <c r="E48" s="73"/>
+      <c r="E48" s="65"/>
       <c r="F48" s="12"/>
       <c r="G48" s="8"/>
       <c r="H48" s="14"/>
@@ -3384,10 +3385,10 @@
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="20"/>
-      <c r="B49" s="31"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="21"/>
       <c r="D49" s="22"/>
-      <c r="E49" s="73"/>
+      <c r="E49" s="65"/>
       <c r="F49" s="12"/>
       <c r="G49" s="8"/>
       <c r="H49" s="14"/>
@@ -3415,16 +3416,16 @@
       <c r="AD49" s="15"/>
       <c r="AE49" s="8"/>
       <c r="AF49" s="14"/>
-      <c r="AG49" s="29"/>
-      <c r="AH49" s="27"/>
-      <c r="AI49" s="28"/>
-    </row>
-    <row r="50" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AG49" s="15"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="14"/>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="21"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="73"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="64"/>
       <c r="F50" s="12"/>
       <c r="G50" s="8"/>
       <c r="H50" s="14"/>
@@ -3457,48 +3458,48 @@
       <c r="AI50" s="14"/>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="22"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="14"/>
-      <c r="U51" s="15"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="14"/>
-      <c r="X51" s="12"/>
-      <c r="Y51" s="8"/>
-      <c r="Z51" s="14"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="27"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="29"/>
+      <c r="V51" s="27"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="26"/>
+      <c r="Y51" s="27"/>
+      <c r="Z51" s="28"/>
       <c r="AA51" s="15"/>
       <c r="AB51" s="8"/>
       <c r="AC51" s="14"/>
-      <c r="AD51" s="15"/>
-      <c r="AE51" s="8"/>
-      <c r="AF51" s="14"/>
+      <c r="AD51" s="29"/>
+      <c r="AE51" s="27"/>
+      <c r="AF51" s="28"/>
       <c r="AG51" s="15"/>
       <c r="AH51" s="8"/>
       <c r="AI51" s="14"/>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
-      <c r="B52" s="23"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="21"/>
       <c r="D52" s="30"/>
-      <c r="E52" s="72"/>
+      <c r="E52" s="64"/>
       <c r="F52" s="12"/>
       <c r="G52" s="8"/>
       <c r="H52" s="14"/>
@@ -3520,7 +3521,7 @@
       <c r="X52" s="12"/>
       <c r="Y52" s="8"/>
       <c r="Z52" s="14"/>
-      <c r="AA52" s="15"/>
+      <c r="AA52" s="12"/>
       <c r="AB52" s="8"/>
       <c r="AC52" s="14"/>
       <c r="AD52" s="15"/>
@@ -3531,38 +3532,38 @@
       <c r="AI52" s="14"/>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A53" s="23"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="22"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="29"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="28"/>
-      <c r="U53" s="29"/>
-      <c r="V53" s="27"/>
-      <c r="W53" s="28"/>
-      <c r="X53" s="26"/>
-      <c r="Y53" s="27"/>
-      <c r="Z53" s="28"/>
-      <c r="AA53" s="15"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="14"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="14"/>
+      <c r="AA53" s="12"/>
       <c r="AB53" s="8"/>
       <c r="AC53" s="14"/>
-      <c r="AD53" s="29"/>
-      <c r="AE53" s="27"/>
-      <c r="AF53" s="28"/>
+      <c r="AD53" s="15"/>
+      <c r="AE53" s="8"/>
+      <c r="AF53" s="14"/>
       <c r="AG53" s="15"/>
       <c r="AH53" s="8"/>
       <c r="AI53" s="14"/>
@@ -3572,7 +3573,7 @@
       <c r="B54" s="31"/>
       <c r="C54" s="21"/>
       <c r="D54" s="30"/>
-      <c r="E54" s="72"/>
+      <c r="E54" s="64"/>
       <c r="F54" s="12"/>
       <c r="G54" s="8"/>
       <c r="H54" s="14"/>
@@ -3600,7 +3601,7 @@
       <c r="AD54" s="15"/>
       <c r="AE54" s="8"/>
       <c r="AF54" s="14"/>
-      <c r="AG54" s="15"/>
+      <c r="AG54" s="12"/>
       <c r="AH54" s="8"/>
       <c r="AI54" s="14"/>
     </row>
@@ -3609,7 +3610,7 @@
       <c r="B55" s="31"/>
       <c r="C55" s="21"/>
       <c r="D55" s="22"/>
-      <c r="E55" s="73"/>
+      <c r="E55" s="65"/>
       <c r="F55" s="12"/>
       <c r="G55" s="8"/>
       <c r="H55" s="14"/>
@@ -3637,7 +3638,7 @@
       <c r="AD55" s="15"/>
       <c r="AE55" s="8"/>
       <c r="AF55" s="14"/>
-      <c r="AG55" s="15"/>
+      <c r="AG55" s="12"/>
       <c r="AH55" s="8"/>
       <c r="AI55" s="14"/>
     </row>
@@ -3646,7 +3647,7 @@
       <c r="B56" s="31"/>
       <c r="C56" s="21"/>
       <c r="D56" s="30"/>
-      <c r="E56" s="72"/>
+      <c r="E56" s="64"/>
       <c r="F56" s="12"/>
       <c r="G56" s="8"/>
       <c r="H56" s="14"/>
@@ -3678,12 +3679,12 @@
       <c r="AH56" s="8"/>
       <c r="AI56" s="14"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20"/>
       <c r="B57" s="31"/>
       <c r="C57" s="21"/>
       <c r="D57" s="22"/>
-      <c r="E57" s="73"/>
+      <c r="E57" s="65"/>
       <c r="F57" s="12"/>
       <c r="G57" s="8"/>
       <c r="H57" s="14"/>
@@ -3717,10 +3718,10 @@
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" s="20"/>
-      <c r="B58" s="31"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="21"/>
       <c r="D58" s="30"/>
-      <c r="E58" s="72"/>
+      <c r="E58" s="64"/>
       <c r="F58" s="12"/>
       <c r="G58" s="8"/>
       <c r="H58" s="14"/>
@@ -3752,12 +3753,12 @@
       <c r="AH58" s="8"/>
       <c r="AI58" s="14"/>
     </row>
-    <row r="59" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" s="20"/>
-      <c r="B59" s="31"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="21"/>
       <c r="D59" s="22"/>
-      <c r="E59" s="73"/>
+      <c r="E59" s="65"/>
       <c r="F59" s="12"/>
       <c r="G59" s="8"/>
       <c r="H59" s="14"/>
@@ -3790,48 +3791,48 @@
       <c r="AI59" s="14"/>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="14"/>
-      <c r="R60" s="15"/>
-      <c r="S60" s="8"/>
-      <c r="T60" s="14"/>
-      <c r="U60" s="15"/>
-      <c r="V60" s="8"/>
-      <c r="W60" s="14"/>
-      <c r="X60" s="12"/>
-      <c r="Y60" s="8"/>
-      <c r="Z60" s="14"/>
-      <c r="AA60" s="12"/>
-      <c r="AB60" s="8"/>
-      <c r="AC60" s="14"/>
-      <c r="AD60" s="15"/>
-      <c r="AE60" s="8"/>
-      <c r="AF60" s="14"/>
-      <c r="AG60" s="12"/>
-      <c r="AH60" s="8"/>
-      <c r="AI60" s="14"/>
-    </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A60" s="23"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="27"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="29"/>
+      <c r="V60" s="27"/>
+      <c r="W60" s="28"/>
+      <c r="X60" s="26"/>
+      <c r="Y60" s="27"/>
+      <c r="Z60" s="28"/>
+      <c r="AA60" s="26"/>
+      <c r="AB60" s="27"/>
+      <c r="AC60" s="28"/>
+      <c r="AD60" s="29"/>
+      <c r="AE60" s="27"/>
+      <c r="AF60" s="28"/>
+      <c r="AG60" s="26"/>
+      <c r="AH60" s="27"/>
+      <c r="AI60" s="28"/>
+    </row>
+    <row r="61" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="21"/>
       <c r="D61" s="22"/>
-      <c r="E61" s="73"/>
+      <c r="E61" s="65"/>
       <c r="F61" s="12"/>
       <c r="G61" s="8"/>
       <c r="H61" s="14"/>
@@ -3864,48 +3865,48 @@
       <c r="AI61" s="14"/>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A62" s="23"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="29"/>
-      <c r="P62" s="27"/>
-      <c r="Q62" s="28"/>
-      <c r="R62" s="29"/>
-      <c r="S62" s="27"/>
-      <c r="T62" s="28"/>
-      <c r="U62" s="29"/>
-      <c r="V62" s="27"/>
-      <c r="W62" s="28"/>
-      <c r="X62" s="26"/>
-      <c r="Y62" s="27"/>
-      <c r="Z62" s="28"/>
-      <c r="AA62" s="26"/>
-      <c r="AB62" s="27"/>
-      <c r="AC62" s="28"/>
-      <c r="AD62" s="29"/>
-      <c r="AE62" s="27"/>
-      <c r="AF62" s="28"/>
-      <c r="AG62" s="26"/>
-      <c r="AH62" s="27"/>
-      <c r="AI62" s="28"/>
-    </row>
-    <row r="63" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="20"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="14"/>
+      <c r="U62" s="15"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="14"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="14"/>
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="8"/>
+      <c r="AC62" s="14"/>
+      <c r="AD62" s="15"/>
+      <c r="AE62" s="8"/>
+      <c r="AF62" s="14"/>
+      <c r="AG62" s="12"/>
+      <c r="AH62" s="8"/>
+      <c r="AI62" s="14"/>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" s="20"/>
-      <c r="B63" s="31"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="21"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="73"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="64"/>
       <c r="F63" s="12"/>
       <c r="G63" s="8"/>
       <c r="H63" s="14"/>
@@ -3938,48 +3939,48 @@
       <c r="AI63" s="14"/>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A64" s="20"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="14"/>
-      <c r="R64" s="15"/>
-      <c r="S64" s="8"/>
-      <c r="T64" s="14"/>
-      <c r="U64" s="15"/>
-      <c r="V64" s="8"/>
-      <c r="W64" s="14"/>
-      <c r="X64" s="12"/>
-      <c r="Y64" s="8"/>
-      <c r="Z64" s="14"/>
-      <c r="AA64" s="12"/>
-      <c r="AB64" s="8"/>
-      <c r="AC64" s="14"/>
-      <c r="AD64" s="15"/>
-      <c r="AE64" s="8"/>
-      <c r="AF64" s="14"/>
-      <c r="AG64" s="12"/>
-      <c r="AH64" s="8"/>
-      <c r="AI64" s="14"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="27"/>
+      <c r="Q64" s="28"/>
+      <c r="R64" s="29"/>
+      <c r="S64" s="27"/>
+      <c r="T64" s="28"/>
+      <c r="U64" s="29"/>
+      <c r="V64" s="27"/>
+      <c r="W64" s="28"/>
+      <c r="X64" s="26"/>
+      <c r="Y64" s="27"/>
+      <c r="Z64" s="28"/>
+      <c r="AA64" s="26"/>
+      <c r="AB64" s="27"/>
+      <c r="AC64" s="28"/>
+      <c r="AD64" s="29"/>
+      <c r="AE64" s="27"/>
+      <c r="AF64" s="28"/>
+      <c r="AG64" s="26"/>
+      <c r="AH64" s="27"/>
+      <c r="AI64" s="28"/>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="21"/>
       <c r="D65" s="30"/>
-      <c r="E65" s="72"/>
+      <c r="E65" s="64"/>
       <c r="F65" s="12"/>
       <c r="G65" s="8"/>
       <c r="H65" s="14"/>
@@ -4012,48 +4013,48 @@
       <c r="AI65" s="14"/>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A66" s="23"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="25"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="21"/>
       <c r="D66" s="22"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="27"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="29"/>
-      <c r="P66" s="27"/>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="29"/>
-      <c r="S66" s="27"/>
-      <c r="T66" s="28"/>
-      <c r="U66" s="29"/>
-      <c r="V66" s="27"/>
-      <c r="W66" s="28"/>
-      <c r="X66" s="26"/>
-      <c r="Y66" s="27"/>
-      <c r="Z66" s="28"/>
-      <c r="AA66" s="26"/>
-      <c r="AB66" s="27"/>
-      <c r="AC66" s="28"/>
-      <c r="AD66" s="29"/>
-      <c r="AE66" s="27"/>
-      <c r="AF66" s="28"/>
-      <c r="AG66" s="26"/>
-      <c r="AH66" s="27"/>
-      <c r="AI66" s="28"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="14"/>
+      <c r="U66" s="15"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="14"/>
+      <c r="X66" s="12"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="14"/>
+      <c r="AA66" s="12"/>
+      <c r="AB66" s="8"/>
+      <c r="AC66" s="14"/>
+      <c r="AD66" s="15"/>
+      <c r="AE66" s="8"/>
+      <c r="AF66" s="14"/>
+      <c r="AG66" s="12"/>
+      <c r="AH66" s="8"/>
+      <c r="AI66" s="14"/>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" s="20"/>
       <c r="B67" s="31"/>
       <c r="C67" s="21"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="72"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="65"/>
       <c r="F67" s="12"/>
       <c r="G67" s="8"/>
       <c r="H67" s="14"/>
@@ -4085,12 +4086,12 @@
       <c r="AH67" s="8"/>
       <c r="AI67" s="14"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="20"/>
       <c r="B68" s="31"/>
       <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="73"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="64"/>
       <c r="F68" s="12"/>
       <c r="G68" s="8"/>
       <c r="H68" s="14"/>
@@ -4127,7 +4128,7 @@
       <c r="B69" s="31"/>
       <c r="C69" s="21"/>
       <c r="D69" s="22"/>
-      <c r="E69" s="73"/>
+      <c r="E69" s="65"/>
       <c r="F69" s="12"/>
       <c r="G69" s="8"/>
       <c r="H69" s="14"/>
@@ -4159,12 +4160,12 @@
       <c r="AH69" s="8"/>
       <c r="AI69" s="14"/>
     </row>
-    <row r="70" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" s="20"/>
-      <c r="B70" s="31"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="21"/>
       <c r="D70" s="30"/>
-      <c r="E70" s="72"/>
+      <c r="E70" s="64"/>
       <c r="F70" s="12"/>
       <c r="G70" s="8"/>
       <c r="H70" s="14"/>
@@ -4197,48 +4198,48 @@
       <c r="AI70" s="14"/>
     </row>
     <row r="71" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A71" s="20"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="21"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="22"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="14"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="14"/>
-      <c r="R71" s="15"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="14"/>
-      <c r="U71" s="15"/>
-      <c r="V71" s="8"/>
-      <c r="W71" s="14"/>
-      <c r="X71" s="12"/>
-      <c r="Y71" s="8"/>
-      <c r="Z71" s="14"/>
-      <c r="AA71" s="12"/>
-      <c r="AB71" s="8"/>
-      <c r="AC71" s="14"/>
-      <c r="AD71" s="15"/>
-      <c r="AE71" s="8"/>
-      <c r="AF71" s="14"/>
-      <c r="AG71" s="12"/>
-      <c r="AH71" s="8"/>
-      <c r="AI71" s="14"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="27"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="29"/>
+      <c r="P71" s="27"/>
+      <c r="Q71" s="28"/>
+      <c r="R71" s="29"/>
+      <c r="S71" s="27"/>
+      <c r="T71" s="28"/>
+      <c r="U71" s="29"/>
+      <c r="V71" s="27"/>
+      <c r="W71" s="28"/>
+      <c r="X71" s="26"/>
+      <c r="Y71" s="27"/>
+      <c r="Z71" s="28"/>
+      <c r="AA71" s="26"/>
+      <c r="AB71" s="27"/>
+      <c r="AC71" s="28"/>
+      <c r="AD71" s="29"/>
+      <c r="AE71" s="27"/>
+      <c r="AF71" s="28"/>
+      <c r="AG71" s="26"/>
+      <c r="AH71" s="27"/>
+      <c r="AI71" s="28"/>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" s="20"/>
-      <c r="B72" s="20"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="21"/>
       <c r="D72" s="30"/>
-      <c r="E72" s="72"/>
+      <c r="E72" s="64"/>
       <c r="F72" s="12"/>
       <c r="G72" s="8"/>
       <c r="H72" s="14"/>
@@ -4270,49 +4271,49 @@
       <c r="AH72" s="8"/>
       <c r="AI72" s="14"/>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A73" s="23"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
+    <row r="73" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="20"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="21"/>
       <c r="D73" s="22"/>
-      <c r="E73" s="73"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="27"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="29"/>
-      <c r="P73" s="27"/>
-      <c r="Q73" s="28"/>
-      <c r="R73" s="29"/>
-      <c r="S73" s="27"/>
-      <c r="T73" s="28"/>
-      <c r="U73" s="29"/>
-      <c r="V73" s="27"/>
-      <c r="W73" s="28"/>
-      <c r="X73" s="26"/>
-      <c r="Y73" s="27"/>
-      <c r="Z73" s="28"/>
-      <c r="AA73" s="26"/>
-      <c r="AB73" s="27"/>
-      <c r="AC73" s="28"/>
-      <c r="AD73" s="29"/>
-      <c r="AE73" s="27"/>
-      <c r="AF73" s="28"/>
-      <c r="AG73" s="26"/>
-      <c r="AH73" s="27"/>
-      <c r="AI73" s="28"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="14"/>
+      <c r="R73" s="15"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="14"/>
+      <c r="U73" s="15"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="14"/>
+      <c r="X73" s="12"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="14"/>
+      <c r="AA73" s="12"/>
+      <c r="AB73" s="8"/>
+      <c r="AC73" s="14"/>
+      <c r="AD73" s="15"/>
+      <c r="AE73" s="8"/>
+      <c r="AF73" s="14"/>
+      <c r="AG73" s="12"/>
+      <c r="AH73" s="8"/>
+      <c r="AI73" s="14"/>
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A74" s="20"/>
       <c r="B74" s="31"/>
       <c r="C74" s="21"/>
       <c r="D74" s="30"/>
-      <c r="E74" s="72"/>
+      <c r="E74" s="64"/>
       <c r="F74" s="12"/>
       <c r="G74" s="8"/>
       <c r="H74" s="14"/>
@@ -4344,12 +4345,12 @@
       <c r="AH74" s="8"/>
       <c r="AI74" s="14"/>
     </row>
-    <row r="75" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A75" s="20"/>
-      <c r="B75" s="31"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="21"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="73"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="64"/>
       <c r="F75" s="12"/>
       <c r="G75" s="8"/>
       <c r="H75" s="14"/>
@@ -4382,48 +4383,48 @@
       <c r="AI75" s="14"/>
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A76" s="20"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="14"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="14"/>
-      <c r="R76" s="15"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="14"/>
-      <c r="U76" s="15"/>
-      <c r="V76" s="8"/>
-      <c r="W76" s="14"/>
-      <c r="X76" s="12"/>
-      <c r="Y76" s="8"/>
-      <c r="Z76" s="14"/>
-      <c r="AA76" s="12"/>
-      <c r="AB76" s="8"/>
-      <c r="AC76" s="14"/>
-      <c r="AD76" s="15"/>
-      <c r="AE76" s="8"/>
-      <c r="AF76" s="14"/>
-      <c r="AG76" s="12"/>
-      <c r="AH76" s="8"/>
-      <c r="AI76" s="14"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="27"/>
+      <c r="N76" s="28"/>
+      <c r="O76" s="29"/>
+      <c r="P76" s="27"/>
+      <c r="Q76" s="28"/>
+      <c r="R76" s="29"/>
+      <c r="S76" s="27"/>
+      <c r="T76" s="28"/>
+      <c r="U76" s="29"/>
+      <c r="V76" s="27"/>
+      <c r="W76" s="28"/>
+      <c r="X76" s="26"/>
+      <c r="Y76" s="27"/>
+      <c r="Z76" s="28"/>
+      <c r="AA76" s="26"/>
+      <c r="AB76" s="27"/>
+      <c r="AC76" s="28"/>
+      <c r="AD76" s="29"/>
+      <c r="AE76" s="27"/>
+      <c r="AF76" s="28"/>
+      <c r="AG76" s="26"/>
+      <c r="AH76" s="27"/>
+      <c r="AI76" s="28"/>
     </row>
     <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A77" s="20"/>
-      <c r="B77" s="20"/>
+      <c r="B77" s="31"/>
       <c r="C77" s="21"/>
       <c r="D77" s="30"/>
-      <c r="E77" s="72"/>
+      <c r="E77" s="64"/>
       <c r="F77" s="12"/>
       <c r="G77" s="8"/>
       <c r="H77" s="14"/>
@@ -4456,48 +4457,48 @@
       <c r="AI77" s="14"/>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A78" s="23"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="25"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="21"/>
       <c r="D78" s="22"/>
-      <c r="E78" s="73"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="28"/>
-      <c r="L78" s="26"/>
-      <c r="M78" s="27"/>
-      <c r="N78" s="28"/>
-      <c r="O78" s="29"/>
-      <c r="P78" s="27"/>
-      <c r="Q78" s="28"/>
-      <c r="R78" s="29"/>
-      <c r="S78" s="27"/>
-      <c r="T78" s="28"/>
-      <c r="U78" s="29"/>
-      <c r="V78" s="27"/>
-      <c r="W78" s="28"/>
-      <c r="X78" s="26"/>
-      <c r="Y78" s="27"/>
-      <c r="Z78" s="28"/>
-      <c r="AA78" s="26"/>
-      <c r="AB78" s="27"/>
-      <c r="AC78" s="28"/>
-      <c r="AD78" s="29"/>
-      <c r="AE78" s="27"/>
-      <c r="AF78" s="28"/>
-      <c r="AG78" s="26"/>
-      <c r="AH78" s="27"/>
-      <c r="AI78" s="28"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="14"/>
+      <c r="R78" s="15"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="14"/>
+      <c r="U78" s="15"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="14"/>
+      <c r="X78" s="12"/>
+      <c r="Y78" s="8"/>
+      <c r="Z78" s="14"/>
+      <c r="AA78" s="12"/>
+      <c r="AB78" s="8"/>
+      <c r="AC78" s="14"/>
+      <c r="AD78" s="15"/>
+      <c r="AE78" s="8"/>
+      <c r="AF78" s="14"/>
+      <c r="AG78" s="12"/>
+      <c r="AH78" s="8"/>
+      <c r="AI78" s="14"/>
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A79" s="20"/>
       <c r="B79" s="31"/>
       <c r="C79" s="21"/>
       <c r="D79" s="30"/>
-      <c r="E79" s="72"/>
+      <c r="E79" s="64"/>
       <c r="F79" s="12"/>
       <c r="G79" s="8"/>
       <c r="H79" s="14"/>
@@ -4530,84 +4531,54 @@
       <c r="AI79" s="14"/>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A80" s="20"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="14"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="8"/>
-      <c r="Q80" s="14"/>
-      <c r="R80" s="15"/>
-      <c r="S80" s="8"/>
-      <c r="T80" s="14"/>
-      <c r="U80" s="15"/>
-      <c r="V80" s="8"/>
-      <c r="W80" s="14"/>
-      <c r="X80" s="12"/>
-      <c r="Y80" s="8"/>
-      <c r="Z80" s="14"/>
-      <c r="AA80" s="12"/>
-      <c r="AB80" s="8"/>
-      <c r="AC80" s="14"/>
-      <c r="AD80" s="15"/>
-      <c r="AE80" s="8"/>
-      <c r="AF80" s="14"/>
-      <c r="AG80" s="12"/>
-      <c r="AH80" s="8"/>
-      <c r="AI80" s="14"/>
-    </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A81" s="20"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="72"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="14"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="8"/>
-      <c r="Q81" s="14"/>
-      <c r="R81" s="15"/>
-      <c r="S81" s="8"/>
-      <c r="T81" s="14"/>
-      <c r="U81" s="15"/>
-      <c r="V81" s="8"/>
-      <c r="W81" s="14"/>
-      <c r="X81" s="12"/>
-      <c r="Y81" s="8"/>
-      <c r="Z81" s="14"/>
-      <c r="AA81" s="12"/>
-      <c r="AB81" s="8"/>
-      <c r="AC81" s="14"/>
-      <c r="AD81" s="15"/>
-      <c r="AE81" s="8"/>
-      <c r="AF81" s="14"/>
-      <c r="AG81" s="12"/>
-      <c r="AH81" s="8"/>
-      <c r="AI81" s="14"/>
-    </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="D80" s="18">
+        <v>1</v>
+      </c>
+      <c r="E80" s="66"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="13"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="7"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="13"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="13"/>
+      <c r="T80" s="10"/>
+      <c r="U80" s="13"/>
+      <c r="W80" s="10"/>
+      <c r="X80" s="7"/>
+      <c r="Z80" s="10"/>
+      <c r="AA80" s="7"/>
+      <c r="AC80" s="10"/>
+      <c r="AD80" s="13"/>
+    </row>
+    <row r="81" spans="4:30" x14ac:dyDescent="0.2">
+      <c r="D81" s="19">
+        <v>1</v>
+      </c>
+      <c r="E81" s="67"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="13"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="7"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="13"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="13"/>
+      <c r="T81" s="10"/>
+      <c r="U81" s="13"/>
+      <c r="W81" s="10"/>
+      <c r="X81" s="7"/>
+      <c r="Z81" s="10"/>
+      <c r="AA81" s="7"/>
+      <c r="AC81" s="10"/>
+      <c r="AD81" s="13"/>
+    </row>
+    <row r="82" spans="4:30" x14ac:dyDescent="0.2">
       <c r="D82" s="18">
         <v>1</v>
       </c>
-      <c r="E82" s="74"/>
+      <c r="E82" s="66"/>
       <c r="H82" s="10"/>
       <c r="I82" s="13"/>
       <c r="K82" s="10"/>
@@ -4625,11 +4596,11 @@
       <c r="AC82" s="10"/>
       <c r="AD82" s="13"/>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:30" x14ac:dyDescent="0.2">
       <c r="D83" s="19">
         <v>1</v>
       </c>
-      <c r="E83" s="75"/>
+      <c r="E83" s="67"/>
       <c r="H83" s="10"/>
       <c r="I83" s="13"/>
       <c r="K83" s="10"/>
@@ -4647,11 +4618,11 @@
       <c r="AC83" s="10"/>
       <c r="AD83" s="13"/>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:30" x14ac:dyDescent="0.2">
       <c r="D84" s="18">
         <v>1</v>
       </c>
-      <c r="E84" s="74"/>
+      <c r="E84" s="66"/>
       <c r="H84" s="10"/>
       <c r="I84" s="13"/>
       <c r="K84" s="10"/>
@@ -4669,11 +4640,11 @@
       <c r="AC84" s="10"/>
       <c r="AD84" s="13"/>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:30" x14ac:dyDescent="0.2">
       <c r="D85" s="19">
         <v>1</v>
       </c>
-      <c r="E85" s="75"/>
+      <c r="E85" s="67"/>
       <c r="H85" s="10"/>
       <c r="I85" s="13"/>
       <c r="K85" s="10"/>
@@ -4691,11 +4662,11 @@
       <c r="AC85" s="10"/>
       <c r="AD85" s="13"/>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:30" x14ac:dyDescent="0.2">
       <c r="D86" s="18">
         <v>1</v>
       </c>
-      <c r="E86" s="74"/>
+      <c r="E86" s="66"/>
       <c r="H86" s="10"/>
       <c r="I86" s="13"/>
       <c r="K86" s="10"/>
@@ -4713,11 +4684,11 @@
       <c r="AC86" s="10"/>
       <c r="AD86" s="13"/>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:30" x14ac:dyDescent="0.2">
       <c r="D87" s="19">
         <v>1</v>
       </c>
-      <c r="E87" s="75"/>
+      <c r="E87" s="67"/>
       <c r="H87" s="10"/>
       <c r="I87" s="13"/>
       <c r="K87" s="10"/>
@@ -4735,11 +4706,11 @@
       <c r="AC87" s="10"/>
       <c r="AD87" s="13"/>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:30" x14ac:dyDescent="0.2">
       <c r="D88" s="18">
         <v>1</v>
       </c>
-      <c r="E88" s="74"/>
+      <c r="E88" s="66"/>
       <c r="H88" s="10"/>
       <c r="I88" s="13"/>
       <c r="K88" s="10"/>
@@ -4757,11 +4728,11 @@
       <c r="AC88" s="10"/>
       <c r="AD88" s="13"/>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:30" x14ac:dyDescent="0.2">
       <c r="D89" s="19">
         <v>1</v>
       </c>
-      <c r="E89" s="75"/>
+      <c r="E89" s="67"/>
       <c r="H89" s="10"/>
       <c r="I89" s="13"/>
       <c r="K89" s="10"/>
@@ -4779,11 +4750,11 @@
       <c r="AC89" s="10"/>
       <c r="AD89" s="13"/>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:30" x14ac:dyDescent="0.2">
       <c r="D90" s="18">
         <v>1</v>
       </c>
-      <c r="E90" s="74"/>
+      <c r="E90" s="66"/>
       <c r="H90" s="10"/>
       <c r="I90" s="13"/>
       <c r="K90" s="10"/>
@@ -4801,11 +4772,11 @@
       <c r="AC90" s="10"/>
       <c r="AD90" s="13"/>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:30" x14ac:dyDescent="0.2">
       <c r="D91" s="19">
         <v>1</v>
       </c>
-      <c r="E91" s="75"/>
+      <c r="E91" s="67"/>
       <c r="H91" s="10"/>
       <c r="I91" s="13"/>
       <c r="K91" s="10"/>
@@ -4823,11 +4794,11 @@
       <c r="AC91" s="10"/>
       <c r="AD91" s="13"/>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:30" x14ac:dyDescent="0.2">
       <c r="D92" s="18">
         <v>1</v>
       </c>
-      <c r="E92" s="74"/>
+      <c r="E92" s="66"/>
       <c r="H92" s="10"/>
       <c r="I92" s="13"/>
       <c r="K92" s="10"/>
@@ -4845,11 +4816,11 @@
       <c r="AC92" s="10"/>
       <c r="AD92" s="13"/>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:30" x14ac:dyDescent="0.2">
       <c r="D93" s="19">
         <v>1</v>
       </c>
-      <c r="E93" s="75"/>
+      <c r="E93" s="67"/>
       <c r="H93" s="10"/>
       <c r="I93" s="13"/>
       <c r="K93" s="10"/>
@@ -4867,11 +4838,11 @@
       <c r="AC93" s="10"/>
       <c r="AD93" s="13"/>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:30" x14ac:dyDescent="0.2">
       <c r="D94" s="18">
         <v>1</v>
       </c>
-      <c r="E94" s="74"/>
+      <c r="E94" s="66"/>
       <c r="H94" s="10"/>
       <c r="I94" s="13"/>
       <c r="K94" s="10"/>
@@ -4889,11 +4860,11 @@
       <c r="AC94" s="10"/>
       <c r="AD94" s="13"/>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:30" x14ac:dyDescent="0.2">
       <c r="D95" s="19">
         <v>1</v>
       </c>
-      <c r="E95" s="75"/>
+      <c r="E95" s="67"/>
       <c r="H95" s="10"/>
       <c r="I95" s="13"/>
       <c r="K95" s="10"/>
@@ -4911,11 +4882,11 @@
       <c r="AC95" s="10"/>
       <c r="AD95" s="13"/>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:30" x14ac:dyDescent="0.2">
       <c r="D96" s="18">
         <v>1</v>
       </c>
-      <c r="E96" s="74"/>
+      <c r="E96" s="66"/>
       <c r="H96" s="10"/>
       <c r="I96" s="13"/>
       <c r="K96" s="10"/>
@@ -4931,13 +4902,13 @@
       <c r="Z96" s="10"/>
       <c r="AA96" s="7"/>
       <c r="AC96" s="10"/>
-      <c r="AD96" s="13"/>
+      <c r="AD96" s="7"/>
     </row>
     <row r="97" spans="4:30" x14ac:dyDescent="0.2">
       <c r="D97" s="19">
         <v>1</v>
       </c>
-      <c r="E97" s="75"/>
+      <c r="E97" s="67"/>
       <c r="H97" s="10"/>
       <c r="I97" s="13"/>
       <c r="K97" s="10"/>
@@ -4953,13 +4924,13 @@
       <c r="Z97" s="10"/>
       <c r="AA97" s="7"/>
       <c r="AC97" s="10"/>
-      <c r="AD97" s="13"/>
+      <c r="AD97" s="7"/>
     </row>
     <row r="98" spans="4:30" x14ac:dyDescent="0.2">
       <c r="D98" s="18">
         <v>1</v>
       </c>
-      <c r="E98" s="74"/>
+      <c r="E98" s="66"/>
       <c r="H98" s="10"/>
       <c r="I98" s="13"/>
       <c r="K98" s="10"/>
@@ -4981,7 +4952,7 @@
       <c r="D99" s="19">
         <v>1</v>
       </c>
-      <c r="E99" s="75"/>
+      <c r="E99" s="67"/>
       <c r="H99" s="10"/>
       <c r="I99" s="13"/>
       <c r="K99" s="10"/>
@@ -5003,7 +4974,7 @@
       <c r="D100" s="18">
         <v>1</v>
       </c>
-      <c r="E100" s="74"/>
+      <c r="E100" s="66"/>
       <c r="H100" s="10"/>
       <c r="I100" s="13"/>
       <c r="K100" s="10"/>
@@ -5025,7 +4996,7 @@
       <c r="D101" s="19">
         <v>1</v>
       </c>
-      <c r="E101" s="75"/>
+      <c r="E101" s="67"/>
       <c r="H101" s="10"/>
       <c r="I101" s="13"/>
       <c r="K101" s="10"/>
@@ -5047,7 +5018,7 @@
       <c r="D102" s="18">
         <v>1</v>
       </c>
-      <c r="E102" s="74"/>
+      <c r="E102" s="66"/>
       <c r="H102" s="10"/>
       <c r="I102" s="13"/>
       <c r="K102" s="10"/>
@@ -5069,7 +5040,7 @@
       <c r="D103" s="19">
         <v>1</v>
       </c>
-      <c r="E103" s="75"/>
+      <c r="E103" s="67"/>
       <c r="H103" s="10"/>
       <c r="I103" s="13"/>
       <c r="K103" s="10"/>
@@ -5091,7 +5062,7 @@
       <c r="D104" s="18">
         <v>1</v>
       </c>
-      <c r="E104" s="74"/>
+      <c r="E104" s="66"/>
       <c r="H104" s="10"/>
       <c r="I104" s="13"/>
       <c r="K104" s="10"/>
@@ -5113,7 +5084,7 @@
       <c r="D105" s="19">
         <v>1</v>
       </c>
-      <c r="E105" s="75"/>
+      <c r="E105" s="67"/>
       <c r="H105" s="10"/>
       <c r="I105" s="13"/>
       <c r="K105" s="10"/>
@@ -5135,7 +5106,7 @@
       <c r="D106" s="18">
         <v>1</v>
       </c>
-      <c r="E106" s="74"/>
+      <c r="E106" s="66"/>
       <c r="H106" s="10"/>
       <c r="I106" s="13"/>
       <c r="K106" s="10"/>
@@ -5157,7 +5128,7 @@
       <c r="D107" s="19">
         <v>1</v>
       </c>
-      <c r="E107" s="75"/>
+      <c r="E107" s="67"/>
       <c r="H107" s="10"/>
       <c r="I107" s="13"/>
       <c r="K107" s="10"/>
@@ -5179,7 +5150,7 @@
       <c r="D108" s="18">
         <v>1</v>
       </c>
-      <c r="E108" s="74"/>
+      <c r="E108" s="66"/>
       <c r="H108" s="10"/>
       <c r="I108" s="13"/>
       <c r="K108" s="10"/>
@@ -5201,7 +5172,7 @@
       <c r="D109" s="19">
         <v>1</v>
       </c>
-      <c r="E109" s="75"/>
+      <c r="E109" s="67"/>
       <c r="H109" s="10"/>
       <c r="I109" s="13"/>
       <c r="K109" s="10"/>
@@ -5223,7 +5194,7 @@
       <c r="D110" s="18">
         <v>1</v>
       </c>
-      <c r="E110" s="74"/>
+      <c r="E110" s="66"/>
       <c r="H110" s="10"/>
       <c r="I110" s="13"/>
       <c r="K110" s="10"/>
@@ -5245,7 +5216,7 @@
       <c r="D111" s="19">
         <v>1</v>
       </c>
-      <c r="E111" s="75"/>
+      <c r="E111" s="67"/>
       <c r="H111" s="10"/>
       <c r="I111" s="13"/>
       <c r="K111" s="10"/>
@@ -5267,7 +5238,7 @@
       <c r="D112" s="18">
         <v>1</v>
       </c>
-      <c r="E112" s="74"/>
+      <c r="E112" s="66"/>
       <c r="H112" s="10"/>
       <c r="I112" s="13"/>
       <c r="K112" s="10"/>
@@ -5277,9 +5248,7 @@
       <c r="Q112" s="10"/>
       <c r="R112" s="13"/>
       <c r="T112" s="10"/>
-      <c r="U112" s="13"/>
-      <c r="W112" s="10"/>
-      <c r="X112" s="7"/>
+      <c r="U112" s="7"/>
       <c r="Z112" s="10"/>
       <c r="AA112" s="7"/>
       <c r="AC112" s="10"/>
@@ -5289,7 +5258,7 @@
       <c r="D113" s="19">
         <v>1</v>
       </c>
-      <c r="E113" s="75"/>
+      <c r="E113" s="67"/>
       <c r="H113" s="10"/>
       <c r="I113" s="13"/>
       <c r="K113" s="10"/>
@@ -5299,9 +5268,7 @@
       <c r="Q113" s="10"/>
       <c r="R113" s="13"/>
       <c r="T113" s="10"/>
-      <c r="U113" s="13"/>
-      <c r="W113" s="10"/>
-      <c r="X113" s="7"/>
+      <c r="U113" s="7"/>
       <c r="Z113" s="10"/>
       <c r="AA113" s="7"/>
       <c r="AC113" s="10"/>
@@ -5311,7 +5278,7 @@
       <c r="D114" s="18">
         <v>1</v>
       </c>
-      <c r="E114" s="74"/>
+      <c r="E114" s="66"/>
       <c r="H114" s="10"/>
       <c r="I114" s="13"/>
       <c r="K114" s="10"/>
@@ -5331,7 +5298,7 @@
       <c r="D115" s="19">
         <v>1</v>
       </c>
-      <c r="E115" s="75"/>
+      <c r="E115" s="67"/>
       <c r="H115" s="10"/>
       <c r="I115" s="13"/>
       <c r="K115" s="10"/>
@@ -5351,7 +5318,7 @@
       <c r="D116" s="18">
         <v>1</v>
       </c>
-      <c r="E116" s="74"/>
+      <c r="E116" s="66"/>
       <c r="H116" s="10"/>
       <c r="I116" s="13"/>
       <c r="K116" s="10"/>
@@ -5371,7 +5338,7 @@
       <c r="D117" s="19">
         <v>1</v>
       </c>
-      <c r="E117" s="75"/>
+      <c r="E117" s="67"/>
       <c r="H117" s="10"/>
       <c r="I117" s="13"/>
       <c r="K117" s="10"/>
@@ -5391,7 +5358,7 @@
       <c r="D118" s="18">
         <v>1</v>
       </c>
-      <c r="E118" s="74"/>
+      <c r="E118" s="66"/>
       <c r="H118" s="10"/>
       <c r="I118" s="13"/>
       <c r="K118" s="10"/>
@@ -5411,7 +5378,7 @@
       <c r="D119" s="19">
         <v>1</v>
       </c>
-      <c r="E119" s="75"/>
+      <c r="E119" s="67"/>
       <c r="H119" s="10"/>
       <c r="I119" s="13"/>
       <c r="K119" s="10"/>
@@ -5431,7 +5398,7 @@
       <c r="D120" s="18">
         <v>1</v>
       </c>
-      <c r="E120" s="74"/>
+      <c r="E120" s="66"/>
       <c r="H120" s="10"/>
       <c r="I120" s="13"/>
       <c r="K120" s="10"/>
@@ -5451,7 +5418,7 @@
       <c r="D121" s="19">
         <v>1</v>
       </c>
-      <c r="E121" s="75"/>
+      <c r="E121" s="67"/>
       <c r="H121" s="10"/>
       <c r="I121" s="13"/>
       <c r="K121" s="10"/>
@@ -5471,7 +5438,7 @@
       <c r="D122" s="18">
         <v>1</v>
       </c>
-      <c r="E122" s="74"/>
+      <c r="E122" s="66"/>
       <c r="H122" s="10"/>
       <c r="I122" s="13"/>
       <c r="K122" s="10"/>
@@ -5491,7 +5458,7 @@
       <c r="D123" s="19">
         <v>1</v>
       </c>
-      <c r="E123" s="75"/>
+      <c r="E123" s="67"/>
       <c r="H123" s="10"/>
       <c r="I123" s="13"/>
       <c r="K123" s="10"/>
@@ -5511,7 +5478,7 @@
       <c r="D124" s="18">
         <v>1</v>
       </c>
-      <c r="E124" s="74"/>
+      <c r="E124" s="66"/>
       <c r="H124" s="10"/>
       <c r="I124" s="13"/>
       <c r="K124" s="10"/>
@@ -5531,7 +5498,7 @@
       <c r="D125" s="19">
         <v>1</v>
       </c>
-      <c r="E125" s="75"/>
+      <c r="E125" s="67"/>
       <c r="H125" s="10"/>
       <c r="I125" s="13"/>
       <c r="K125" s="10"/>
@@ -5551,7 +5518,7 @@
       <c r="D126" s="18">
         <v>1</v>
       </c>
-      <c r="E126" s="74"/>
+      <c r="E126" s="66"/>
       <c r="H126" s="10"/>
       <c r="I126" s="13"/>
       <c r="K126" s="10"/>
@@ -5571,7 +5538,7 @@
       <c r="D127" s="19">
         <v>1</v>
       </c>
-      <c r="E127" s="75"/>
+      <c r="E127" s="67"/>
       <c r="H127" s="10"/>
       <c r="I127" s="13"/>
       <c r="K127" s="10"/>
@@ -5591,7 +5558,7 @@
       <c r="D128" s="18">
         <v>1</v>
       </c>
-      <c r="E128" s="74"/>
+      <c r="E128" s="66"/>
       <c r="H128" s="10"/>
       <c r="I128" s="13"/>
       <c r="K128" s="10"/>
@@ -5611,7 +5578,7 @@
       <c r="D129" s="19">
         <v>1</v>
       </c>
-      <c r="E129" s="75"/>
+      <c r="E129" s="67"/>
       <c r="H129" s="10"/>
       <c r="I129" s="13"/>
       <c r="K129" s="10"/>
@@ -5631,11 +5598,9 @@
       <c r="D130" s="18">
         <v>1</v>
       </c>
-      <c r="E130" s="74"/>
+      <c r="E130" s="66"/>
       <c r="H130" s="10"/>
-      <c r="I130" s="13"/>
-      <c r="K130" s="10"/>
-      <c r="L130" s="7"/>
+      <c r="I130" s="7"/>
       <c r="N130" s="10"/>
       <c r="O130" s="13"/>
       <c r="Q130" s="10"/>
@@ -5651,11 +5616,9 @@
       <c r="D131" s="19">
         <v>1</v>
       </c>
-      <c r="E131" s="75"/>
+      <c r="E131" s="67"/>
       <c r="H131" s="10"/>
-      <c r="I131" s="13"/>
-      <c r="K131" s="10"/>
-      <c r="L131" s="7"/>
+      <c r="I131" s="7"/>
       <c r="N131" s="10"/>
       <c r="O131" s="13"/>
       <c r="Q131" s="10"/>
@@ -5671,15 +5634,13 @@
       <c r="D132" s="18">
         <v>1</v>
       </c>
-      <c r="E132" s="74"/>
+      <c r="E132" s="66"/>
       <c r="H132" s="10"/>
       <c r="I132" s="7"/>
       <c r="N132" s="10"/>
       <c r="O132" s="13"/>
       <c r="Q132" s="10"/>
-      <c r="R132" s="13"/>
-      <c r="T132" s="10"/>
-      <c r="U132" s="7"/>
+      <c r="R132" s="7"/>
       <c r="Z132" s="10"/>
       <c r="AA132" s="7"/>
       <c r="AC132" s="10"/>
@@ -5689,15 +5650,13 @@
       <c r="D133" s="19">
         <v>1</v>
       </c>
-      <c r="E133" s="75"/>
+      <c r="E133" s="67"/>
       <c r="H133" s="10"/>
       <c r="I133" s="7"/>
       <c r="N133" s="10"/>
       <c r="O133" s="13"/>
       <c r="Q133" s="10"/>
-      <c r="R133" s="13"/>
-      <c r="T133" s="10"/>
-      <c r="U133" s="7"/>
+      <c r="R133" s="7"/>
       <c r="Z133" s="10"/>
       <c r="AA133" s="7"/>
       <c r="AC133" s="10"/>
@@ -5707,7 +5666,7 @@
       <c r="D134" s="18">
         <v>1</v>
       </c>
-      <c r="E134" s="74"/>
+      <c r="E134" s="66"/>
       <c r="H134" s="10"/>
       <c r="I134" s="7"/>
       <c r="N134" s="10"/>
@@ -5723,7 +5682,7 @@
       <c r="D135" s="19">
         <v>1</v>
       </c>
-      <c r="E135" s="75"/>
+      <c r="E135" s="67"/>
       <c r="H135" s="10"/>
       <c r="I135" s="7"/>
       <c r="N135" s="10"/>
@@ -5739,7 +5698,7 @@
       <c r="D136" s="18">
         <v>1</v>
       </c>
-      <c r="E136" s="74"/>
+      <c r="E136" s="66"/>
       <c r="H136" s="10"/>
       <c r="I136" s="7"/>
       <c r="N136" s="10"/>
@@ -5755,7 +5714,7 @@
       <c r="D137" s="19">
         <v>1</v>
       </c>
-      <c r="E137" s="75"/>
+      <c r="E137" s="67"/>
       <c r="H137" s="10"/>
       <c r="I137" s="7"/>
       <c r="N137" s="10"/>
@@ -5771,7 +5730,7 @@
       <c r="D138" s="18">
         <v>1</v>
       </c>
-      <c r="E138" s="74"/>
+      <c r="E138" s="66"/>
       <c r="H138" s="10"/>
       <c r="I138" s="7"/>
       <c r="N138" s="10"/>
@@ -5787,7 +5746,7 @@
       <c r="D139" s="19">
         <v>1</v>
       </c>
-      <c r="E139" s="75"/>
+      <c r="E139" s="67"/>
       <c r="H139" s="10"/>
       <c r="I139" s="7"/>
       <c r="N139" s="10"/>
@@ -5803,7 +5762,7 @@
       <c r="D140" s="18">
         <v>1</v>
       </c>
-      <c r="E140" s="74"/>
+      <c r="E140" s="66"/>
       <c r="H140" s="10"/>
       <c r="I140" s="7"/>
       <c r="N140" s="10"/>
@@ -5819,7 +5778,7 @@
       <c r="D141" s="19">
         <v>1</v>
       </c>
-      <c r="E141" s="75"/>
+      <c r="E141" s="67"/>
       <c r="H141" s="10"/>
       <c r="I141" s="7"/>
       <c r="N141" s="10"/>
@@ -5835,7 +5794,7 @@
       <c r="D142" s="18">
         <v>1</v>
       </c>
-      <c r="E142" s="74"/>
+      <c r="E142" s="66"/>
       <c r="H142" s="10"/>
       <c r="I142" s="7"/>
       <c r="N142" s="10"/>
@@ -5851,7 +5810,7 @@
       <c r="D143" s="19">
         <v>1</v>
       </c>
-      <c r="E143" s="75"/>
+      <c r="E143" s="67"/>
       <c r="H143" s="10"/>
       <c r="I143" s="7"/>
       <c r="N143" s="10"/>
@@ -5867,7 +5826,7 @@
       <c r="D144" s="18">
         <v>1</v>
       </c>
-      <c r="E144" s="74"/>
+      <c r="E144" s="66"/>
       <c r="H144" s="10"/>
       <c r="I144" s="7"/>
       <c r="N144" s="10"/>
@@ -5883,7 +5842,7 @@
       <c r="D145" s="19">
         <v>1</v>
       </c>
-      <c r="E145" s="75"/>
+      <c r="E145" s="67"/>
       <c r="H145" s="10"/>
       <c r="I145" s="7"/>
       <c r="N145" s="10"/>
@@ -5899,7 +5858,7 @@
       <c r="D146" s="18">
         <v>1</v>
       </c>
-      <c r="E146" s="74"/>
+      <c r="E146" s="66"/>
       <c r="H146" s="10"/>
       <c r="I146" s="7"/>
       <c r="N146" s="10"/>
@@ -5915,7 +5874,7 @@
       <c r="D147" s="19">
         <v>1</v>
       </c>
-      <c r="E147" s="75"/>
+      <c r="E147" s="67"/>
       <c r="H147" s="10"/>
       <c r="I147" s="7"/>
       <c r="N147" s="10"/>
@@ -5931,7 +5890,7 @@
       <c r="D148" s="18">
         <v>1</v>
       </c>
-      <c r="E148" s="74"/>
+      <c r="E148" s="66"/>
       <c r="H148" s="10"/>
       <c r="I148" s="7"/>
       <c r="N148" s="10"/>
@@ -5947,7 +5906,7 @@
       <c r="D149" s="19">
         <v>1</v>
       </c>
-      <c r="E149" s="75"/>
+      <c r="E149" s="67"/>
       <c r="H149" s="10"/>
       <c r="I149" s="7"/>
       <c r="N149" s="10"/>
@@ -5963,7 +5922,7 @@
       <c r="D150" s="18">
         <v>1</v>
       </c>
-      <c r="E150" s="74"/>
+      <c r="E150" s="66"/>
       <c r="H150" s="10"/>
       <c r="I150" s="7"/>
       <c r="N150" s="10"/>
@@ -5979,7 +5938,7 @@
       <c r="D151" s="19">
         <v>1</v>
       </c>
-      <c r="E151" s="75"/>
+      <c r="E151" s="67"/>
       <c r="H151" s="10"/>
       <c r="I151" s="7"/>
       <c r="N151" s="10"/>
@@ -5995,7 +5954,7 @@
       <c r="D152" s="18">
         <v>1</v>
       </c>
-      <c r="E152" s="74"/>
+      <c r="E152" s="66"/>
       <c r="H152" s="10"/>
       <c r="I152" s="7"/>
       <c r="N152" s="10"/>
@@ -6011,7 +5970,7 @@
       <c r="D153" s="19">
         <v>1</v>
       </c>
-      <c r="E153" s="75"/>
+      <c r="E153" s="67"/>
       <c r="H153" s="10"/>
       <c r="I153" s="7"/>
       <c r="N153" s="10"/>
@@ -6027,7 +5986,7 @@
       <c r="D154" s="18">
         <v>1</v>
       </c>
-      <c r="E154" s="74"/>
+      <c r="E154" s="66"/>
       <c r="H154" s="10"/>
       <c r="I154" s="7"/>
       <c r="N154" s="10"/>
@@ -6043,7 +6002,7 @@
       <c r="D155" s="19">
         <v>1</v>
       </c>
-      <c r="E155" s="75"/>
+      <c r="E155" s="67"/>
       <c r="H155" s="10"/>
       <c r="I155" s="7"/>
       <c r="N155" s="10"/>
@@ -6059,7 +6018,7 @@
       <c r="D156" s="18">
         <v>1</v>
       </c>
-      <c r="E156" s="74"/>
+      <c r="E156" s="66"/>
       <c r="H156" s="10"/>
       <c r="I156" s="7"/>
       <c r="N156" s="10"/>
@@ -6075,7 +6034,7 @@
       <c r="D157" s="19">
         <v>1</v>
       </c>
-      <c r="E157" s="75"/>
+      <c r="E157" s="67"/>
       <c r="H157" s="10"/>
       <c r="I157" s="7"/>
       <c r="N157" s="10"/>
@@ -6091,7 +6050,7 @@
       <c r="D158" s="18">
         <v>1</v>
       </c>
-      <c r="E158" s="74"/>
+      <c r="E158" s="66"/>
       <c r="H158" s="10"/>
       <c r="I158" s="7"/>
       <c r="N158" s="10"/>
@@ -6107,7 +6066,7 @@
       <c r="D159" s="19">
         <v>1</v>
       </c>
-      <c r="E159" s="75"/>
+      <c r="E159" s="67"/>
       <c r="H159" s="10"/>
       <c r="I159" s="7"/>
       <c r="N159" s="10"/>
@@ -6123,7 +6082,7 @@
       <c r="D160" s="18">
         <v>1</v>
       </c>
-      <c r="E160" s="74"/>
+      <c r="E160" s="66"/>
       <c r="H160" s="10"/>
       <c r="I160" s="7"/>
       <c r="N160" s="10"/>
@@ -6139,7 +6098,7 @@
       <c r="D161" s="19">
         <v>1</v>
       </c>
-      <c r="E161" s="75"/>
+      <c r="E161" s="67"/>
       <c r="H161" s="10"/>
       <c r="I161" s="7"/>
       <c r="N161" s="10"/>
@@ -6155,7 +6114,7 @@
       <c r="D162" s="18">
         <v>1</v>
       </c>
-      <c r="E162" s="74"/>
+      <c r="E162" s="66"/>
       <c r="H162" s="10"/>
       <c r="I162" s="7"/>
       <c r="N162" s="10"/>
@@ -6171,7 +6130,7 @@
       <c r="D163" s="19">
         <v>1</v>
       </c>
-      <c r="E163" s="75"/>
+      <c r="E163" s="67"/>
       <c r="H163" s="10"/>
       <c r="I163" s="7"/>
       <c r="N163" s="10"/>
@@ -6187,7 +6146,7 @@
       <c r="D164" s="18">
         <v>1</v>
       </c>
-      <c r="E164" s="74"/>
+      <c r="E164" s="66"/>
       <c r="H164" s="10"/>
       <c r="I164" s="7"/>
       <c r="N164" s="10"/>
@@ -6203,7 +6162,7 @@
       <c r="D165" s="19">
         <v>1</v>
       </c>
-      <c r="E165" s="75"/>
+      <c r="E165" s="67"/>
       <c r="H165" s="10"/>
       <c r="I165" s="7"/>
       <c r="N165" s="10"/>
@@ -6219,7 +6178,7 @@
       <c r="D166" s="18">
         <v>1</v>
       </c>
-      <c r="E166" s="74"/>
+      <c r="E166" s="66"/>
       <c r="H166" s="10"/>
       <c r="I166" s="7"/>
       <c r="N166" s="10"/>
@@ -6235,7 +6194,7 @@
       <c r="D167" s="19">
         <v>1</v>
       </c>
-      <c r="E167" s="75"/>
+      <c r="E167" s="67"/>
       <c r="H167" s="10"/>
       <c r="I167" s="7"/>
       <c r="N167" s="10"/>
@@ -6251,7 +6210,7 @@
       <c r="D168" s="18">
         <v>1</v>
       </c>
-      <c r="E168" s="74"/>
+      <c r="E168" s="66"/>
       <c r="H168" s="10"/>
       <c r="I168" s="7"/>
       <c r="N168" s="10"/>
@@ -6267,7 +6226,7 @@
       <c r="D169" s="19">
         <v>1</v>
       </c>
-      <c r="E169" s="75"/>
+      <c r="E169" s="67"/>
       <c r="H169" s="10"/>
       <c r="I169" s="7"/>
       <c r="N169" s="10"/>
@@ -6283,7 +6242,7 @@
       <c r="D170" s="18">
         <v>1</v>
       </c>
-      <c r="E170" s="74"/>
+      <c r="E170" s="66"/>
       <c r="H170" s="10"/>
       <c r="I170" s="7"/>
       <c r="N170" s="10"/>
@@ -6299,7 +6258,7 @@
       <c r="D171" s="19">
         <v>1</v>
       </c>
-      <c r="E171" s="75"/>
+      <c r="E171" s="67"/>
       <c r="H171" s="10"/>
       <c r="I171" s="7"/>
       <c r="N171" s="10"/>
@@ -6315,7 +6274,7 @@
       <c r="D172" s="18">
         <v>1</v>
       </c>
-      <c r="E172" s="74"/>
+      <c r="E172" s="66"/>
       <c r="H172" s="10"/>
       <c r="I172" s="7"/>
       <c r="N172" s="10"/>
@@ -6331,7 +6290,7 @@
       <c r="D173" s="19">
         <v>1</v>
       </c>
-      <c r="E173" s="75"/>
+      <c r="E173" s="67"/>
       <c r="H173" s="10"/>
       <c r="I173" s="7"/>
       <c r="N173" s="10"/>
@@ -6347,7 +6306,7 @@
       <c r="D174" s="18">
         <v>1</v>
       </c>
-      <c r="E174" s="74"/>
+      <c r="E174" s="66"/>
       <c r="H174" s="10"/>
       <c r="I174" s="7"/>
       <c r="N174" s="10"/>
@@ -6363,7 +6322,7 @@
       <c r="D175" s="19">
         <v>1</v>
       </c>
-      <c r="E175" s="75"/>
+      <c r="E175" s="67"/>
       <c r="H175" s="10"/>
       <c r="I175" s="7"/>
       <c r="N175" s="10"/>
@@ -6379,7 +6338,7 @@
       <c r="D176" s="18">
         <v>1</v>
       </c>
-      <c r="E176" s="74"/>
+      <c r="E176" s="66"/>
       <c r="H176" s="10"/>
       <c r="I176" s="7"/>
       <c r="N176" s="10"/>
@@ -6395,7 +6354,7 @@
       <c r="D177" s="19">
         <v>1</v>
       </c>
-      <c r="E177" s="75"/>
+      <c r="E177" s="67"/>
       <c r="H177" s="10"/>
       <c r="I177" s="7"/>
       <c r="N177" s="10"/>
@@ -6411,7 +6370,7 @@
       <c r="D178" s="18">
         <v>1</v>
       </c>
-      <c r="E178" s="74"/>
+      <c r="E178" s="66"/>
       <c r="H178" s="10"/>
       <c r="I178" s="7"/>
       <c r="N178" s="10"/>
@@ -6427,7 +6386,7 @@
       <c r="D179" s="19">
         <v>1</v>
       </c>
-      <c r="E179" s="75"/>
+      <c r="E179" s="67"/>
       <c r="H179" s="10"/>
       <c r="I179" s="7"/>
       <c r="N179" s="10"/>
@@ -6443,7 +6402,7 @@
       <c r="D180" s="18">
         <v>1</v>
       </c>
-      <c r="E180" s="74"/>
+      <c r="E180" s="66"/>
       <c r="H180" s="10"/>
       <c r="I180" s="7"/>
       <c r="N180" s="10"/>
@@ -6459,7 +6418,7 @@
       <c r="D181" s="19">
         <v>1</v>
       </c>
-      <c r="E181" s="75"/>
+      <c r="E181" s="67"/>
       <c r="H181" s="10"/>
       <c r="I181" s="7"/>
       <c r="N181" s="10"/>
@@ -6475,7 +6434,7 @@
       <c r="D182" s="18">
         <v>1</v>
       </c>
-      <c r="E182" s="74"/>
+      <c r="E182" s="66"/>
       <c r="H182" s="10"/>
       <c r="I182" s="7"/>
       <c r="N182" s="10"/>
@@ -6491,7 +6450,7 @@
       <c r="D183" s="19">
         <v>1</v>
       </c>
-      <c r="E183" s="75"/>
+      <c r="E183" s="67"/>
       <c r="H183" s="10"/>
       <c r="I183" s="7"/>
       <c r="N183" s="10"/>
@@ -6507,7 +6466,7 @@
       <c r="D184" s="18">
         <v>1</v>
       </c>
-      <c r="E184" s="74"/>
+      <c r="E184" s="66"/>
       <c r="H184" s="10"/>
       <c r="I184" s="7"/>
       <c r="N184" s="10"/>
@@ -6523,7 +6482,7 @@
       <c r="D185" s="19">
         <v>1</v>
       </c>
-      <c r="E185" s="75"/>
+      <c r="E185" s="67"/>
       <c r="H185" s="10"/>
       <c r="I185" s="7"/>
       <c r="N185" s="10"/>
@@ -6539,7 +6498,7 @@
       <c r="D186" s="18">
         <v>1</v>
       </c>
-      <c r="E186" s="74"/>
+      <c r="E186" s="66"/>
       <c r="H186" s="10"/>
       <c r="I186" s="7"/>
       <c r="N186" s="10"/>
@@ -6555,7 +6514,7 @@
       <c r="D187" s="19">
         <v>1</v>
       </c>
-      <c r="E187" s="75"/>
+      <c r="E187" s="67"/>
       <c r="H187" s="10"/>
       <c r="I187" s="7"/>
       <c r="N187" s="10"/>
@@ -6571,7 +6530,7 @@
       <c r="D188" s="18">
         <v>1</v>
       </c>
-      <c r="E188" s="74"/>
+      <c r="E188" s="66"/>
       <c r="H188" s="10"/>
       <c r="I188" s="7"/>
       <c r="N188" s="10"/>
@@ -6587,7 +6546,7 @@
       <c r="D189" s="19">
         <v>1</v>
       </c>
-      <c r="E189" s="75"/>
+      <c r="E189" s="67"/>
       <c r="H189" s="10"/>
       <c r="I189" s="7"/>
       <c r="N189" s="10"/>
@@ -6603,9 +6562,7 @@
       <c r="D190" s="18">
         <v>1</v>
       </c>
-      <c r="E190" s="74"/>
-      <c r="H190" s="10"/>
-      <c r="I190" s="7"/>
+      <c r="E190" s="66"/>
       <c r="N190" s="10"/>
       <c r="O190" s="13"/>
       <c r="Q190" s="10"/>
@@ -6619,9 +6576,7 @@
       <c r="D191" s="19">
         <v>1</v>
       </c>
-      <c r="E191" s="75"/>
-      <c r="H191" s="10"/>
-      <c r="I191" s="7"/>
+      <c r="E191" s="67"/>
       <c r="N191" s="10"/>
       <c r="O191" s="13"/>
       <c r="Q191" s="10"/>
@@ -6635,7 +6590,7 @@
       <c r="D192" s="18">
         <v>1</v>
       </c>
-      <c r="E192" s="74"/>
+      <c r="E192" s="66"/>
       <c r="N192" s="10"/>
       <c r="O192" s="13"/>
       <c r="Q192" s="10"/>
@@ -6649,7 +6604,7 @@
       <c r="D193" s="19">
         <v>1</v>
       </c>
-      <c r="E193" s="75"/>
+      <c r="E193" s="67"/>
       <c r="N193" s="10"/>
       <c r="O193" s="13"/>
       <c r="Q193" s="10"/>
@@ -6663,11 +6618,9 @@
       <c r="D194" s="18">
         <v>1</v>
       </c>
-      <c r="E194" s="74"/>
+      <c r="E194" s="66"/>
       <c r="N194" s="10"/>
-      <c r="O194" s="13"/>
-      <c r="Q194" s="10"/>
-      <c r="R194" s="7"/>
+      <c r="O194" s="7"/>
       <c r="Z194" s="10"/>
       <c r="AA194" s="7"/>
       <c r="AC194" s="10"/>
@@ -6677,11 +6630,9 @@
       <c r="D195" s="19">
         <v>1</v>
       </c>
-      <c r="E195" s="75"/>
+      <c r="E195" s="67"/>
       <c r="N195" s="10"/>
-      <c r="O195" s="13"/>
-      <c r="Q195" s="10"/>
-      <c r="R195" s="7"/>
+      <c r="O195" s="7"/>
       <c r="Z195" s="10"/>
       <c r="AA195" s="7"/>
       <c r="AC195" s="10"/>
@@ -6691,7 +6642,7 @@
       <c r="D196" s="18">
         <v>1</v>
       </c>
-      <c r="E196" s="74"/>
+      <c r="E196" s="66"/>
       <c r="N196" s="10"/>
       <c r="O196" s="7"/>
       <c r="Z196" s="10"/>
@@ -6703,7 +6654,7 @@
       <c r="D197" s="19">
         <v>1</v>
       </c>
-      <c r="E197" s="75"/>
+      <c r="E197" s="67"/>
       <c r="N197" s="10"/>
       <c r="O197" s="7"/>
       <c r="Z197" s="10"/>
@@ -6715,7 +6666,7 @@
       <c r="D198" s="18">
         <v>1</v>
       </c>
-      <c r="E198" s="74"/>
+      <c r="E198" s="66"/>
       <c r="N198" s="10"/>
       <c r="O198" s="7"/>
       <c r="Z198" s="10"/>
@@ -6727,7 +6678,7 @@
       <c r="D199" s="19">
         <v>1</v>
       </c>
-      <c r="E199" s="75"/>
+      <c r="E199" s="67"/>
       <c r="N199" s="10"/>
       <c r="O199" s="7"/>
       <c r="Z199" s="10"/>
@@ -6739,7 +6690,7 @@
       <c r="D200" s="18">
         <v>1</v>
       </c>
-      <c r="E200" s="74"/>
+      <c r="E200" s="66"/>
       <c r="N200" s="10"/>
       <c r="O200" s="7"/>
       <c r="Z200" s="10"/>
@@ -6751,7 +6702,7 @@
       <c r="D201" s="19">
         <v>1</v>
       </c>
-      <c r="E201" s="75"/>
+      <c r="E201" s="67"/>
       <c r="N201" s="10"/>
       <c r="O201" s="7"/>
       <c r="Z201" s="10"/>
@@ -6763,7 +6714,7 @@
       <c r="D202" s="18">
         <v>1</v>
       </c>
-      <c r="E202" s="74"/>
+      <c r="E202" s="66"/>
       <c r="N202" s="10"/>
       <c r="O202" s="7"/>
       <c r="Z202" s="10"/>
@@ -6775,7 +6726,7 @@
       <c r="D203" s="19">
         <v>1</v>
       </c>
-      <c r="E203" s="75"/>
+      <c r="E203" s="67"/>
       <c r="N203" s="10"/>
       <c r="O203" s="7"/>
       <c r="Z203" s="10"/>
@@ -6787,7 +6738,7 @@
       <c r="D204" s="18">
         <v>1</v>
       </c>
-      <c r="E204" s="74"/>
+      <c r="E204" s="66"/>
       <c r="N204" s="10"/>
       <c r="O204" s="7"/>
       <c r="Z204" s="10"/>
@@ -6799,7 +6750,7 @@
       <c r="D205" s="19">
         <v>1</v>
       </c>
-      <c r="E205" s="75"/>
+      <c r="E205" s="67"/>
       <c r="N205" s="10"/>
       <c r="O205" s="7"/>
       <c r="Z205" s="10"/>
@@ -6811,7 +6762,7 @@
       <c r="D206" s="18">
         <v>1</v>
       </c>
-      <c r="E206" s="74"/>
+      <c r="E206" s="66"/>
       <c r="N206" s="10"/>
       <c r="O206" s="7"/>
       <c r="Z206" s="10"/>
@@ -6823,7 +6774,7 @@
       <c r="D207" s="19">
         <v>1</v>
       </c>
-      <c r="E207" s="75"/>
+      <c r="E207" s="67"/>
       <c r="N207" s="10"/>
       <c r="O207" s="7"/>
       <c r="Z207" s="10"/>
@@ -6835,7 +6786,7 @@
       <c r="D208" s="18">
         <v>1</v>
       </c>
-      <c r="E208" s="74"/>
+      <c r="E208" s="66"/>
       <c r="N208" s="10"/>
       <c r="O208" s="7"/>
       <c r="Z208" s="10"/>
@@ -6847,7 +6798,7 @@
       <c r="D209" s="19">
         <v>1</v>
       </c>
-      <c r="E209" s="75"/>
+      <c r="E209" s="67"/>
       <c r="N209" s="10"/>
       <c r="O209" s="7"/>
       <c r="Z209" s="10"/>
@@ -6859,7 +6810,7 @@
       <c r="D210" s="18">
         <v>1</v>
       </c>
-      <c r="E210" s="74"/>
+      <c r="E210" s="66"/>
       <c r="N210" s="10"/>
       <c r="O210" s="7"/>
       <c r="Z210" s="10"/>
@@ -6871,7 +6822,7 @@
       <c r="D211" s="19">
         <v>1</v>
       </c>
-      <c r="E211" s="75"/>
+      <c r="E211" s="67"/>
       <c r="N211" s="10"/>
       <c r="O211" s="7"/>
       <c r="Z211" s="10"/>
@@ -6883,7 +6834,7 @@
       <c r="D212" s="18">
         <v>1</v>
       </c>
-      <c r="E212" s="74"/>
+      <c r="E212" s="66"/>
       <c r="N212" s="10"/>
       <c r="O212" s="7"/>
       <c r="Z212" s="10"/>
@@ -6895,7 +6846,7 @@
       <c r="D213" s="19">
         <v>1</v>
       </c>
-      <c r="E213" s="75"/>
+      <c r="E213" s="67"/>
       <c r="N213" s="10"/>
       <c r="O213" s="7"/>
       <c r="Z213" s="10"/>
@@ -6907,7 +6858,7 @@
       <c r="D214" s="18">
         <v>1</v>
       </c>
-      <c r="E214" s="74"/>
+      <c r="E214" s="66"/>
       <c r="N214" s="10"/>
       <c r="O214" s="7"/>
       <c r="Z214" s="10"/>
@@ -6919,7 +6870,7 @@
       <c r="D215" s="19">
         <v>1</v>
       </c>
-      <c r="E215" s="75"/>
+      <c r="E215" s="67"/>
       <c r="N215" s="10"/>
       <c r="O215" s="7"/>
       <c r="Z215" s="10"/>
@@ -6931,7 +6882,7 @@
       <c r="D216" s="18">
         <v>1</v>
       </c>
-      <c r="E216" s="74"/>
+      <c r="E216" s="66"/>
       <c r="N216" s="10"/>
       <c r="O216" s="7"/>
       <c r="Z216" s="10"/>
@@ -6943,7 +6894,7 @@
       <c r="D217" s="19">
         <v>1</v>
       </c>
-      <c r="E217" s="75"/>
+      <c r="E217" s="67"/>
       <c r="N217" s="10"/>
       <c r="O217" s="7"/>
       <c r="Z217" s="10"/>
@@ -6955,7 +6906,7 @@
       <c r="D218" s="18">
         <v>1</v>
       </c>
-      <c r="E218" s="74"/>
+      <c r="E218" s="66"/>
       <c r="N218" s="10"/>
       <c r="O218" s="7"/>
       <c r="Z218" s="10"/>
@@ -6967,7 +6918,7 @@
       <c r="D219" s="19">
         <v>1</v>
       </c>
-      <c r="E219" s="75"/>
+      <c r="E219" s="67"/>
       <c r="N219" s="10"/>
       <c r="O219" s="7"/>
       <c r="Z219" s="10"/>
@@ -6979,7 +6930,7 @@
       <c r="D220" s="18">
         <v>1</v>
       </c>
-      <c r="E220" s="74"/>
+      <c r="E220" s="66"/>
       <c r="N220" s="10"/>
       <c r="O220" s="7"/>
       <c r="Z220" s="10"/>
@@ -6991,7 +6942,7 @@
       <c r="D221" s="19">
         <v>1</v>
       </c>
-      <c r="E221" s="75"/>
+      <c r="E221" s="67"/>
       <c r="N221" s="10"/>
       <c r="O221" s="7"/>
       <c r="Z221" s="10"/>
@@ -7003,7 +6954,7 @@
       <c r="D222" s="18">
         <v>1</v>
       </c>
-      <c r="E222" s="74"/>
+      <c r="E222" s="66"/>
       <c r="N222" s="10"/>
       <c r="O222" s="7"/>
       <c r="Z222" s="10"/>
@@ -7015,7 +6966,7 @@
       <c r="D223" s="19">
         <v>1</v>
       </c>
-      <c r="E223" s="75"/>
+      <c r="E223" s="67"/>
       <c r="N223" s="10"/>
       <c r="O223" s="7"/>
       <c r="Z223" s="10"/>
@@ -7027,7 +6978,7 @@
       <c r="D224" s="18">
         <v>1</v>
       </c>
-      <c r="E224" s="74"/>
+      <c r="E224" s="66"/>
       <c r="N224" s="10"/>
       <c r="O224" s="7"/>
       <c r="Z224" s="10"/>
@@ -7039,7 +6990,7 @@
       <c r="D225" s="19">
         <v>1</v>
       </c>
-      <c r="E225" s="75"/>
+      <c r="E225" s="67"/>
       <c r="N225" s="10"/>
       <c r="O225" s="7"/>
       <c r="Z225" s="10"/>
@@ -7051,7 +7002,7 @@
       <c r="D226" s="18">
         <v>1</v>
       </c>
-      <c r="E226" s="74"/>
+      <c r="E226" s="66"/>
       <c r="N226" s="10"/>
       <c r="O226" s="7"/>
       <c r="Z226" s="10"/>
@@ -7063,7 +7014,7 @@
       <c r="D227" s="19">
         <v>1</v>
       </c>
-      <c r="E227" s="75"/>
+      <c r="E227" s="67"/>
       <c r="N227" s="10"/>
       <c r="O227" s="7"/>
       <c r="Z227" s="10"/>
@@ -7075,7 +7026,7 @@
       <c r="D228" s="18">
         <v>1</v>
       </c>
-      <c r="E228" s="74"/>
+      <c r="E228" s="66"/>
       <c r="N228" s="10"/>
       <c r="O228" s="7"/>
       <c r="Z228" s="10"/>
@@ -7087,7 +7038,7 @@
       <c r="D229" s="19">
         <v>1</v>
       </c>
-      <c r="E229" s="75"/>
+      <c r="E229" s="67"/>
       <c r="N229" s="10"/>
       <c r="O229" s="7"/>
       <c r="Z229" s="10"/>
@@ -7099,7 +7050,7 @@
       <c r="D230" s="18">
         <v>1</v>
       </c>
-      <c r="E230" s="74"/>
+      <c r="E230" s="66"/>
       <c r="N230" s="10"/>
       <c r="O230" s="7"/>
       <c r="Z230" s="10"/>
@@ -7111,7 +7062,7 @@
       <c r="D231" s="19">
         <v>1</v>
       </c>
-      <c r="E231" s="75"/>
+      <c r="E231" s="67"/>
       <c r="N231" s="10"/>
       <c r="O231" s="7"/>
       <c r="Z231" s="10"/>
@@ -7123,7 +7074,7 @@
       <c r="D232" s="18">
         <v>1</v>
       </c>
-      <c r="E232" s="74"/>
+      <c r="E232" s="66"/>
       <c r="N232" s="10"/>
       <c r="O232" s="7"/>
       <c r="Z232" s="10"/>
@@ -7135,7 +7086,7 @@
       <c r="D233" s="19">
         <v>1</v>
       </c>
-      <c r="E233" s="75"/>
+      <c r="E233" s="67"/>
       <c r="N233" s="10"/>
       <c r="O233" s="7"/>
       <c r="Z233" s="10"/>
@@ -7147,7 +7098,7 @@
       <c r="D234" s="18">
         <v>1</v>
       </c>
-      <c r="E234" s="74"/>
+      <c r="E234" s="66"/>
       <c r="N234" s="10"/>
       <c r="O234" s="7"/>
       <c r="Z234" s="10"/>
@@ -7159,7 +7110,7 @@
       <c r="D235" s="19">
         <v>1</v>
       </c>
-      <c r="E235" s="75"/>
+      <c r="E235" s="67"/>
       <c r="N235" s="10"/>
       <c r="O235" s="7"/>
       <c r="Z235" s="10"/>
@@ -7171,7 +7122,7 @@
       <c r="D236" s="18">
         <v>1</v>
       </c>
-      <c r="E236" s="74"/>
+      <c r="E236" s="66"/>
       <c r="N236" s="10"/>
       <c r="O236" s="7"/>
       <c r="Z236" s="10"/>
@@ -7183,7 +7134,7 @@
       <c r="D237" s="19">
         <v>1</v>
       </c>
-      <c r="E237" s="75"/>
+      <c r="E237" s="67"/>
       <c r="N237" s="10"/>
       <c r="O237" s="7"/>
       <c r="Z237" s="10"/>
@@ -7195,7 +7146,7 @@
       <c r="D238" s="18">
         <v>1</v>
       </c>
-      <c r="E238" s="74"/>
+      <c r="E238" s="66"/>
       <c r="N238" s="10"/>
       <c r="O238" s="7"/>
       <c r="Z238" s="10"/>
@@ -7207,7 +7158,7 @@
       <c r="D239" s="19">
         <v>1</v>
       </c>
-      <c r="E239" s="75"/>
+      <c r="E239" s="67"/>
       <c r="N239" s="10"/>
       <c r="O239" s="7"/>
       <c r="Z239" s="10"/>
@@ -7219,7 +7170,7 @@
       <c r="D240" s="18">
         <v>1</v>
       </c>
-      <c r="E240" s="74"/>
+      <c r="E240" s="66"/>
       <c r="N240" s="10"/>
       <c r="O240" s="7"/>
       <c r="Z240" s="10"/>
@@ -7231,7 +7182,7 @@
       <c r="D241" s="19">
         <v>1</v>
       </c>
-      <c r="E241" s="75"/>
+      <c r="E241" s="67"/>
       <c r="N241" s="10"/>
       <c r="O241" s="7"/>
       <c r="Z241" s="10"/>
@@ -7243,7 +7194,7 @@
       <c r="D242" s="18">
         <v>1</v>
       </c>
-      <c r="E242" s="74"/>
+      <c r="E242" s="66"/>
       <c r="N242" s="10"/>
       <c r="O242" s="7"/>
       <c r="Z242" s="10"/>
@@ -7255,7 +7206,7 @@
       <c r="D243" s="19">
         <v>1</v>
       </c>
-      <c r="E243" s="75"/>
+      <c r="E243" s="67"/>
       <c r="N243" s="10"/>
       <c r="O243" s="7"/>
       <c r="Z243" s="10"/>
@@ -7267,7 +7218,7 @@
       <c r="D244" s="18">
         <v>1</v>
       </c>
-      <c r="E244" s="74"/>
+      <c r="E244" s="66"/>
       <c r="N244" s="10"/>
       <c r="O244" s="7"/>
       <c r="Z244" s="10"/>
@@ -7279,7 +7230,7 @@
       <c r="D245" s="19">
         <v>1</v>
       </c>
-      <c r="E245" s="75"/>
+      <c r="E245" s="67"/>
       <c r="N245" s="10"/>
       <c r="O245" s="7"/>
       <c r="Z245" s="10"/>
@@ -7291,7 +7242,7 @@
       <c r="D246" s="18">
         <v>1</v>
       </c>
-      <c r="E246" s="74"/>
+      <c r="E246" s="66"/>
       <c r="N246" s="10"/>
       <c r="O246" s="7"/>
       <c r="Z246" s="10"/>
@@ -7303,7 +7254,7 @@
       <c r="D247" s="19">
         <v>1</v>
       </c>
-      <c r="E247" s="75"/>
+      <c r="E247" s="67"/>
       <c r="N247" s="10"/>
       <c r="O247" s="7"/>
       <c r="Z247" s="10"/>
@@ -7315,7 +7266,7 @@
       <c r="D248" s="18">
         <v>1</v>
       </c>
-      <c r="E248" s="74"/>
+      <c r="E248" s="66"/>
       <c r="N248" s="10"/>
       <c r="O248" s="7"/>
       <c r="Z248" s="10"/>
@@ -7327,9 +7278,7 @@
       <c r="D249" s="19">
         <v>1</v>
       </c>
-      <c r="E249" s="75"/>
-      <c r="N249" s="10"/>
-      <c r="O249" s="7"/>
+      <c r="E249" s="67"/>
       <c r="Z249" s="10"/>
       <c r="AA249" s="7"/>
       <c r="AC249" s="10"/>
@@ -7339,11 +7288,7 @@
       <c r="D250" s="18">
         <v>1</v>
       </c>
-      <c r="E250" s="74"/>
-      <c r="N250" s="10"/>
-      <c r="O250" s="7"/>
-      <c r="Z250" s="10"/>
-      <c r="AA250" s="7"/>
+      <c r="E250" s="66"/>
       <c r="AC250" s="10"/>
       <c r="AD250" s="7"/>
     </row>
@@ -7351,9 +7296,7 @@
       <c r="D251" s="19">
         <v>1</v>
       </c>
-      <c r="E251" s="75"/>
-      <c r="Z251" s="10"/>
-      <c r="AA251" s="7"/>
+      <c r="E251" s="67"/>
       <c r="AC251" s="10"/>
       <c r="AD251" s="7"/>
     </row>
@@ -7361,7 +7304,7 @@
       <c r="D252" s="18">
         <v>1</v>
       </c>
-      <c r="E252" s="74"/>
+      <c r="E252" s="66"/>
       <c r="AC252" s="10"/>
       <c r="AD252" s="7"/>
     </row>
@@ -7369,7 +7312,7 @@
       <c r="D253" s="19">
         <v>1</v>
       </c>
-      <c r="E253" s="75"/>
+      <c r="E253" s="67"/>
       <c r="AC253" s="10"/>
       <c r="AD253" s="7"/>
     </row>
@@ -7377,7 +7320,7 @@
       <c r="D254" s="18">
         <v>1</v>
       </c>
-      <c r="E254" s="74"/>
+      <c r="E254" s="66"/>
       <c r="AC254" s="10"/>
       <c r="AD254" s="7"/>
     </row>
@@ -7385,7 +7328,7 @@
       <c r="D255" s="19">
         <v>1</v>
       </c>
-      <c r="E255" s="75"/>
+      <c r="E255" s="67"/>
       <c r="AC255" s="10"/>
       <c r="AD255" s="7"/>
     </row>
@@ -7393,7 +7336,7 @@
       <c r="D256" s="18">
         <v>1</v>
       </c>
-      <c r="E256" s="74"/>
+      <c r="E256" s="66"/>
       <c r="AC256" s="10"/>
       <c r="AD256" s="7"/>
     </row>
@@ -7401,7 +7344,7 @@
       <c r="D257" s="19">
         <v>1</v>
       </c>
-      <c r="E257" s="75"/>
+      <c r="E257" s="67"/>
       <c r="AC257" s="10"/>
       <c r="AD257" s="7"/>
     </row>
@@ -7409,7 +7352,7 @@
       <c r="D258" s="18">
         <v>1</v>
       </c>
-      <c r="E258" s="74"/>
+      <c r="E258" s="66"/>
       <c r="AC258" s="10"/>
       <c r="AD258" s="7"/>
     </row>
@@ -7417,7 +7360,7 @@
       <c r="D259" s="19">
         <v>1</v>
       </c>
-      <c r="E259" s="75"/>
+      <c r="E259" s="67"/>
       <c r="AC259" s="10"/>
       <c r="AD259" s="7"/>
     </row>
@@ -7425,7 +7368,7 @@
       <c r="D260" s="18">
         <v>1</v>
       </c>
-      <c r="E260" s="74"/>
+      <c r="E260" s="66"/>
       <c r="AC260" s="10"/>
       <c r="AD260" s="7"/>
     </row>
@@ -7433,7 +7376,7 @@
       <c r="D261" s="19">
         <v>1</v>
       </c>
-      <c r="E261" s="75"/>
+      <c r="E261" s="67"/>
       <c r="AC261" s="10"/>
       <c r="AD261" s="7"/>
     </row>
@@ -7441,7 +7384,7 @@
       <c r="D262" s="18">
         <v>1</v>
       </c>
-      <c r="E262" s="74"/>
+      <c r="E262" s="66"/>
       <c r="AC262" s="10"/>
       <c r="AD262" s="7"/>
     </row>
@@ -7449,7 +7392,7 @@
       <c r="D263" s="19">
         <v>1</v>
       </c>
-      <c r="E263" s="75"/>
+      <c r="E263" s="67"/>
       <c r="AC263" s="10"/>
       <c r="AD263" s="7"/>
     </row>
@@ -7457,7 +7400,7 @@
       <c r="D264" s="18">
         <v>1</v>
       </c>
-      <c r="E264" s="74"/>
+      <c r="E264" s="66"/>
       <c r="AC264" s="10"/>
       <c r="AD264" s="7"/>
     </row>
@@ -7465,7 +7408,7 @@
       <c r="D265" s="19">
         <v>1</v>
       </c>
-      <c r="E265" s="75"/>
+      <c r="E265" s="67"/>
       <c r="AC265" s="10"/>
       <c r="AD265" s="7"/>
     </row>
@@ -7473,7 +7416,7 @@
       <c r="D266" s="18">
         <v>1</v>
       </c>
-      <c r="E266" s="74"/>
+      <c r="E266" s="66"/>
       <c r="AC266" s="10"/>
       <c r="AD266" s="7"/>
     </row>
@@ -7481,7 +7424,7 @@
       <c r="D267" s="19">
         <v>1</v>
       </c>
-      <c r="E267" s="75"/>
+      <c r="E267" s="67"/>
       <c r="AC267" s="10"/>
       <c r="AD267" s="7"/>
     </row>
@@ -7489,7 +7432,7 @@
       <c r="D268" s="18">
         <v>1</v>
       </c>
-      <c r="E268" s="74"/>
+      <c r="E268" s="66"/>
       <c r="AC268" s="10"/>
       <c r="AD268" s="7"/>
     </row>
@@ -7497,7 +7440,7 @@
       <c r="D269" s="19">
         <v>1</v>
       </c>
-      <c r="E269" s="75"/>
+      <c r="E269" s="67"/>
       <c r="AC269" s="10"/>
       <c r="AD269" s="7"/>
     </row>
@@ -7505,7 +7448,7 @@
       <c r="D270" s="18">
         <v>1</v>
       </c>
-      <c r="E270" s="74"/>
+      <c r="E270" s="66"/>
       <c r="AC270" s="10"/>
       <c r="AD270" s="7"/>
     </row>
@@ -7513,287 +7456,271 @@
       <c r="D271" s="19">
         <v>1</v>
       </c>
-      <c r="E271" s="75"/>
-      <c r="AC271" s="10"/>
-      <c r="AD271" s="7"/>
+      <c r="E271" s="67"/>
     </row>
     <row r="272" spans="4:30" x14ac:dyDescent="0.2">
       <c r="D272" s="18">
         <v>1</v>
       </c>
-      <c r="E272" s="74"/>
-      <c r="AC272" s="10"/>
-      <c r="AD272" s="7"/>
+      <c r="E272" s="66"/>
     </row>
     <row r="273" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D273" s="19">
         <v>1</v>
       </c>
-      <c r="E273" s="75"/>
+      <c r="E273" s="67"/>
     </row>
     <row r="274" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D274" s="18">
         <v>1</v>
       </c>
-      <c r="E274" s="74"/>
+      <c r="E274" s="66"/>
     </row>
     <row r="275" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D275" s="19">
         <v>1</v>
       </c>
-      <c r="E275" s="75"/>
+      <c r="E275" s="67"/>
     </row>
     <row r="276" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D276" s="18">
         <v>1</v>
       </c>
-      <c r="E276" s="74"/>
+      <c r="E276" s="66"/>
     </row>
     <row r="277" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D277" s="19">
         <v>1</v>
       </c>
-      <c r="E277" s="75"/>
+      <c r="E277" s="67"/>
     </row>
     <row r="278" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D278" s="18">
         <v>1</v>
       </c>
-      <c r="E278" s="74"/>
+      <c r="E278" s="66"/>
     </row>
     <row r="279" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D279" s="19">
         <v>1</v>
       </c>
-      <c r="E279" s="75"/>
+      <c r="E279" s="67"/>
     </row>
     <row r="280" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D280" s="18">
         <v>1</v>
       </c>
-      <c r="E280" s="74"/>
+      <c r="E280" s="66"/>
     </row>
     <row r="281" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D281" s="19">
         <v>1</v>
       </c>
-      <c r="E281" s="75"/>
+      <c r="E281" s="67"/>
     </row>
     <row r="282" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D282" s="18">
         <v>1</v>
       </c>
-      <c r="E282" s="74"/>
+      <c r="E282" s="66"/>
     </row>
     <row r="283" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D283" s="19">
         <v>1</v>
       </c>
-      <c r="E283" s="75"/>
+      <c r="E283" s="67"/>
     </row>
     <row r="284" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D284" s="18">
         <v>1</v>
       </c>
-      <c r="E284" s="74"/>
+      <c r="E284" s="66"/>
     </row>
     <row r="285" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D285" s="19">
         <v>1</v>
       </c>
-      <c r="E285" s="75"/>
+      <c r="E285" s="67"/>
     </row>
     <row r="286" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D286" s="18">
         <v>1</v>
       </c>
-      <c r="E286" s="74"/>
+      <c r="E286" s="66"/>
     </row>
     <row r="287" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D287" s="19">
         <v>1</v>
       </c>
-      <c r="E287" s="75"/>
+      <c r="E287" s="67"/>
     </row>
     <row r="288" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D288" s="18">
         <v>1</v>
       </c>
-      <c r="E288" s="74"/>
+      <c r="E288" s="66"/>
     </row>
     <row r="289" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D289" s="19">
         <v>1</v>
       </c>
-      <c r="E289" s="75"/>
+      <c r="E289" s="67"/>
     </row>
     <row r="290" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D290" s="18">
         <v>1</v>
       </c>
-      <c r="E290" s="74"/>
+      <c r="E290" s="66"/>
     </row>
     <row r="291" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D291" s="19">
         <v>1</v>
       </c>
-      <c r="E291" s="75"/>
+      <c r="E291" s="67"/>
     </row>
     <row r="292" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D292" s="18">
         <v>1</v>
       </c>
-      <c r="E292" s="74"/>
+      <c r="E292" s="66"/>
     </row>
     <row r="293" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D293" s="19">
         <v>1</v>
       </c>
-      <c r="E293" s="75"/>
+      <c r="E293" s="67"/>
     </row>
     <row r="294" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D294" s="18">
         <v>1</v>
       </c>
-      <c r="E294" s="74"/>
+      <c r="E294" s="66"/>
     </row>
     <row r="295" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D295" s="19">
         <v>1</v>
       </c>
-      <c r="E295" s="75"/>
+      <c r="E295" s="67"/>
     </row>
     <row r="296" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D296" s="18">
         <v>1</v>
       </c>
-      <c r="E296" s="74"/>
+      <c r="E296" s="66"/>
     </row>
     <row r="297" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D297" s="19">
         <v>1</v>
       </c>
-      <c r="E297" s="75"/>
+      <c r="E297" s="67"/>
     </row>
     <row r="298" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D298" s="18">
         <v>1</v>
       </c>
-      <c r="E298" s="74"/>
+      <c r="E298" s="66"/>
     </row>
     <row r="299" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D299" s="19">
         <v>1</v>
       </c>
-      <c r="E299" s="75"/>
+      <c r="E299" s="67"/>
     </row>
     <row r="300" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D300" s="18">
         <v>1</v>
       </c>
-      <c r="E300" s="74"/>
+      <c r="E300" s="66"/>
     </row>
     <row r="301" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D301" s="19">
         <v>1</v>
       </c>
-      <c r="E301" s="75"/>
+      <c r="E301" s="67"/>
     </row>
     <row r="302" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D302" s="18">
         <v>1</v>
       </c>
-      <c r="E302" s="74"/>
+      <c r="E302" s="66"/>
     </row>
     <row r="303" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D303" s="19">
         <v>1</v>
       </c>
-      <c r="E303" s="75"/>
+      <c r="E303" s="67"/>
     </row>
     <row r="304" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D304" s="18">
         <v>1</v>
       </c>
-      <c r="E304" s="74"/>
+      <c r="E304" s="66"/>
     </row>
     <row r="305" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D305" s="19">
         <v>1</v>
       </c>
-      <c r="E305" s="75"/>
+      <c r="E305" s="67"/>
     </row>
     <row r="306" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D306" s="18">
         <v>1</v>
       </c>
-      <c r="E306" s="74"/>
+      <c r="E306" s="66"/>
     </row>
     <row r="307" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D307" s="19">
         <v>1</v>
       </c>
-      <c r="E307" s="75"/>
+      <c r="E307" s="67"/>
     </row>
     <row r="308" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D308" s="18">
         <v>1</v>
       </c>
-      <c r="E308" s="74"/>
+      <c r="E308" s="66"/>
     </row>
     <row r="309" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D309" s="19">
         <v>1</v>
       </c>
-      <c r="E309" s="75"/>
+      <c r="E309" s="67"/>
     </row>
     <row r="310" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D310" s="18">
         <v>1</v>
       </c>
-      <c r="E310" s="74"/>
+      <c r="E310" s="66"/>
     </row>
     <row r="311" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D311" s="19">
         <v>1</v>
       </c>
-      <c r="E311" s="75"/>
+      <c r="E311" s="67"/>
     </row>
     <row r="312" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D312" s="18">
         <v>1</v>
       </c>
-      <c r="E312" s="74"/>
+      <c r="E312" s="66"/>
     </row>
     <row r="313" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D313" s="19">
         <v>1</v>
       </c>
-      <c r="E313" s="75"/>
+      <c r="E313" s="67"/>
     </row>
     <row r="314" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D314" s="18">
         <v>1</v>
       </c>
-      <c r="E314" s="74"/>
+      <c r="E314" s="66"/>
     </row>
     <row r="315" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D315" s="19">
         <v>1</v>
       </c>
-      <c r="E315" s="75"/>
-    </row>
-    <row r="316" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D316" s="18">
-        <v>1</v>
-      </c>
-      <c r="E316" s="74"/>
-    </row>
-    <row r="317" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D317" s="19">
-        <v>1</v>
-      </c>
-      <c r="E317" s="75"/>
+      <c r="E315" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -7812,24 +7739,24 @@
     <mergeCell ref="U2:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E682F4AE-98F6-AF43-ACD4-CA6ECA726A84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="61.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -7838,7 +7765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB19AB7-6EC7-F741-A63A-22C6C0836F61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B4:C21"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
@@ -7852,101 +7779,101 @@
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" s="56"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C13" s="56"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" s="56"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C15" s="56"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C16" s="56"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C17" s="56"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="56" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
